--- a/LEET_CODE_LIST.xlsx
+++ b/LEET_CODE_LIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkat/Desktop/DSA_08_29_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E574696A-BD23-1E47-B2F3-068EE0755BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0CEA71F-FE80-A941-907B-A679461009B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Patterns" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'amazon 1M'!$A$1:$B$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Patterns'!$A$1:$G$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Patterns'!$A$1:$G$125</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'My Patterns'!$A$1:$F$233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="570">
   <si>
     <t>Problem Name</t>
   </si>
@@ -1852,12 +1852,15 @@
   <si>
     <t>Next Greater Element I</t>
   </si>
+  <si>
+    <t>Permuations II</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1975,6 +1978,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2035,10 +2046,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2080,8 +2092,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2295,13 +2311,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1001"/>
+  <dimension ref="A1:X1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2344,7 +2360,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2374,7 +2390,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2404,7 +2420,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2434,7 +2450,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2464,7 +2480,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2510,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2524,7 +2540,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2768,17 +2784,17 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>21</v>
+    <row r="15" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="25" t="s">
+        <v>569</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2908,7 +2924,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -2941,25 +2957,19 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>26</v>
+      <c r="A20" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2980,7 +2990,7 @@
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>14</v>
@@ -2993,10 +3003,10 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3018,7 +3028,7 @@
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
@@ -3031,9 +3041,11 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3">
-        <v>7</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -3054,7 +3066,7 @@
     </row>
     <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
@@ -3067,7 +3079,7 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -3090,7 +3102,7 @@
     </row>
     <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>14</v>
@@ -3098,9 +3110,13 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3">
+        <v>10</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -3120,18 +3136,18 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -3154,7 +3170,7 @@
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -3186,7 +3202,7 @@
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
@@ -3218,7 +3234,7 @@
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
@@ -3250,7 +3266,7 @@
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>34</v>
@@ -3281,14 +3297,16 @@
       <c r="X29" s="3"/>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>39</v>
+      <c r="A30" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3310,17 +3328,15 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>41</v>
+    <row r="31" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3344,7 +3360,7 @@
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
@@ -3376,20 +3392,18 @@
     </row>
     <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -3408,9 +3422,9 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>44</v>
@@ -3422,7 +3436,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3442,9 +3456,9 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>44</v>
@@ -3456,7 +3470,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -3476,9 +3490,9 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>44</v>
@@ -3490,7 +3504,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3510,9 +3524,9 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>44</v>
@@ -3544,9 +3558,9 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>44</v>
@@ -3557,7 +3571,9 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -3576,14 +3592,16 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3606,9 +3624,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>44</v>
@@ -3636,12 +3654,12 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3666,12 +3684,12 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3696,9 +3714,9 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>59</v>
@@ -3726,9 +3744,9 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>59</v>
@@ -3756,9 +3774,9 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>59</v>
@@ -3786,9 +3804,9 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>59</v>
@@ -3816,9 +3834,9 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>59</v>
@@ -3846,9 +3864,9 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>59</v>
@@ -3876,9 +3894,9 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>59</v>
@@ -3906,9 +3924,9 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>59</v>
@@ -3936,9 +3954,9 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>59</v>
@@ -3966,9 +3984,9 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>59</v>
@@ -3996,9 +4014,9 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -4026,9 +4044,9 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>59</v>
@@ -4056,9 +4074,9 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
@@ -4086,9 +4104,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>59</v>
@@ -4116,9 +4134,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>59</v>
@@ -4146,9 +4164,9 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>59</v>
@@ -4176,12 +4194,12 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -4206,12 +4224,12 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4236,9 +4254,9 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>79</v>
@@ -4266,9 +4284,9 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>79</v>
@@ -4296,9 +4314,9 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -4326,9 +4344,9 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>79</v>
@@ -4356,12 +4374,12 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4386,12 +4404,12 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4416,9 +4434,9 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -4446,9 +4464,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>87</v>
@@ -4476,12 +4494,12 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4506,9 +4524,9 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>91</v>
@@ -4536,9 +4554,9 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
@@ -4566,12 +4584,12 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4596,12 +4614,12 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4626,12 +4644,12 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4656,9 +4674,9 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
@@ -4686,12 +4704,12 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4716,9 +4734,9 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
@@ -4746,9 +4764,9 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>102</v>
@@ -4776,9 +4794,9 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>102</v>
@@ -4806,12 +4824,12 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -4836,9 +4854,9 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>107</v>
@@ -4866,9 +4884,9 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>107</v>
@@ -4896,9 +4914,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>107</v>
@@ -4926,12 +4944,12 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -4956,9 +4974,9 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>112</v>
@@ -4986,9 +5004,9 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>112</v>
@@ -5016,9 +5034,9 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>112</v>
@@ -5046,9 +5064,9 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>112</v>
@@ -5076,12 +5094,12 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -5106,9 +5124,9 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>118</v>
@@ -5136,9 +5154,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>118</v>
@@ -5166,9 +5184,9 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>118</v>
@@ -5196,9 +5214,9 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>118</v>
@@ -5226,9 +5244,9 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>118</v>
@@ -5256,9 +5274,9 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>118</v>
@@ -5286,9 +5304,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>118</v>
@@ -5316,20 +5334,16 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C97" s="3">
-        <v>2</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -5352,7 +5366,7 @@
     </row>
     <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>127</v>
@@ -5386,13 +5400,13 @@
     </row>
     <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C99" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>15</v>
@@ -5420,7 +5434,7 @@
     </row>
     <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>127</v>
@@ -5454,13 +5468,13 @@
     </row>
     <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C101" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>15</v>
@@ -5488,7 +5502,7 @@
     </row>
     <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>127</v>
@@ -5522,7 +5536,7 @@
     </row>
     <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>127</v>
@@ -5556,7 +5570,7 @@
     </row>
     <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>127</v>
@@ -5590,13 +5604,13 @@
     </row>
     <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C105" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>15</v>
@@ -5624,14 +5638,18 @@
     </row>
     <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="4"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -5652,9 +5670,9 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>137</v>
@@ -5682,9 +5700,9 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>137</v>
@@ -5712,12 +5730,12 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -5742,9 +5760,9 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>141</v>
@@ -5772,9 +5790,9 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>141</v>
@@ -5802,9 +5820,9 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>141</v>
@@ -5832,9 +5850,9 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>141</v>
@@ -5862,9 +5880,9 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>141</v>
@@ -5892,20 +5910,16 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
-        <v>147</v>
+    <row r="115" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C115" s="3"/>
-      <c r="D115" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>566</v>
-      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -5928,7 +5942,7 @@
     </row>
     <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>127</v>
@@ -5962,7 +5976,7 @@
     </row>
     <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>127</v>
@@ -5996,10 +6010,10 @@
     </row>
     <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="4" t="s">
@@ -6030,7 +6044,7 @@
     </row>
     <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>159</v>
@@ -6064,16 +6078,18 @@
     </row>
     <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>567</v>
+        <v>159</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -6096,7 +6112,7 @@
     </row>
     <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>567</v>
@@ -6128,7 +6144,7 @@
     </row>
     <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>568</v>
+        <v>202</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>567</v>
@@ -6160,7 +6176,7 @@
     </row>
     <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>343</v>
+        <v>568</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>567</v>
@@ -6192,7 +6208,7 @@
     </row>
     <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>567</v>
@@ -6222,11 +6238,17 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+    <row r="125" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>567</v>
+      </c>
       <c r="C125" s="3"/>
-      <c r="D125" s="4"/>
+      <c r="D125" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -29024,8 +29046,40 @@
       <c r="W1001" s="3"/>
       <c r="X1001" s="3"/>
     </row>
+    <row r="1002" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1002" s="3"/>
+      <c r="B1002" s="3"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="3"/>
+      <c r="G1002" s="3"/>
+      <c r="H1002" s="3"/>
+      <c r="I1002" s="3"/>
+      <c r="J1002" s="3"/>
+      <c r="K1002" s="3"/>
+      <c r="L1002" s="3"/>
+      <c r="M1002" s="3"/>
+      <c r="N1002" s="3"/>
+      <c r="O1002" s="3"/>
+      <c r="P1002" s="3"/>
+      <c r="Q1002" s="3"/>
+      <c r="R1002" s="3"/>
+      <c r="S1002" s="3"/>
+      <c r="T1002" s="3"/>
+      <c r="U1002" s="3"/>
+      <c r="V1002" s="3"/>
+      <c r="W1002" s="3"/>
+      <c r="X1002" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G119" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G125" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -29040,116 +29094,117 @@
     <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="A72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="A74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="A76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="A78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="A80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="A82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="A84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="A86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="A88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="A91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="A92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="A93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="A95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="A96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="A97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="A98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="A100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="A101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="A102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="A103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="A104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="A105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="A106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="A108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="A110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="A112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="A113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="A114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="A115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="A116" r:id="rId115" display="https://leetcode.com/problems/insert-into-a-binary-search-tree/" xr:uid="{ADBD6DE6-6F81-E641-B4B7-49FE47004641}"/>
-    <hyperlink ref="A117" r:id="rId116" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{B1461033-5BA0-7547-925B-C6D108E9EC86}"/>
-    <hyperlink ref="A118" r:id="rId117" display="https://leetcode.com/problems/min-stack/" xr:uid="{D9CEA329-85AD-7145-A930-4573E2655FE5}"/>
-    <hyperlink ref="A119" r:id="rId118" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/" xr:uid="{EE2700FD-DCE0-A541-95CD-CFA938FF0EB1}"/>
-    <hyperlink ref="A120" r:id="rId119" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{EAEFC768-DCE3-9548-ADC0-421667439610}"/>
-    <hyperlink ref="A121" r:id="rId120" display="https://leetcode.com/problems/buildings-with-an-ocean-view/" xr:uid="{5DCB413A-C4EE-D840-9910-3CB1E3BCBA59}"/>
-    <hyperlink ref="A122" r:id="rId121" display="https://leetcode.com/problems/next-greater-element-i/" xr:uid="{F91D423E-F23F-6544-ACF4-66573BC73611}"/>
-    <hyperlink ref="A123" r:id="rId122" display="https://leetcode.com/problems/132-pattern/" xr:uid="{7C06CC5A-E5D3-C840-BF03-372AE5318481}"/>
-    <hyperlink ref="A124" r:id="rId123" display="https://leetcode.com/problems/remove-k-digits/" xr:uid="{AA5738CB-9E06-E148-A2B3-CF1C00F95632}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A93" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A94" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A96" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A97" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A98" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A99" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A100" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A101" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A102" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A103" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A104" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A105" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A106" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A107" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A108" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A110" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A112" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A113" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A114" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A115" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A116" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A117" r:id="rId114" display="https://leetcode.com/problems/insert-into-a-binary-search-tree/" xr:uid="{ADBD6DE6-6F81-E641-B4B7-49FE47004641}"/>
+    <hyperlink ref="A118" r:id="rId115" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{B1461033-5BA0-7547-925B-C6D108E9EC86}"/>
+    <hyperlink ref="A119" r:id="rId116" display="https://leetcode.com/problems/min-stack/" xr:uid="{D9CEA329-85AD-7145-A930-4573E2655FE5}"/>
+    <hyperlink ref="A120" r:id="rId117" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/" xr:uid="{EE2700FD-DCE0-A541-95CD-CFA938FF0EB1}"/>
+    <hyperlink ref="A121" r:id="rId118" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{EAEFC768-DCE3-9548-ADC0-421667439610}"/>
+    <hyperlink ref="A122" r:id="rId119" display="https://leetcode.com/problems/buildings-with-an-ocean-view/" xr:uid="{5DCB413A-C4EE-D840-9910-3CB1E3BCBA59}"/>
+    <hyperlink ref="A123" r:id="rId120" display="https://leetcode.com/problems/next-greater-element-i/" xr:uid="{F91D423E-F23F-6544-ACF4-66573BC73611}"/>
+    <hyperlink ref="A124" r:id="rId121" display="https://leetcode.com/problems/132-pattern/" xr:uid="{7C06CC5A-E5D3-C840-BF03-372AE5318481}"/>
+    <hyperlink ref="A125" r:id="rId122" display="https://leetcode.com/problems/remove-k-digits/" xr:uid="{AA5738CB-9E06-E148-A2B3-CF1C00F95632}"/>
+    <hyperlink ref="A15" r:id="rId123" xr:uid="{C9B02FA7-A460-534B-8224-B58EACA416DC}"/>
+    <hyperlink ref="A20" r:id="rId124" xr:uid="{F0DF8437-0D5C-CB47-8F51-866DA9879A59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57463,7 +57518,7 @@
   </sheetPr>
   <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -57923,7 +57978,9 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/LEET_CODE_LIST.xlsx
+++ b/LEET_CODE_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkat/Desktop/DSA_08_29_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110863EB-E5A8-6B4E-8F23-54770FF234F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D98D01C-8DD0-054D-8D61-E46DA5EFF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="576">
   <si>
     <t>Problem Name</t>
   </si>
@@ -1859,22 +1859,19 @@
     <t>Binary Search / Heap</t>
   </si>
   <si>
-    <t>1. First do it in using Heaps and later do it using Binary Search(HEAP METHOD IS COMPLETED</t>
-  </si>
-  <si>
     <t>Kth Largest Element in a Stream (EASY)</t>
   </si>
   <si>
     <t>Completed with HEAPS.</t>
   </si>
   <si>
-    <t>Binary Search / Heap / Quick Select</t>
-  </si>
-  <si>
     <t>Heap / Quick Select</t>
   </si>
   <si>
     <t>Heap / Bucket Sort</t>
+  </si>
+  <si>
+    <t>We can Solve this in binary search by searching diagonal + binary search. But it is hard and simple method is top-right and elimination</t>
   </si>
 </sst>
 </file>
@@ -2068,7 +2065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2113,7 +2110,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2341,15 +2337,15 @@
   <dimension ref="A1:X1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="51.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="28"/>
-    <col min="7" max="7" width="88.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="27"/>
+    <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.15">
@@ -2360,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4"/>
@@ -3448,7 +3444,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>43</v>
       </c>
@@ -3458,7 +3454,9 @@
       <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
@@ -3482,7 +3480,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
@@ -3492,7 +3490,9 @@
       <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
@@ -3516,7 +3516,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>48</v>
       </c>
@@ -3526,7 +3526,9 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
@@ -3550,7 +3552,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>50</v>
       </c>
@@ -3560,7 +3562,9 @@
       <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
@@ -3584,7 +3588,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>52</v>
       </c>
@@ -3594,7 +3598,9 @@
       <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
@@ -3618,7 +3624,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
@@ -3628,7 +3634,9 @@
       <c r="C39" s="3">
         <v>1</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3650,7 +3658,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
@@ -3658,10 +3666,14 @@
         <v>44</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>575</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -3680,7 +3692,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>55</v>
       </c>
@@ -3688,7 +3700,9 @@
         <v>44</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3718,14 +3732,12 @@
         <v>570</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="26" t="s">
-        <v>571</v>
-      </c>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -4704,7 +4716,7 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>97</v>
       </c>
@@ -4712,13 +4724,13 @@
         <v>98</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -4738,7 +4750,7 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>99</v>
       </c>
@@ -4746,13 +4758,13 @@
         <v>98</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -4772,7 +4784,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>100</v>
       </c>
@@ -4780,7 +4792,7 @@
         <v>101</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="3"/>
@@ -4809,16 +4821,16 @@
         <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -4838,21 +4850,21 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -4872,21 +4884,21 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -5722,7 +5734,7 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>135</v>
       </c>
@@ -5752,7 +5764,7 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>137</v>
       </c>
@@ -5782,7 +5794,7 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
         <v>138</v>
       </c>
@@ -6354,15 +6366,15 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C127" s="3"/>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E127" s="4"/>
@@ -6390,7 +6402,7 @@
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="27"/>
+      <c r="D128" s="26"/>
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -6416,7 +6428,7 @@
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="27"/>
+      <c r="D129" s="26"/>
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -6442,7 +6454,7 @@
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="27"/>
+      <c r="D130" s="26"/>
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -6468,7 +6480,7 @@
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="27"/>
+      <c r="D132" s="26"/>
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -6494,7 +6506,7 @@
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="27"/>
+      <c r="D133" s="26"/>
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -6520,7 +6532,7 @@
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="27"/>
+      <c r="D134" s="26"/>
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -6546,7 +6558,7 @@
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="27"/>
+      <c r="D135" s="26"/>
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -6572,7 +6584,7 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="27"/>
+      <c r="D136" s="26"/>
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -6598,7 +6610,7 @@
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="27"/>
+      <c r="D137" s="26"/>
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -6624,7 +6636,7 @@
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="27"/>
+      <c r="D138" s="26"/>
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -6650,7 +6662,7 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="27"/>
+      <c r="D139" s="26"/>
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -6676,7 +6688,7 @@
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="27"/>
+      <c r="D140" s="26"/>
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -6702,7 +6714,7 @@
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="27"/>
+      <c r="D141" s="26"/>
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -6728,7 +6740,7 @@
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="27"/>
+      <c r="D142" s="26"/>
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -6754,7 +6766,7 @@
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="27"/>
+      <c r="D143" s="26"/>
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -6780,8 +6792,8 @@
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="4"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -6806,7 +6818,7 @@
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="27"/>
+      <c r="D145" s="26"/>
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -6832,7 +6844,7 @@
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="27"/>
+      <c r="D146" s="26"/>
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -6858,7 +6870,7 @@
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="27"/>
+      <c r="D147" s="26"/>
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -6884,7 +6896,7 @@
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="27"/>
+      <c r="D148" s="26"/>
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -6910,7 +6922,7 @@
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="27"/>
+      <c r="D149" s="26"/>
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -6936,7 +6948,7 @@
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="27"/>
+      <c r="D150" s="26"/>
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -6962,7 +6974,7 @@
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="27"/>
+      <c r="D151" s="26"/>
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -6988,7 +7000,7 @@
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="27"/>
+      <c r="D152" s="26"/>
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -7014,7 +7026,7 @@
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="27"/>
+      <c r="D153" s="26"/>
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -7040,7 +7052,7 @@
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="27"/>
+      <c r="D154" s="26"/>
       <c r="E154" s="4"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -7066,7 +7078,7 @@
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="27"/>
+      <c r="D155" s="26"/>
       <c r="E155" s="4"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -7092,7 +7104,7 @@
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="27"/>
+      <c r="D156" s="26"/>
       <c r="E156" s="4"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -7118,7 +7130,7 @@
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="27"/>
+      <c r="D157" s="26"/>
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -7144,7 +7156,7 @@
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="27"/>
+      <c r="D158" s="26"/>
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -7170,7 +7182,7 @@
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="27"/>
+      <c r="D159" s="26"/>
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -7196,7 +7208,7 @@
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="27"/>
+      <c r="D160" s="26"/>
       <c r="E160" s="4"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -7222,7 +7234,7 @@
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="27"/>
+      <c r="D161" s="26"/>
       <c r="E161" s="4"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -7248,7 +7260,7 @@
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="27"/>
+      <c r="D162" s="26"/>
       <c r="E162" s="4"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -7274,7 +7286,7 @@
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="27"/>
+      <c r="D163" s="26"/>
       <c r="E163" s="4"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -7300,7 +7312,7 @@
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="27"/>
+      <c r="D164" s="26"/>
       <c r="E164" s="4"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -7326,7 +7338,7 @@
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="27"/>
+      <c r="D165" s="26"/>
       <c r="E165" s="4"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -7352,7 +7364,7 @@
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="27"/>
+      <c r="D166" s="26"/>
       <c r="E166" s="4"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -7378,7 +7390,7 @@
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="27"/>
+      <c r="D167" s="26"/>
       <c r="E167" s="4"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -7404,7 +7416,7 @@
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
-      <c r="D168" s="27"/>
+      <c r="D168" s="26"/>
       <c r="E168" s="4"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
@@ -7430,7 +7442,7 @@
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="27"/>
+      <c r="D169" s="26"/>
       <c r="E169" s="4"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -7456,7 +7468,7 @@
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="27"/>
+      <c r="D170" s="26"/>
       <c r="E170" s="4"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -7482,7 +7494,7 @@
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="27"/>
+      <c r="D171" s="26"/>
       <c r="E171" s="4"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -7508,7 +7520,7 @@
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="27"/>
+      <c r="D172" s="26"/>
       <c r="E172" s="4"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -7534,7 +7546,7 @@
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="27"/>
+      <c r="D173" s="26"/>
       <c r="E173" s="4"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -7560,7 +7572,7 @@
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="27"/>
+      <c r="D174" s="26"/>
       <c r="E174" s="4"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -7586,7 +7598,7 @@
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="27"/>
+      <c r="D175" s="26"/>
       <c r="E175" s="4"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -7612,7 +7624,7 @@
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="27"/>
+      <c r="D176" s="26"/>
       <c r="E176" s="4"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -7638,7 +7650,7 @@
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="27"/>
+      <c r="D177" s="26"/>
       <c r="E177" s="4"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -7664,7 +7676,7 @@
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="27"/>
+      <c r="D178" s="26"/>
       <c r="E178" s="4"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -7690,7 +7702,7 @@
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="27"/>
+      <c r="D179" s="26"/>
       <c r="E179" s="4"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -7716,7 +7728,7 @@
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="27"/>
+      <c r="D180" s="26"/>
       <c r="E180" s="4"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -7742,7 +7754,7 @@
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="27"/>
+      <c r="D181" s="26"/>
       <c r="E181" s="4"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -7768,7 +7780,7 @@
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="27"/>
+      <c r="D182" s="26"/>
       <c r="E182" s="4"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -7794,7 +7806,7 @@
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="27"/>
+      <c r="D183" s="26"/>
       <c r="E183" s="4"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -7820,7 +7832,7 @@
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="27"/>
+      <c r="D184" s="26"/>
       <c r="E184" s="4"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -7846,7 +7858,7 @@
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="27"/>
+      <c r="D185" s="26"/>
       <c r="E185" s="4"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -7872,7 +7884,7 @@
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="D186" s="27"/>
+      <c r="D186" s="26"/>
       <c r="E186" s="4"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -7898,7 +7910,7 @@
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="27"/>
+      <c r="D187" s="26"/>
       <c r="E187" s="4"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -7924,7 +7936,7 @@
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="27"/>
+      <c r="D188" s="26"/>
       <c r="E188" s="4"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -7950,7 +7962,7 @@
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="27"/>
+      <c r="D189" s="26"/>
       <c r="E189" s="4"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -7976,7 +7988,7 @@
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="27"/>
+      <c r="D190" s="26"/>
       <c r="E190" s="4"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -8002,7 +8014,7 @@
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
-      <c r="D191" s="27"/>
+      <c r="D191" s="26"/>
       <c r="E191" s="4"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -8028,7 +8040,7 @@
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="27"/>
+      <c r="D192" s="26"/>
       <c r="E192" s="4"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -8054,7 +8066,7 @@
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="27"/>
+      <c r="D193" s="26"/>
       <c r="E193" s="4"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -8080,7 +8092,7 @@
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="27"/>
+      <c r="D194" s="26"/>
       <c r="E194" s="4"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -8106,7 +8118,7 @@
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="27"/>
+      <c r="D195" s="26"/>
       <c r="E195" s="4"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -8132,7 +8144,7 @@
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
-      <c r="D196" s="27"/>
+      <c r="D196" s="26"/>
       <c r="E196" s="4"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -8158,7 +8170,7 @@
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
-      <c r="D197" s="27"/>
+      <c r="D197" s="26"/>
       <c r="E197" s="4"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -8184,7 +8196,7 @@
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
-      <c r="D198" s="27"/>
+      <c r="D198" s="26"/>
       <c r="E198" s="4"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -8210,7 +8222,7 @@
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="27"/>
+      <c r="D199" s="26"/>
       <c r="E199" s="4"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -8236,7 +8248,7 @@
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
-      <c r="D200" s="27"/>
+      <c r="D200" s="26"/>
       <c r="E200" s="4"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -8262,7 +8274,7 @@
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
-      <c r="D201" s="27"/>
+      <c r="D201" s="26"/>
       <c r="E201" s="4"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -8288,7 +8300,7 @@
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
-      <c r="D202" s="27"/>
+      <c r="D202" s="26"/>
       <c r="E202" s="4"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -8314,7 +8326,7 @@
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
-      <c r="D203" s="27"/>
+      <c r="D203" s="26"/>
       <c r="E203" s="4"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
@@ -8340,7 +8352,7 @@
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
-      <c r="D204" s="27"/>
+      <c r="D204" s="26"/>
       <c r="E204" s="4"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
@@ -8366,7 +8378,7 @@
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
-      <c r="D205" s="27"/>
+      <c r="D205" s="26"/>
       <c r="E205" s="4"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -8392,7 +8404,7 @@
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
-      <c r="D206" s="27"/>
+      <c r="D206" s="26"/>
       <c r="E206" s="4"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -8418,7 +8430,7 @@
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
-      <c r="D207" s="27"/>
+      <c r="D207" s="26"/>
       <c r="E207" s="4"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
@@ -8444,7 +8456,7 @@
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
-      <c r="D208" s="27"/>
+      <c r="D208" s="26"/>
       <c r="E208" s="4"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -8470,7 +8482,7 @@
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
-      <c r="D209" s="27"/>
+      <c r="D209" s="26"/>
       <c r="E209" s="4"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -8496,7 +8508,7 @@
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
-      <c r="D210" s="27"/>
+      <c r="D210" s="26"/>
       <c r="E210" s="4"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -8522,7 +8534,7 @@
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
-      <c r="D211" s="27"/>
+      <c r="D211" s="26"/>
       <c r="E211" s="4"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -8548,7 +8560,7 @@
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
-      <c r="D212" s="27"/>
+      <c r="D212" s="26"/>
       <c r="E212" s="4"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -8574,7 +8586,7 @@
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
-      <c r="D213" s="27"/>
+      <c r="D213" s="26"/>
       <c r="E213" s="4"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
@@ -8600,7 +8612,7 @@
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
-      <c r="D214" s="27"/>
+      <c r="D214" s="26"/>
       <c r="E214" s="4"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
@@ -8626,7 +8638,7 @@
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
-      <c r="D215" s="27"/>
+      <c r="D215" s="26"/>
       <c r="E215" s="4"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
@@ -8652,7 +8664,7 @@
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
-      <c r="D216" s="27"/>
+      <c r="D216" s="26"/>
       <c r="E216" s="4"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -8678,7 +8690,7 @@
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
-      <c r="D217" s="27"/>
+      <c r="D217" s="26"/>
       <c r="E217" s="4"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
@@ -8704,7 +8716,7 @@
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
-      <c r="D218" s="27"/>
+      <c r="D218" s="26"/>
       <c r="E218" s="4"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
@@ -8730,7 +8742,7 @@
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
-      <c r="D219" s="27"/>
+      <c r="D219" s="26"/>
       <c r="E219" s="4"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -8756,7 +8768,7 @@
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
-      <c r="D220" s="27"/>
+      <c r="D220" s="26"/>
       <c r="E220" s="4"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -8782,7 +8794,7 @@
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
-      <c r="D221" s="27"/>
+      <c r="D221" s="26"/>
       <c r="E221" s="4"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
@@ -8808,7 +8820,7 @@
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
-      <c r="D222" s="27"/>
+      <c r="D222" s="26"/>
       <c r="E222" s="4"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
@@ -8834,7 +8846,7 @@
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
-      <c r="D223" s="27"/>
+      <c r="D223" s="26"/>
       <c r="E223" s="4"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
@@ -8860,7 +8872,7 @@
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
-      <c r="D224" s="27"/>
+      <c r="D224" s="26"/>
       <c r="E224" s="4"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
@@ -8886,7 +8898,7 @@
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
-      <c r="D225" s="27"/>
+      <c r="D225" s="26"/>
       <c r="E225" s="4"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
@@ -8912,7 +8924,7 @@
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
-      <c r="D226" s="27"/>
+      <c r="D226" s="26"/>
       <c r="E226" s="4"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
@@ -8938,7 +8950,7 @@
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
-      <c r="D227" s="27"/>
+      <c r="D227" s="26"/>
       <c r="E227" s="4"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
@@ -8964,7 +8976,7 @@
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
-      <c r="D228" s="27"/>
+      <c r="D228" s="26"/>
       <c r="E228" s="4"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
@@ -8990,7 +9002,7 @@
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
-      <c r="D229" s="27"/>
+      <c r="D229" s="26"/>
       <c r="E229" s="4"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
@@ -9016,7 +9028,7 @@
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
-      <c r="D230" s="27"/>
+      <c r="D230" s="26"/>
       <c r="E230" s="4"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
@@ -9042,7 +9054,7 @@
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
-      <c r="D231" s="27"/>
+      <c r="D231" s="26"/>
       <c r="E231" s="4"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
@@ -9068,7 +9080,7 @@
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
-      <c r="D232" s="27"/>
+      <c r="D232" s="26"/>
       <c r="E232" s="4"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
@@ -9094,7 +9106,7 @@
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
-      <c r="D233" s="27"/>
+      <c r="D233" s="26"/>
       <c r="E233" s="4"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -9120,7 +9132,7 @@
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
-      <c r="D234" s="27"/>
+      <c r="D234" s="26"/>
       <c r="E234" s="4"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -9146,7 +9158,7 @@
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
-      <c r="D235" s="27"/>
+      <c r="D235" s="26"/>
       <c r="E235" s="4"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
@@ -9172,7 +9184,7 @@
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
-      <c r="D236" s="27"/>
+      <c r="D236" s="26"/>
       <c r="E236" s="4"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
@@ -9198,7 +9210,7 @@
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
-      <c r="D237" s="27"/>
+      <c r="D237" s="26"/>
       <c r="E237" s="4"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
@@ -9224,7 +9236,7 @@
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
-      <c r="D238" s="27"/>
+      <c r="D238" s="26"/>
       <c r="E238" s="4"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
@@ -9250,7 +9262,7 @@
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
-      <c r="D239" s="27"/>
+      <c r="D239" s="26"/>
       <c r="E239" s="4"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
@@ -9276,7 +9288,7 @@
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
-      <c r="D240" s="27"/>
+      <c r="D240" s="26"/>
       <c r="E240" s="4"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
@@ -9302,7 +9314,7 @@
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
-      <c r="D241" s="27"/>
+      <c r="D241" s="26"/>
       <c r="E241" s="4"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
@@ -9328,7 +9340,7 @@
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
-      <c r="D242" s="27"/>
+      <c r="D242" s="26"/>
       <c r="E242" s="4"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
@@ -9354,7 +9366,7 @@
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
-      <c r="D243" s="27"/>
+      <c r="D243" s="26"/>
       <c r="E243" s="4"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
@@ -9380,7 +9392,7 @@
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
-      <c r="D244" s="27"/>
+      <c r="D244" s="26"/>
       <c r="E244" s="4"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
@@ -9406,7 +9418,7 @@
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
-      <c r="D245" s="27"/>
+      <c r="D245" s="26"/>
       <c r="E245" s="4"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
@@ -9432,7 +9444,7 @@
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
-      <c r="D246" s="27"/>
+      <c r="D246" s="26"/>
       <c r="E246" s="4"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
@@ -9458,7 +9470,7 @@
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
-      <c r="D247" s="27"/>
+      <c r="D247" s="26"/>
       <c r="E247" s="4"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
@@ -9484,7 +9496,7 @@
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
-      <c r="D248" s="27"/>
+      <c r="D248" s="26"/>
       <c r="E248" s="4"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
@@ -9510,7 +9522,7 @@
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
-      <c r="D249" s="27"/>
+      <c r="D249" s="26"/>
       <c r="E249" s="4"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
@@ -9536,7 +9548,7 @@
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
-      <c r="D250" s="27"/>
+      <c r="D250" s="26"/>
       <c r="E250" s="4"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
@@ -9562,7 +9574,7 @@
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
-      <c r="D251" s="27"/>
+      <c r="D251" s="26"/>
       <c r="E251" s="4"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
@@ -9588,7 +9600,7 @@
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
-      <c r="D252" s="27"/>
+      <c r="D252" s="26"/>
       <c r="E252" s="4"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
@@ -9614,7 +9626,7 @@
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
-      <c r="D253" s="27"/>
+      <c r="D253" s="26"/>
       <c r="E253" s="4"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
@@ -9640,7 +9652,7 @@
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
-      <c r="D254" s="27"/>
+      <c r="D254" s="26"/>
       <c r="E254" s="4"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
@@ -9666,7 +9678,7 @@
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
-      <c r="D255" s="27"/>
+      <c r="D255" s="26"/>
       <c r="E255" s="4"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
@@ -9692,7 +9704,7 @@
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
-      <c r="D256" s="27"/>
+      <c r="D256" s="26"/>
       <c r="E256" s="4"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
@@ -9718,7 +9730,7 @@
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
-      <c r="D257" s="27"/>
+      <c r="D257" s="26"/>
       <c r="E257" s="4"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
@@ -9744,7 +9756,7 @@
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
-      <c r="D258" s="27"/>
+      <c r="D258" s="26"/>
       <c r="E258" s="4"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
@@ -9770,7 +9782,7 @@
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
-      <c r="D259" s="27"/>
+      <c r="D259" s="26"/>
       <c r="E259" s="4"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
@@ -9796,7 +9808,7 @@
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
-      <c r="D260" s="27"/>
+      <c r="D260" s="26"/>
       <c r="E260" s="4"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
@@ -9822,7 +9834,7 @@
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
-      <c r="D261" s="27"/>
+      <c r="D261" s="26"/>
       <c r="E261" s="4"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
@@ -9848,7 +9860,7 @@
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
-      <c r="D262" s="27"/>
+      <c r="D262" s="26"/>
       <c r="E262" s="4"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
@@ -9874,7 +9886,7 @@
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
-      <c r="D263" s="27"/>
+      <c r="D263" s="26"/>
       <c r="E263" s="4"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
@@ -9900,7 +9912,7 @@
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
-      <c r="D264" s="27"/>
+      <c r="D264" s="26"/>
       <c r="E264" s="4"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
@@ -9926,7 +9938,7 @@
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
-      <c r="D265" s="27"/>
+      <c r="D265" s="26"/>
       <c r="E265" s="4"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
@@ -9952,7 +9964,7 @@
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
-      <c r="D266" s="27"/>
+      <c r="D266" s="26"/>
       <c r="E266" s="4"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
@@ -9978,7 +9990,7 @@
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
-      <c r="D267" s="27"/>
+      <c r="D267" s="26"/>
       <c r="E267" s="4"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
@@ -10004,7 +10016,7 @@
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
-      <c r="D268" s="27"/>
+      <c r="D268" s="26"/>
       <c r="E268" s="4"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
@@ -10030,7 +10042,7 @@
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
-      <c r="D269" s="27"/>
+      <c r="D269" s="26"/>
       <c r="E269" s="4"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
@@ -10056,7 +10068,7 @@
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
-      <c r="D270" s="27"/>
+      <c r="D270" s="26"/>
       <c r="E270" s="4"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
@@ -10082,7 +10094,7 @@
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
-      <c r="D271" s="27"/>
+      <c r="D271" s="26"/>
       <c r="E271" s="4"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
@@ -10108,7 +10120,7 @@
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
-      <c r="D272" s="27"/>
+      <c r="D272" s="26"/>
       <c r="E272" s="4"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
@@ -10134,7 +10146,7 @@
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
-      <c r="D273" s="27"/>
+      <c r="D273" s="26"/>
       <c r="E273" s="4"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
@@ -10160,7 +10172,7 @@
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
-      <c r="D274" s="27"/>
+      <c r="D274" s="26"/>
       <c r="E274" s="4"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
@@ -10186,7 +10198,7 @@
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
-      <c r="D275" s="27"/>
+      <c r="D275" s="26"/>
       <c r="E275" s="4"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
@@ -10212,7 +10224,7 @@
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
-      <c r="D276" s="27"/>
+      <c r="D276" s="26"/>
       <c r="E276" s="4"/>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
@@ -10238,7 +10250,7 @@
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
-      <c r="D277" s="27"/>
+      <c r="D277" s="26"/>
       <c r="E277" s="4"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
@@ -10264,7 +10276,7 @@
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
-      <c r="D278" s="27"/>
+      <c r="D278" s="26"/>
       <c r="E278" s="4"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
@@ -10290,7 +10302,7 @@
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
-      <c r="D279" s="27"/>
+      <c r="D279" s="26"/>
       <c r="E279" s="4"/>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
@@ -10316,7 +10328,7 @@
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
-      <c r="D280" s="27"/>
+      <c r="D280" s="26"/>
       <c r="E280" s="4"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
@@ -10342,7 +10354,7 @@
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
-      <c r="D281" s="27"/>
+      <c r="D281" s="26"/>
       <c r="E281" s="4"/>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
@@ -10368,7 +10380,7 @@
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
-      <c r="D282" s="27"/>
+      <c r="D282" s="26"/>
       <c r="E282" s="4"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
@@ -10394,7 +10406,7 @@
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
-      <c r="D283" s="27"/>
+      <c r="D283" s="26"/>
       <c r="E283" s="4"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
@@ -10420,7 +10432,7 @@
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
-      <c r="D284" s="27"/>
+      <c r="D284" s="26"/>
       <c r="E284" s="4"/>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
@@ -10446,7 +10458,7 @@
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
-      <c r="D285" s="27"/>
+      <c r="D285" s="26"/>
       <c r="E285" s="4"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
@@ -10472,7 +10484,7 @@
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
-      <c r="D286" s="27"/>
+      <c r="D286" s="26"/>
       <c r="E286" s="4"/>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
@@ -10498,7 +10510,7 @@
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
-      <c r="D287" s="27"/>
+      <c r="D287" s="26"/>
       <c r="E287" s="4"/>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
@@ -10524,7 +10536,7 @@
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
-      <c r="D288" s="27"/>
+      <c r="D288" s="26"/>
       <c r="E288" s="4"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
@@ -10550,7 +10562,7 @@
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
-      <c r="D289" s="27"/>
+      <c r="D289" s="26"/>
       <c r="E289" s="4"/>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
@@ -10576,7 +10588,7 @@
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
-      <c r="D290" s="27"/>
+      <c r="D290" s="26"/>
       <c r="E290" s="4"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
@@ -10602,7 +10614,7 @@
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
-      <c r="D291" s="27"/>
+      <c r="D291" s="26"/>
       <c r="E291" s="4"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
@@ -10628,7 +10640,7 @@
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
-      <c r="D292" s="27"/>
+      <c r="D292" s="26"/>
       <c r="E292" s="4"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
@@ -10654,7 +10666,7 @@
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
-      <c r="D293" s="27"/>
+      <c r="D293" s="26"/>
       <c r="E293" s="4"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
@@ -10680,7 +10692,7 @@
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
-      <c r="D294" s="27"/>
+      <c r="D294" s="26"/>
       <c r="E294" s="4"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
@@ -10706,7 +10718,7 @@
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
-      <c r="D295" s="27"/>
+      <c r="D295" s="26"/>
       <c r="E295" s="4"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
@@ -10732,7 +10744,7 @@
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
-      <c r="D296" s="27"/>
+      <c r="D296" s="26"/>
       <c r="E296" s="4"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
@@ -10758,7 +10770,7 @@
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
-      <c r="D297" s="27"/>
+      <c r="D297" s="26"/>
       <c r="E297" s="4"/>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
@@ -10784,7 +10796,7 @@
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
-      <c r="D298" s="27"/>
+      <c r="D298" s="26"/>
       <c r="E298" s="4"/>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
@@ -10810,7 +10822,7 @@
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
-      <c r="D299" s="27"/>
+      <c r="D299" s="26"/>
       <c r="E299" s="4"/>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
@@ -10836,7 +10848,7 @@
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
-      <c r="D300" s="27"/>
+      <c r="D300" s="26"/>
       <c r="E300" s="4"/>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
@@ -10862,7 +10874,7 @@
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
-      <c r="D301" s="27"/>
+      <c r="D301" s="26"/>
       <c r="E301" s="4"/>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
@@ -10888,7 +10900,7 @@
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
-      <c r="D302" s="27"/>
+      <c r="D302" s="26"/>
       <c r="E302" s="4"/>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
@@ -10914,7 +10926,7 @@
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
-      <c r="D303" s="27"/>
+      <c r="D303" s="26"/>
       <c r="E303" s="4"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
@@ -10940,7 +10952,7 @@
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
-      <c r="D304" s="27"/>
+      <c r="D304" s="26"/>
       <c r="E304" s="4"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
@@ -10966,7 +10978,7 @@
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
-      <c r="D305" s="27"/>
+      <c r="D305" s="26"/>
       <c r="E305" s="4"/>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
@@ -10992,7 +11004,7 @@
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
-      <c r="D306" s="27"/>
+      <c r="D306" s="26"/>
       <c r="E306" s="4"/>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
@@ -11018,7 +11030,7 @@
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
-      <c r="D307" s="27"/>
+      <c r="D307" s="26"/>
       <c r="E307" s="4"/>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
@@ -11044,7 +11056,7 @@
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
-      <c r="D308" s="27"/>
+      <c r="D308" s="26"/>
       <c r="E308" s="4"/>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
@@ -11070,7 +11082,7 @@
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
-      <c r="D309" s="27"/>
+      <c r="D309" s="26"/>
       <c r="E309" s="4"/>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
@@ -11096,7 +11108,7 @@
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
-      <c r="D310" s="27"/>
+      <c r="D310" s="26"/>
       <c r="E310" s="4"/>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
@@ -11122,7 +11134,7 @@
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
-      <c r="D311" s="27"/>
+      <c r="D311" s="26"/>
       <c r="E311" s="4"/>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
@@ -11148,7 +11160,7 @@
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
-      <c r="D312" s="27"/>
+      <c r="D312" s="26"/>
       <c r="E312" s="4"/>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
@@ -11174,7 +11186,7 @@
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
-      <c r="D313" s="27"/>
+      <c r="D313" s="26"/>
       <c r="E313" s="4"/>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
@@ -11200,7 +11212,7 @@
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
-      <c r="D314" s="27"/>
+      <c r="D314" s="26"/>
       <c r="E314" s="4"/>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
@@ -11226,7 +11238,7 @@
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
-      <c r="D315" s="27"/>
+      <c r="D315" s="26"/>
       <c r="E315" s="4"/>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
@@ -11252,7 +11264,7 @@
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
-      <c r="D316" s="27"/>
+      <c r="D316" s="26"/>
       <c r="E316" s="4"/>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
@@ -11278,7 +11290,7 @@
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
-      <c r="D317" s="27"/>
+      <c r="D317" s="26"/>
       <c r="E317" s="4"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
@@ -11304,7 +11316,7 @@
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
-      <c r="D318" s="27"/>
+      <c r="D318" s="26"/>
       <c r="E318" s="4"/>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -11330,7 +11342,7 @@
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
-      <c r="D319" s="27"/>
+      <c r="D319" s="26"/>
       <c r="E319" s="4"/>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
@@ -11356,7 +11368,7 @@
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
-      <c r="D320" s="27"/>
+      <c r="D320" s="26"/>
       <c r="E320" s="4"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
@@ -11382,7 +11394,7 @@
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
-      <c r="D321" s="27"/>
+      <c r="D321" s="26"/>
       <c r="E321" s="4"/>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
@@ -11408,7 +11420,7 @@
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
-      <c r="D322" s="27"/>
+      <c r="D322" s="26"/>
       <c r="E322" s="4"/>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
@@ -11434,7 +11446,7 @@
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
-      <c r="D323" s="27"/>
+      <c r="D323" s="26"/>
       <c r="E323" s="4"/>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
@@ -11460,7 +11472,7 @@
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
-      <c r="D324" s="27"/>
+      <c r="D324" s="26"/>
       <c r="E324" s="4"/>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
@@ -11486,7 +11498,7 @@
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
-      <c r="D325" s="27"/>
+      <c r="D325" s="26"/>
       <c r="E325" s="4"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
@@ -11512,7 +11524,7 @@
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
-      <c r="D326" s="27"/>
+      <c r="D326" s="26"/>
       <c r="E326" s="4"/>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
@@ -11538,7 +11550,7 @@
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
-      <c r="D327" s="27"/>
+      <c r="D327" s="26"/>
       <c r="E327" s="4"/>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
@@ -11564,7 +11576,7 @@
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
-      <c r="D328" s="27"/>
+      <c r="D328" s="26"/>
       <c r="E328" s="4"/>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
@@ -11590,7 +11602,7 @@
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
-      <c r="D329" s="27"/>
+      <c r="D329" s="26"/>
       <c r="E329" s="4"/>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
@@ -11616,7 +11628,7 @@
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
-      <c r="D330" s="27"/>
+      <c r="D330" s="26"/>
       <c r="E330" s="4"/>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
@@ -11642,7 +11654,7 @@
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
-      <c r="D331" s="27"/>
+      <c r="D331" s="26"/>
       <c r="E331" s="4"/>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
@@ -11668,7 +11680,7 @@
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
-      <c r="D332" s="27"/>
+      <c r="D332" s="26"/>
       <c r="E332" s="4"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -11694,7 +11706,7 @@
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
-      <c r="D333" s="27"/>
+      <c r="D333" s="26"/>
       <c r="E333" s="4"/>
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
@@ -11720,7 +11732,7 @@
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
-      <c r="D334" s="27"/>
+      <c r="D334" s="26"/>
       <c r="E334" s="4"/>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
@@ -11746,7 +11758,7 @@
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
-      <c r="D335" s="27"/>
+      <c r="D335" s="26"/>
       <c r="E335" s="4"/>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
@@ -11772,7 +11784,7 @@
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
-      <c r="D336" s="27"/>
+      <c r="D336" s="26"/>
       <c r="E336" s="4"/>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
@@ -11798,7 +11810,7 @@
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
-      <c r="D337" s="27"/>
+      <c r="D337" s="26"/>
       <c r="E337" s="4"/>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
@@ -11824,7 +11836,7 @@
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
-      <c r="D338" s="27"/>
+      <c r="D338" s="26"/>
       <c r="E338" s="4"/>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
@@ -11850,7 +11862,7 @@
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
-      <c r="D339" s="27"/>
+      <c r="D339" s="26"/>
       <c r="E339" s="4"/>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
@@ -11876,7 +11888,7 @@
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
-      <c r="D340" s="27"/>
+      <c r="D340" s="26"/>
       <c r="E340" s="4"/>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
@@ -11902,7 +11914,7 @@
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
-      <c r="D341" s="27"/>
+      <c r="D341" s="26"/>
       <c r="E341" s="4"/>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
@@ -11928,7 +11940,7 @@
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
-      <c r="D342" s="27"/>
+      <c r="D342" s="26"/>
       <c r="E342" s="4"/>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
@@ -11954,7 +11966,7 @@
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
-      <c r="D343" s="27"/>
+      <c r="D343" s="26"/>
       <c r="E343" s="4"/>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
@@ -11980,7 +11992,7 @@
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
-      <c r="D344" s="27"/>
+      <c r="D344" s="26"/>
       <c r="E344" s="4"/>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
@@ -12006,7 +12018,7 @@
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
-      <c r="D345" s="27"/>
+      <c r="D345" s="26"/>
       <c r="E345" s="4"/>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
@@ -12032,7 +12044,7 @@
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
-      <c r="D346" s="27"/>
+      <c r="D346" s="26"/>
       <c r="E346" s="4"/>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
@@ -12058,7 +12070,7 @@
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
-      <c r="D347" s="27"/>
+      <c r="D347" s="26"/>
       <c r="E347" s="4"/>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
@@ -12084,7 +12096,7 @@
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
-      <c r="D348" s="27"/>
+      <c r="D348" s="26"/>
       <c r="E348" s="4"/>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
@@ -12110,7 +12122,7 @@
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
-      <c r="D349" s="27"/>
+      <c r="D349" s="26"/>
       <c r="E349" s="4"/>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
@@ -12136,7 +12148,7 @@
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
-      <c r="D350" s="27"/>
+      <c r="D350" s="26"/>
       <c r="E350" s="4"/>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
@@ -12162,7 +12174,7 @@
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
-      <c r="D351" s="27"/>
+      <c r="D351" s="26"/>
       <c r="E351" s="4"/>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
@@ -12188,7 +12200,7 @@
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
-      <c r="D352" s="27"/>
+      <c r="D352" s="26"/>
       <c r="E352" s="4"/>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
@@ -12214,7 +12226,7 @@
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
-      <c r="D353" s="27"/>
+      <c r="D353" s="26"/>
       <c r="E353" s="4"/>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
@@ -12240,7 +12252,7 @@
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
-      <c r="D354" s="27"/>
+      <c r="D354" s="26"/>
       <c r="E354" s="4"/>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
@@ -12266,7 +12278,7 @@
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
-      <c r="D355" s="27"/>
+      <c r="D355" s="26"/>
       <c r="E355" s="4"/>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
@@ -12292,7 +12304,7 @@
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
-      <c r="D356" s="27"/>
+      <c r="D356" s="26"/>
       <c r="E356" s="4"/>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
@@ -12318,7 +12330,7 @@
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
-      <c r="D357" s="27"/>
+      <c r="D357" s="26"/>
       <c r="E357" s="4"/>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
@@ -12344,7 +12356,7 @@
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
-      <c r="D358" s="27"/>
+      <c r="D358" s="26"/>
       <c r="E358" s="4"/>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
@@ -12370,7 +12382,7 @@
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
-      <c r="D359" s="27"/>
+      <c r="D359" s="26"/>
       <c r="E359" s="4"/>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
@@ -12396,7 +12408,7 @@
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
-      <c r="D360" s="27"/>
+      <c r="D360" s="26"/>
       <c r="E360" s="4"/>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
@@ -12422,7 +12434,7 @@
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
-      <c r="D361" s="27"/>
+      <c r="D361" s="26"/>
       <c r="E361" s="4"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
@@ -12448,7 +12460,7 @@
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
-      <c r="D362" s="27"/>
+      <c r="D362" s="26"/>
       <c r="E362" s="4"/>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
@@ -12474,7 +12486,7 @@
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
-      <c r="D363" s="27"/>
+      <c r="D363" s="26"/>
       <c r="E363" s="4"/>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
@@ -12500,7 +12512,7 @@
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
-      <c r="D364" s="27"/>
+      <c r="D364" s="26"/>
       <c r="E364" s="4"/>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
@@ -12526,7 +12538,7 @@
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
-      <c r="D365" s="27"/>
+      <c r="D365" s="26"/>
       <c r="E365" s="4"/>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
@@ -12552,7 +12564,7 @@
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
-      <c r="D366" s="27"/>
+      <c r="D366" s="26"/>
       <c r="E366" s="4"/>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
@@ -12578,7 +12590,7 @@
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
-      <c r="D367" s="27"/>
+      <c r="D367" s="26"/>
       <c r="E367" s="4"/>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
@@ -12604,7 +12616,7 @@
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
-      <c r="D368" s="27"/>
+      <c r="D368" s="26"/>
       <c r="E368" s="4"/>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
@@ -12630,7 +12642,7 @@
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
-      <c r="D369" s="27"/>
+      <c r="D369" s="26"/>
       <c r="E369" s="4"/>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
@@ -12656,7 +12668,7 @@
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
-      <c r="D370" s="27"/>
+      <c r="D370" s="26"/>
       <c r="E370" s="4"/>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
@@ -12682,7 +12694,7 @@
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
-      <c r="D371" s="27"/>
+      <c r="D371" s="26"/>
       <c r="E371" s="4"/>
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
@@ -12708,7 +12720,7 @@
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
-      <c r="D372" s="27"/>
+      <c r="D372" s="26"/>
       <c r="E372" s="4"/>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
@@ -12734,7 +12746,7 @@
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
-      <c r="D373" s="27"/>
+      <c r="D373" s="26"/>
       <c r="E373" s="4"/>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
@@ -12760,7 +12772,7 @@
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
-      <c r="D374" s="27"/>
+      <c r="D374" s="26"/>
       <c r="E374" s="4"/>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
@@ -12786,7 +12798,7 @@
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
-      <c r="D375" s="27"/>
+      <c r="D375" s="26"/>
       <c r="E375" s="4"/>
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
@@ -12812,7 +12824,7 @@
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
-      <c r="D376" s="27"/>
+      <c r="D376" s="26"/>
       <c r="E376" s="4"/>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
@@ -12838,7 +12850,7 @@
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
-      <c r="D377" s="27"/>
+      <c r="D377" s="26"/>
       <c r="E377" s="4"/>
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
@@ -12864,7 +12876,7 @@
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
-      <c r="D378" s="27"/>
+      <c r="D378" s="26"/>
       <c r="E378" s="4"/>
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
@@ -12890,7 +12902,7 @@
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
-      <c r="D379" s="27"/>
+      <c r="D379" s="26"/>
       <c r="E379" s="4"/>
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
@@ -12916,7 +12928,7 @@
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
-      <c r="D380" s="27"/>
+      <c r="D380" s="26"/>
       <c r="E380" s="4"/>
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
@@ -12942,7 +12954,7 @@
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
-      <c r="D381" s="27"/>
+      <c r="D381" s="26"/>
       <c r="E381" s="4"/>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
@@ -12968,7 +12980,7 @@
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
-      <c r="D382" s="27"/>
+      <c r="D382" s="26"/>
       <c r="E382" s="4"/>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
@@ -12994,7 +13006,7 @@
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
-      <c r="D383" s="27"/>
+      <c r="D383" s="26"/>
       <c r="E383" s="4"/>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
@@ -13020,7 +13032,7 @@
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
-      <c r="D384" s="27"/>
+      <c r="D384" s="26"/>
       <c r="E384" s="4"/>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
@@ -13046,7 +13058,7 @@
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
-      <c r="D385" s="27"/>
+      <c r="D385" s="26"/>
       <c r="E385" s="4"/>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
@@ -13072,7 +13084,7 @@
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
-      <c r="D386" s="27"/>
+      <c r="D386" s="26"/>
       <c r="E386" s="4"/>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
@@ -13098,7 +13110,7 @@
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
-      <c r="D387" s="27"/>
+      <c r="D387" s="26"/>
       <c r="E387" s="4"/>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
@@ -13124,7 +13136,7 @@
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
-      <c r="D388" s="27"/>
+      <c r="D388" s="26"/>
       <c r="E388" s="4"/>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
@@ -13150,7 +13162,7 @@
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
-      <c r="D389" s="27"/>
+      <c r="D389" s="26"/>
       <c r="E389" s="4"/>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
@@ -13176,7 +13188,7 @@
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
-      <c r="D390" s="27"/>
+      <c r="D390" s="26"/>
       <c r="E390" s="4"/>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
@@ -13202,7 +13214,7 @@
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
-      <c r="D391" s="27"/>
+      <c r="D391" s="26"/>
       <c r="E391" s="4"/>
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
@@ -13228,7 +13240,7 @@
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
-      <c r="D392" s="27"/>
+      <c r="D392" s="26"/>
       <c r="E392" s="4"/>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
@@ -13254,7 +13266,7 @@
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
-      <c r="D393" s="27"/>
+      <c r="D393" s="26"/>
       <c r="E393" s="4"/>
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
@@ -13280,7 +13292,7 @@
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
-      <c r="D394" s="27"/>
+      <c r="D394" s="26"/>
       <c r="E394" s="4"/>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
@@ -13306,7 +13318,7 @@
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
-      <c r="D395" s="27"/>
+      <c r="D395" s="26"/>
       <c r="E395" s="4"/>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
@@ -13332,7 +13344,7 @@
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
-      <c r="D396" s="27"/>
+      <c r="D396" s="26"/>
       <c r="E396" s="4"/>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
@@ -13358,7 +13370,7 @@
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
-      <c r="D397" s="27"/>
+      <c r="D397" s="26"/>
       <c r="E397" s="4"/>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
@@ -13384,7 +13396,7 @@
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
-      <c r="D398" s="27"/>
+      <c r="D398" s="26"/>
       <c r="E398" s="4"/>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
@@ -13410,7 +13422,7 @@
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
-      <c r="D399" s="27"/>
+      <c r="D399" s="26"/>
       <c r="E399" s="4"/>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
@@ -13436,7 +13448,7 @@
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
-      <c r="D400" s="27"/>
+      <c r="D400" s="26"/>
       <c r="E400" s="4"/>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
@@ -13462,7 +13474,7 @@
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
-      <c r="D401" s="27"/>
+      <c r="D401" s="26"/>
       <c r="E401" s="4"/>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
@@ -13488,7 +13500,7 @@
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
-      <c r="D402" s="27"/>
+      <c r="D402" s="26"/>
       <c r="E402" s="4"/>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
@@ -13514,7 +13526,7 @@
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
-      <c r="D403" s="27"/>
+      <c r="D403" s="26"/>
       <c r="E403" s="4"/>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
@@ -13540,7 +13552,7 @@
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
-      <c r="D404" s="27"/>
+      <c r="D404" s="26"/>
       <c r="E404" s="4"/>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
@@ -13566,7 +13578,7 @@
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
-      <c r="D405" s="27"/>
+      <c r="D405" s="26"/>
       <c r="E405" s="4"/>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
@@ -13592,7 +13604,7 @@
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
-      <c r="D406" s="27"/>
+      <c r="D406" s="26"/>
       <c r="E406" s="4"/>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
@@ -13618,7 +13630,7 @@
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
-      <c r="D407" s="27"/>
+      <c r="D407" s="26"/>
       <c r="E407" s="4"/>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
@@ -13644,7 +13656,7 @@
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
-      <c r="D408" s="27"/>
+      <c r="D408" s="26"/>
       <c r="E408" s="4"/>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
@@ -13670,7 +13682,7 @@
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
-      <c r="D409" s="27"/>
+      <c r="D409" s="26"/>
       <c r="E409" s="4"/>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
@@ -13696,7 +13708,7 @@
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
-      <c r="D410" s="27"/>
+      <c r="D410" s="26"/>
       <c r="E410" s="4"/>
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
@@ -13722,7 +13734,7 @@
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
-      <c r="D411" s="27"/>
+      <c r="D411" s="26"/>
       <c r="E411" s="4"/>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
@@ -13748,7 +13760,7 @@
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
-      <c r="D412" s="27"/>
+      <c r="D412" s="26"/>
       <c r="E412" s="4"/>
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
@@ -13774,7 +13786,7 @@
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
-      <c r="D413" s="27"/>
+      <c r="D413" s="26"/>
       <c r="E413" s="4"/>
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
@@ -13800,7 +13812,7 @@
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
-      <c r="D414" s="27"/>
+      <c r="D414" s="26"/>
       <c r="E414" s="4"/>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
@@ -13826,7 +13838,7 @@
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
-      <c r="D415" s="27"/>
+      <c r="D415" s="26"/>
       <c r="E415" s="4"/>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
@@ -13852,7 +13864,7 @@
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
-      <c r="D416" s="27"/>
+      <c r="D416" s="26"/>
       <c r="E416" s="4"/>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
@@ -13878,7 +13890,7 @@
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
-      <c r="D417" s="27"/>
+      <c r="D417" s="26"/>
       <c r="E417" s="4"/>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
@@ -13904,7 +13916,7 @@
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
-      <c r="D418" s="27"/>
+      <c r="D418" s="26"/>
       <c r="E418" s="4"/>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -13930,7 +13942,7 @@
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
-      <c r="D419" s="27"/>
+      <c r="D419" s="26"/>
       <c r="E419" s="4"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
@@ -13956,7 +13968,7 @@
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
-      <c r="D420" s="27"/>
+      <c r="D420" s="26"/>
       <c r="E420" s="4"/>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -13982,7 +13994,7 @@
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
-      <c r="D421" s="27"/>
+      <c r="D421" s="26"/>
       <c r="E421" s="4"/>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
@@ -14008,7 +14020,7 @@
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
-      <c r="D422" s="27"/>
+      <c r="D422" s="26"/>
       <c r="E422" s="4"/>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -14034,7 +14046,7 @@
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
-      <c r="D423" s="27"/>
+      <c r="D423" s="26"/>
       <c r="E423" s="4"/>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -14060,7 +14072,7 @@
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
-      <c r="D424" s="27"/>
+      <c r="D424" s="26"/>
       <c r="E424" s="4"/>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
@@ -14086,7 +14098,7 @@
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
-      <c r="D425" s="27"/>
+      <c r="D425" s="26"/>
       <c r="E425" s="4"/>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
@@ -14112,7 +14124,7 @@
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
-      <c r="D426" s="27"/>
+      <c r="D426" s="26"/>
       <c r="E426" s="4"/>
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
@@ -14138,7 +14150,7 @@
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
-      <c r="D427" s="27"/>
+      <c r="D427" s="26"/>
       <c r="E427" s="4"/>
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
@@ -14164,7 +14176,7 @@
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
-      <c r="D428" s="27"/>
+      <c r="D428" s="26"/>
       <c r="E428" s="4"/>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
@@ -14190,7 +14202,7 @@
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
-      <c r="D429" s="27"/>
+      <c r="D429" s="26"/>
       <c r="E429" s="4"/>
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
@@ -14216,7 +14228,7 @@
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
-      <c r="D430" s="27"/>
+      <c r="D430" s="26"/>
       <c r="E430" s="4"/>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
@@ -14242,7 +14254,7 @@
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
-      <c r="D431" s="27"/>
+      <c r="D431" s="26"/>
       <c r="E431" s="4"/>
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
@@ -14268,7 +14280,7 @@
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
-      <c r="D432" s="27"/>
+      <c r="D432" s="26"/>
       <c r="E432" s="4"/>
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
@@ -14294,7 +14306,7 @@
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
-      <c r="D433" s="27"/>
+      <c r="D433" s="26"/>
       <c r="E433" s="4"/>
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
@@ -14320,7 +14332,7 @@
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
-      <c r="D434" s="27"/>
+      <c r="D434" s="26"/>
       <c r="E434" s="4"/>
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
@@ -14346,7 +14358,7 @@
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
-      <c r="D435" s="27"/>
+      <c r="D435" s="26"/>
       <c r="E435" s="4"/>
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
@@ -14372,7 +14384,7 @@
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
-      <c r="D436" s="27"/>
+      <c r="D436" s="26"/>
       <c r="E436" s="4"/>
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
@@ -14398,7 +14410,7 @@
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
-      <c r="D437" s="27"/>
+      <c r="D437" s="26"/>
       <c r="E437" s="4"/>
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
@@ -14424,7 +14436,7 @@
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
-      <c r="D438" s="27"/>
+      <c r="D438" s="26"/>
       <c r="E438" s="4"/>
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
@@ -14450,7 +14462,7 @@
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
-      <c r="D439" s="27"/>
+      <c r="D439" s="26"/>
       <c r="E439" s="4"/>
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
@@ -14476,7 +14488,7 @@
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
-      <c r="D440" s="27"/>
+      <c r="D440" s="26"/>
       <c r="E440" s="4"/>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
@@ -14502,7 +14514,7 @@
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
-      <c r="D441" s="27"/>
+      <c r="D441" s="26"/>
       <c r="E441" s="4"/>
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
@@ -14528,7 +14540,7 @@
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
-      <c r="D442" s="27"/>
+      <c r="D442" s="26"/>
       <c r="E442" s="4"/>
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
@@ -14554,7 +14566,7 @@
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
-      <c r="D443" s="27"/>
+      <c r="D443" s="26"/>
       <c r="E443" s="4"/>
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
@@ -14580,7 +14592,7 @@
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
-      <c r="D444" s="27"/>
+      <c r="D444" s="26"/>
       <c r="E444" s="4"/>
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
@@ -14606,7 +14618,7 @@
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
-      <c r="D445" s="27"/>
+      <c r="D445" s="26"/>
       <c r="E445" s="4"/>
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
@@ -14632,7 +14644,7 @@
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
-      <c r="D446" s="27"/>
+      <c r="D446" s="26"/>
       <c r="E446" s="4"/>
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
@@ -14658,7 +14670,7 @@
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
-      <c r="D447" s="27"/>
+      <c r="D447" s="26"/>
       <c r="E447" s="4"/>
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
@@ -14684,7 +14696,7 @@
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
-      <c r="D448" s="27"/>
+      <c r="D448" s="26"/>
       <c r="E448" s="4"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
@@ -14710,7 +14722,7 @@
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
-      <c r="D449" s="27"/>
+      <c r="D449" s="26"/>
       <c r="E449" s="4"/>
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
@@ -14736,7 +14748,7 @@
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
-      <c r="D450" s="27"/>
+      <c r="D450" s="26"/>
       <c r="E450" s="4"/>
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
@@ -14762,7 +14774,7 @@
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
-      <c r="D451" s="27"/>
+      <c r="D451" s="26"/>
       <c r="E451" s="4"/>
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
@@ -14788,7 +14800,7 @@
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
-      <c r="D452" s="27"/>
+      <c r="D452" s="26"/>
       <c r="E452" s="4"/>
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
@@ -14814,7 +14826,7 @@
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
-      <c r="D453" s="27"/>
+      <c r="D453" s="26"/>
       <c r="E453" s="4"/>
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
@@ -14840,7 +14852,7 @@
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
-      <c r="D454" s="27"/>
+      <c r="D454" s="26"/>
       <c r="E454" s="4"/>
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
@@ -14866,7 +14878,7 @@
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
-      <c r="D455" s="27"/>
+      <c r="D455" s="26"/>
       <c r="E455" s="4"/>
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
@@ -14892,7 +14904,7 @@
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
-      <c r="D456" s="27"/>
+      <c r="D456" s="26"/>
       <c r="E456" s="4"/>
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
@@ -14918,7 +14930,7 @@
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
-      <c r="D457" s="27"/>
+      <c r="D457" s="26"/>
       <c r="E457" s="4"/>
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
@@ -14944,7 +14956,7 @@
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
-      <c r="D458" s="27"/>
+      <c r="D458" s="26"/>
       <c r="E458" s="4"/>
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
@@ -14970,7 +14982,7 @@
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
-      <c r="D459" s="27"/>
+      <c r="D459" s="26"/>
       <c r="E459" s="4"/>
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
@@ -14996,7 +15008,7 @@
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
-      <c r="D460" s="27"/>
+      <c r="D460" s="26"/>
       <c r="E460" s="4"/>
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
@@ -15022,7 +15034,7 @@
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
-      <c r="D461" s="27"/>
+      <c r="D461" s="26"/>
       <c r="E461" s="4"/>
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
@@ -15048,7 +15060,7 @@
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
-      <c r="D462" s="27"/>
+      <c r="D462" s="26"/>
       <c r="E462" s="4"/>
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
@@ -15074,7 +15086,7 @@
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
-      <c r="D463" s="27"/>
+      <c r="D463" s="26"/>
       <c r="E463" s="4"/>
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
@@ -15100,7 +15112,7 @@
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
-      <c r="D464" s="27"/>
+      <c r="D464" s="26"/>
       <c r="E464" s="4"/>
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
@@ -15126,7 +15138,7 @@
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
-      <c r="D465" s="27"/>
+      <c r="D465" s="26"/>
       <c r="E465" s="4"/>
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
@@ -15152,7 +15164,7 @@
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
-      <c r="D466" s="27"/>
+      <c r="D466" s="26"/>
       <c r="E466" s="4"/>
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
@@ -15178,7 +15190,7 @@
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
-      <c r="D467" s="27"/>
+      <c r="D467" s="26"/>
       <c r="E467" s="4"/>
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
@@ -15204,7 +15216,7 @@
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
-      <c r="D468" s="27"/>
+      <c r="D468" s="26"/>
       <c r="E468" s="4"/>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
@@ -15230,7 +15242,7 @@
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
-      <c r="D469" s="27"/>
+      <c r="D469" s="26"/>
       <c r="E469" s="4"/>
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
@@ -15256,7 +15268,7 @@
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
-      <c r="D470" s="27"/>
+      <c r="D470" s="26"/>
       <c r="E470" s="4"/>
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
@@ -15282,7 +15294,7 @@
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
-      <c r="D471" s="27"/>
+      <c r="D471" s="26"/>
       <c r="E471" s="4"/>
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
@@ -15308,7 +15320,7 @@
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
-      <c r="D472" s="27"/>
+      <c r="D472" s="26"/>
       <c r="E472" s="4"/>
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
@@ -15334,7 +15346,7 @@
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
-      <c r="D473" s="27"/>
+      <c r="D473" s="26"/>
       <c r="E473" s="4"/>
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
@@ -15360,7 +15372,7 @@
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
-      <c r="D474" s="27"/>
+      <c r="D474" s="26"/>
       <c r="E474" s="4"/>
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
@@ -15386,7 +15398,7 @@
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
-      <c r="D475" s="27"/>
+      <c r="D475" s="26"/>
       <c r="E475" s="4"/>
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
@@ -15412,7 +15424,7 @@
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
-      <c r="D476" s="27"/>
+      <c r="D476" s="26"/>
       <c r="E476" s="4"/>
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
@@ -15438,7 +15450,7 @@
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
-      <c r="D477" s="27"/>
+      <c r="D477" s="26"/>
       <c r="E477" s="4"/>
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
@@ -15464,7 +15476,7 @@
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
-      <c r="D478" s="27"/>
+      <c r="D478" s="26"/>
       <c r="E478" s="4"/>
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
@@ -15490,7 +15502,7 @@
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
-      <c r="D479" s="27"/>
+      <c r="D479" s="26"/>
       <c r="E479" s="4"/>
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
@@ -15516,7 +15528,7 @@
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
-      <c r="D480" s="27"/>
+      <c r="D480" s="26"/>
       <c r="E480" s="4"/>
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
@@ -15542,7 +15554,7 @@
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
-      <c r="D481" s="27"/>
+      <c r="D481" s="26"/>
       <c r="E481" s="4"/>
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
@@ -15568,7 +15580,7 @@
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
-      <c r="D482" s="27"/>
+      <c r="D482" s="26"/>
       <c r="E482" s="4"/>
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
@@ -15594,7 +15606,7 @@
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
-      <c r="D483" s="27"/>
+      <c r="D483" s="26"/>
       <c r="E483" s="4"/>
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
@@ -15620,7 +15632,7 @@
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
-      <c r="D484" s="27"/>
+      <c r="D484" s="26"/>
       <c r="E484" s="4"/>
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
@@ -15646,7 +15658,7 @@
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
-      <c r="D485" s="27"/>
+      <c r="D485" s="26"/>
       <c r="E485" s="4"/>
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
@@ -15672,7 +15684,7 @@
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
-      <c r="D486" s="27"/>
+      <c r="D486" s="26"/>
       <c r="E486" s="4"/>
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
@@ -15698,7 +15710,7 @@
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
-      <c r="D487" s="27"/>
+      <c r="D487" s="26"/>
       <c r="E487" s="4"/>
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
@@ -15724,7 +15736,7 @@
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
-      <c r="D488" s="27"/>
+      <c r="D488" s="26"/>
       <c r="E488" s="4"/>
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
@@ -15750,7 +15762,7 @@
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
-      <c r="D489" s="27"/>
+      <c r="D489" s="26"/>
       <c r="E489" s="4"/>
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
@@ -15776,7 +15788,7 @@
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
-      <c r="D490" s="27"/>
+      <c r="D490" s="26"/>
       <c r="E490" s="4"/>
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
@@ -15802,7 +15814,7 @@
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
-      <c r="D491" s="27"/>
+      <c r="D491" s="26"/>
       <c r="E491" s="4"/>
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
@@ -15828,7 +15840,7 @@
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
-      <c r="D492" s="27"/>
+      <c r="D492" s="26"/>
       <c r="E492" s="4"/>
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
@@ -15854,7 +15866,7 @@
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
-      <c r="D493" s="27"/>
+      <c r="D493" s="26"/>
       <c r="E493" s="4"/>
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
@@ -15880,7 +15892,7 @@
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
-      <c r="D494" s="27"/>
+      <c r="D494" s="26"/>
       <c r="E494" s="4"/>
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
@@ -15906,7 +15918,7 @@
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
-      <c r="D495" s="27"/>
+      <c r="D495" s="26"/>
       <c r="E495" s="4"/>
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
@@ -15932,7 +15944,7 @@
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
-      <c r="D496" s="27"/>
+      <c r="D496" s="26"/>
       <c r="E496" s="4"/>
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
@@ -15958,7 +15970,7 @@
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
-      <c r="D497" s="27"/>
+      <c r="D497" s="26"/>
       <c r="E497" s="4"/>
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
@@ -15984,7 +15996,7 @@
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
-      <c r="D498" s="27"/>
+      <c r="D498" s="26"/>
       <c r="E498" s="4"/>
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
@@ -16010,7 +16022,7 @@
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
-      <c r="D499" s="27"/>
+      <c r="D499" s="26"/>
       <c r="E499" s="4"/>
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
@@ -16036,7 +16048,7 @@
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
-      <c r="D500" s="27"/>
+      <c r="D500" s="26"/>
       <c r="E500" s="4"/>
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
@@ -16062,7 +16074,7 @@
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
-      <c r="D501" s="27"/>
+      <c r="D501" s="26"/>
       <c r="E501" s="4"/>
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
@@ -16088,7 +16100,7 @@
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
-      <c r="D502" s="27"/>
+      <c r="D502" s="26"/>
       <c r="E502" s="4"/>
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
@@ -16114,7 +16126,7 @@
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
-      <c r="D503" s="27"/>
+      <c r="D503" s="26"/>
       <c r="E503" s="4"/>
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
@@ -16140,7 +16152,7 @@
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
-      <c r="D504" s="27"/>
+      <c r="D504" s="26"/>
       <c r="E504" s="4"/>
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
@@ -16166,7 +16178,7 @@
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
-      <c r="D505" s="27"/>
+      <c r="D505" s="26"/>
       <c r="E505" s="4"/>
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
@@ -16192,7 +16204,7 @@
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
-      <c r="D506" s="27"/>
+      <c r="D506" s="26"/>
       <c r="E506" s="4"/>
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
@@ -16218,7 +16230,7 @@
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
-      <c r="D507" s="27"/>
+      <c r="D507" s="26"/>
       <c r="E507" s="4"/>
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
@@ -16244,7 +16256,7 @@
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
-      <c r="D508" s="27"/>
+      <c r="D508" s="26"/>
       <c r="E508" s="4"/>
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
@@ -16270,7 +16282,7 @@
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
-      <c r="D509" s="27"/>
+      <c r="D509" s="26"/>
       <c r="E509" s="4"/>
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
@@ -16296,7 +16308,7 @@
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
-      <c r="D510" s="27"/>
+      <c r="D510" s="26"/>
       <c r="E510" s="4"/>
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
@@ -16322,7 +16334,7 @@
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
-      <c r="D511" s="27"/>
+      <c r="D511" s="26"/>
       <c r="E511" s="4"/>
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
@@ -16348,7 +16360,7 @@
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
-      <c r="D512" s="27"/>
+      <c r="D512" s="26"/>
       <c r="E512" s="4"/>
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
@@ -16374,7 +16386,7 @@
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
-      <c r="D513" s="27"/>
+      <c r="D513" s="26"/>
       <c r="E513" s="4"/>
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
@@ -16400,7 +16412,7 @@
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
-      <c r="D514" s="27"/>
+      <c r="D514" s="26"/>
       <c r="E514" s="4"/>
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
@@ -16426,7 +16438,7 @@
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
-      <c r="D515" s="27"/>
+      <c r="D515" s="26"/>
       <c r="E515" s="4"/>
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
@@ -16452,7 +16464,7 @@
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
-      <c r="D516" s="27"/>
+      <c r="D516" s="26"/>
       <c r="E516" s="4"/>
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
@@ -16478,7 +16490,7 @@
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
-      <c r="D517" s="27"/>
+      <c r="D517" s="26"/>
       <c r="E517" s="4"/>
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
@@ -16504,7 +16516,7 @@
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
-      <c r="D518" s="27"/>
+      <c r="D518" s="26"/>
       <c r="E518" s="4"/>
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
@@ -16530,7 +16542,7 @@
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
-      <c r="D519" s="27"/>
+      <c r="D519" s="26"/>
       <c r="E519" s="4"/>
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
@@ -16556,7 +16568,7 @@
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
-      <c r="D520" s="27"/>
+      <c r="D520" s="26"/>
       <c r="E520" s="4"/>
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
@@ -16582,7 +16594,7 @@
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
-      <c r="D521" s="27"/>
+      <c r="D521" s="26"/>
       <c r="E521" s="4"/>
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
@@ -16608,7 +16620,7 @@
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
-      <c r="D522" s="27"/>
+      <c r="D522" s="26"/>
       <c r="E522" s="4"/>
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
@@ -16634,7 +16646,7 @@
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
-      <c r="D523" s="27"/>
+      <c r="D523" s="26"/>
       <c r="E523" s="4"/>
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
@@ -16660,7 +16672,7 @@
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
-      <c r="D524" s="27"/>
+      <c r="D524" s="26"/>
       <c r="E524" s="4"/>
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
@@ -16686,7 +16698,7 @@
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
-      <c r="D525" s="27"/>
+      <c r="D525" s="26"/>
       <c r="E525" s="4"/>
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
@@ -16712,7 +16724,7 @@
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
-      <c r="D526" s="27"/>
+      <c r="D526" s="26"/>
       <c r="E526" s="4"/>
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
@@ -16738,7 +16750,7 @@
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
-      <c r="D527" s="27"/>
+      <c r="D527" s="26"/>
       <c r="E527" s="4"/>
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
@@ -16764,7 +16776,7 @@
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
-      <c r="D528" s="27"/>
+      <c r="D528" s="26"/>
       <c r="E528" s="4"/>
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
@@ -16790,7 +16802,7 @@
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
-      <c r="D529" s="27"/>
+      <c r="D529" s="26"/>
       <c r="E529" s="4"/>
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
@@ -16816,7 +16828,7 @@
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
-      <c r="D530" s="27"/>
+      <c r="D530" s="26"/>
       <c r="E530" s="4"/>
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
@@ -16842,7 +16854,7 @@
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
-      <c r="D531" s="27"/>
+      <c r="D531" s="26"/>
       <c r="E531" s="4"/>
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
@@ -16868,7 +16880,7 @@
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
-      <c r="D532" s="27"/>
+      <c r="D532" s="26"/>
       <c r="E532" s="4"/>
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
@@ -16894,7 +16906,7 @@
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
-      <c r="D533" s="27"/>
+      <c r="D533" s="26"/>
       <c r="E533" s="4"/>
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
@@ -16920,7 +16932,7 @@
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
-      <c r="D534" s="27"/>
+      <c r="D534" s="26"/>
       <c r="E534" s="4"/>
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
@@ -16946,7 +16958,7 @@
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
-      <c r="D535" s="27"/>
+      <c r="D535" s="26"/>
       <c r="E535" s="4"/>
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
@@ -16972,7 +16984,7 @@
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
-      <c r="D536" s="27"/>
+      <c r="D536" s="26"/>
       <c r="E536" s="4"/>
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
@@ -16998,7 +17010,7 @@
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
-      <c r="D537" s="27"/>
+      <c r="D537" s="26"/>
       <c r="E537" s="4"/>
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
@@ -17024,7 +17036,7 @@
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
-      <c r="D538" s="27"/>
+      <c r="D538" s="26"/>
       <c r="E538" s="4"/>
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
@@ -17050,7 +17062,7 @@
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
-      <c r="D539" s="27"/>
+      <c r="D539" s="26"/>
       <c r="E539" s="4"/>
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
@@ -17076,7 +17088,7 @@
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
-      <c r="D540" s="27"/>
+      <c r="D540" s="26"/>
       <c r="E540" s="4"/>
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
@@ -17102,7 +17114,7 @@
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
-      <c r="D541" s="27"/>
+      <c r="D541" s="26"/>
       <c r="E541" s="4"/>
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
@@ -17128,7 +17140,7 @@
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
-      <c r="D542" s="27"/>
+      <c r="D542" s="26"/>
       <c r="E542" s="4"/>
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
@@ -17154,7 +17166,7 @@
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
-      <c r="D543" s="27"/>
+      <c r="D543" s="26"/>
       <c r="E543" s="4"/>
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
@@ -17180,7 +17192,7 @@
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
-      <c r="D544" s="27"/>
+      <c r="D544" s="26"/>
       <c r="E544" s="4"/>
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
@@ -17206,7 +17218,7 @@
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
-      <c r="D545" s="27"/>
+      <c r="D545" s="26"/>
       <c r="E545" s="4"/>
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
@@ -17232,7 +17244,7 @@
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
-      <c r="D546" s="27"/>
+      <c r="D546" s="26"/>
       <c r="E546" s="4"/>
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
@@ -17258,7 +17270,7 @@
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
-      <c r="D547" s="27"/>
+      <c r="D547" s="26"/>
       <c r="E547" s="4"/>
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
@@ -17284,7 +17296,7 @@
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
-      <c r="D548" s="27"/>
+      <c r="D548" s="26"/>
       <c r="E548" s="4"/>
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
@@ -17310,7 +17322,7 @@
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
-      <c r="D549" s="27"/>
+      <c r="D549" s="26"/>
       <c r="E549" s="4"/>
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
@@ -17336,7 +17348,7 @@
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
-      <c r="D550" s="27"/>
+      <c r="D550" s="26"/>
       <c r="E550" s="4"/>
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
@@ -17362,7 +17374,7 @@
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
-      <c r="D551" s="27"/>
+      <c r="D551" s="26"/>
       <c r="E551" s="4"/>
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
@@ -17388,7 +17400,7 @@
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
-      <c r="D552" s="27"/>
+      <c r="D552" s="26"/>
       <c r="E552" s="4"/>
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
@@ -17414,7 +17426,7 @@
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
-      <c r="D553" s="27"/>
+      <c r="D553" s="26"/>
       <c r="E553" s="4"/>
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
@@ -17440,7 +17452,7 @@
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
-      <c r="D554" s="27"/>
+      <c r="D554" s="26"/>
       <c r="E554" s="4"/>
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
@@ -17466,7 +17478,7 @@
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
-      <c r="D555" s="27"/>
+      <c r="D555" s="26"/>
       <c r="E555" s="4"/>
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
@@ -17492,7 +17504,7 @@
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
-      <c r="D556" s="27"/>
+      <c r="D556" s="26"/>
       <c r="E556" s="4"/>
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
@@ -17518,7 +17530,7 @@
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
-      <c r="D557" s="27"/>
+      <c r="D557" s="26"/>
       <c r="E557" s="4"/>
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
@@ -17544,7 +17556,7 @@
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
-      <c r="D558" s="27"/>
+      <c r="D558" s="26"/>
       <c r="E558" s="4"/>
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
@@ -17570,7 +17582,7 @@
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
-      <c r="D559" s="27"/>
+      <c r="D559" s="26"/>
       <c r="E559" s="4"/>
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
@@ -17596,7 +17608,7 @@
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
-      <c r="D560" s="27"/>
+      <c r="D560" s="26"/>
       <c r="E560" s="4"/>
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
@@ -17622,7 +17634,7 @@
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
-      <c r="D561" s="27"/>
+      <c r="D561" s="26"/>
       <c r="E561" s="4"/>
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
@@ -17648,7 +17660,7 @@
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
-      <c r="D562" s="27"/>
+      <c r="D562" s="26"/>
       <c r="E562" s="4"/>
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
@@ -17674,7 +17686,7 @@
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
-      <c r="D563" s="27"/>
+      <c r="D563" s="26"/>
       <c r="E563" s="4"/>
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
@@ -17700,7 +17712,7 @@
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
-      <c r="D564" s="27"/>
+      <c r="D564" s="26"/>
       <c r="E564" s="4"/>
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
@@ -17726,7 +17738,7 @@
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
-      <c r="D565" s="27"/>
+      <c r="D565" s="26"/>
       <c r="E565" s="4"/>
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
@@ -17752,7 +17764,7 @@
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
-      <c r="D566" s="27"/>
+      <c r="D566" s="26"/>
       <c r="E566" s="4"/>
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
@@ -17778,7 +17790,7 @@
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
-      <c r="D567" s="27"/>
+      <c r="D567" s="26"/>
       <c r="E567" s="4"/>
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
@@ -17804,7 +17816,7 @@
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
-      <c r="D568" s="27"/>
+      <c r="D568" s="26"/>
       <c r="E568" s="4"/>
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
@@ -17830,7 +17842,7 @@
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
-      <c r="D569" s="27"/>
+      <c r="D569" s="26"/>
       <c r="E569" s="4"/>
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
@@ -17856,7 +17868,7 @@
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
-      <c r="D570" s="27"/>
+      <c r="D570" s="26"/>
       <c r="E570" s="4"/>
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
@@ -17882,7 +17894,7 @@
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
-      <c r="D571" s="27"/>
+      <c r="D571" s="26"/>
       <c r="E571" s="4"/>
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
@@ -17908,7 +17920,7 @@
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
-      <c r="D572" s="27"/>
+      <c r="D572" s="26"/>
       <c r="E572" s="4"/>
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
@@ -17934,7 +17946,7 @@
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
-      <c r="D573" s="27"/>
+      <c r="D573" s="26"/>
       <c r="E573" s="4"/>
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
@@ -17960,7 +17972,7 @@
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
-      <c r="D574" s="27"/>
+      <c r="D574" s="26"/>
       <c r="E574" s="4"/>
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
@@ -17986,7 +17998,7 @@
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
-      <c r="D575" s="27"/>
+      <c r="D575" s="26"/>
       <c r="E575" s="4"/>
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
@@ -18012,7 +18024,7 @@
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
-      <c r="D576" s="27"/>
+      <c r="D576" s="26"/>
       <c r="E576" s="4"/>
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
@@ -18038,7 +18050,7 @@
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
-      <c r="D577" s="27"/>
+      <c r="D577" s="26"/>
       <c r="E577" s="4"/>
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
@@ -18064,7 +18076,7 @@
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
-      <c r="D578" s="27"/>
+      <c r="D578" s="26"/>
       <c r="E578" s="4"/>
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
@@ -18090,7 +18102,7 @@
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
-      <c r="D579" s="27"/>
+      <c r="D579" s="26"/>
       <c r="E579" s="4"/>
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
@@ -18116,7 +18128,7 @@
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
-      <c r="D580" s="27"/>
+      <c r="D580" s="26"/>
       <c r="E580" s="4"/>
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
@@ -18142,7 +18154,7 @@
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
-      <c r="D581" s="27"/>
+      <c r="D581" s="26"/>
       <c r="E581" s="4"/>
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
@@ -18168,7 +18180,7 @@
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
-      <c r="D582" s="27"/>
+      <c r="D582" s="26"/>
       <c r="E582" s="4"/>
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
@@ -18194,7 +18206,7 @@
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
-      <c r="D583" s="27"/>
+      <c r="D583" s="26"/>
       <c r="E583" s="4"/>
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
@@ -18220,7 +18232,7 @@
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
-      <c r="D584" s="27"/>
+      <c r="D584" s="26"/>
       <c r="E584" s="4"/>
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
@@ -18246,7 +18258,7 @@
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
-      <c r="D585" s="27"/>
+      <c r="D585" s="26"/>
       <c r="E585" s="4"/>
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
@@ -18272,7 +18284,7 @@
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
-      <c r="D586" s="27"/>
+      <c r="D586" s="26"/>
       <c r="E586" s="4"/>
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
@@ -18298,7 +18310,7 @@
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
-      <c r="D587" s="27"/>
+      <c r="D587" s="26"/>
       <c r="E587" s="4"/>
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
@@ -18324,7 +18336,7 @@
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
-      <c r="D588" s="27"/>
+      <c r="D588" s="26"/>
       <c r="E588" s="4"/>
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
@@ -18350,7 +18362,7 @@
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
-      <c r="D589" s="27"/>
+      <c r="D589" s="26"/>
       <c r="E589" s="4"/>
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
@@ -18376,7 +18388,7 @@
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
-      <c r="D590" s="27"/>
+      <c r="D590" s="26"/>
       <c r="E590" s="4"/>
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
@@ -18402,7 +18414,7 @@
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
-      <c r="D591" s="27"/>
+      <c r="D591" s="26"/>
       <c r="E591" s="4"/>
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
@@ -18428,7 +18440,7 @@
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
-      <c r="D592" s="27"/>
+      <c r="D592" s="26"/>
       <c r="E592" s="4"/>
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
@@ -18454,7 +18466,7 @@
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
-      <c r="D593" s="27"/>
+      <c r="D593" s="26"/>
       <c r="E593" s="4"/>
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
@@ -18480,7 +18492,7 @@
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
-      <c r="D594" s="27"/>
+      <c r="D594" s="26"/>
       <c r="E594" s="4"/>
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
@@ -18506,7 +18518,7 @@
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
-      <c r="D595" s="27"/>
+      <c r="D595" s="26"/>
       <c r="E595" s="4"/>
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
@@ -18532,7 +18544,7 @@
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
-      <c r="D596" s="27"/>
+      <c r="D596" s="26"/>
       <c r="E596" s="4"/>
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
@@ -18558,7 +18570,7 @@
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
-      <c r="D597" s="27"/>
+      <c r="D597" s="26"/>
       <c r="E597" s="4"/>
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
@@ -18584,7 +18596,7 @@
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
-      <c r="D598" s="27"/>
+      <c r="D598" s="26"/>
       <c r="E598" s="4"/>
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
@@ -18610,7 +18622,7 @@
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
-      <c r="D599" s="27"/>
+      <c r="D599" s="26"/>
       <c r="E599" s="4"/>
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
@@ -18636,7 +18648,7 @@
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
-      <c r="D600" s="27"/>
+      <c r="D600" s="26"/>
       <c r="E600" s="4"/>
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
@@ -18662,7 +18674,7 @@
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
-      <c r="D601" s="27"/>
+      <c r="D601" s="26"/>
       <c r="E601" s="4"/>
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
@@ -18688,7 +18700,7 @@
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
-      <c r="D602" s="27"/>
+      <c r="D602" s="26"/>
       <c r="E602" s="4"/>
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
@@ -18714,7 +18726,7 @@
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
-      <c r="D603" s="27"/>
+      <c r="D603" s="26"/>
       <c r="E603" s="4"/>
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
@@ -18740,7 +18752,7 @@
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
-      <c r="D604" s="27"/>
+      <c r="D604" s="26"/>
       <c r="E604" s="4"/>
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
@@ -18766,7 +18778,7 @@
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
-      <c r="D605" s="27"/>
+      <c r="D605" s="26"/>
       <c r="E605" s="4"/>
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
@@ -18792,7 +18804,7 @@
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
-      <c r="D606" s="27"/>
+      <c r="D606" s="26"/>
       <c r="E606" s="4"/>
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
@@ -18818,7 +18830,7 @@
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
-      <c r="D607" s="27"/>
+      <c r="D607" s="26"/>
       <c r="E607" s="4"/>
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
@@ -18844,7 +18856,7 @@
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
-      <c r="D608" s="27"/>
+      <c r="D608" s="26"/>
       <c r="E608" s="4"/>
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
@@ -18870,7 +18882,7 @@
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
-      <c r="D609" s="27"/>
+      <c r="D609" s="26"/>
       <c r="E609" s="4"/>
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
@@ -18896,7 +18908,7 @@
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
-      <c r="D610" s="27"/>
+      <c r="D610" s="26"/>
       <c r="E610" s="4"/>
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
@@ -18922,7 +18934,7 @@
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
-      <c r="D611" s="27"/>
+      <c r="D611" s="26"/>
       <c r="E611" s="4"/>
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
@@ -18948,7 +18960,7 @@
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
-      <c r="D612" s="27"/>
+      <c r="D612" s="26"/>
       <c r="E612" s="4"/>
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
@@ -18974,7 +18986,7 @@
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
-      <c r="D613" s="27"/>
+      <c r="D613" s="26"/>
       <c r="E613" s="4"/>
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
@@ -19000,7 +19012,7 @@
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
-      <c r="D614" s="27"/>
+      <c r="D614" s="26"/>
       <c r="E614" s="4"/>
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
@@ -19026,7 +19038,7 @@
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
-      <c r="D615" s="27"/>
+      <c r="D615" s="26"/>
       <c r="E615" s="4"/>
       <c r="F615" s="3"/>
       <c r="G615" s="3"/>
@@ -19052,7 +19064,7 @@
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
-      <c r="D616" s="27"/>
+      <c r="D616" s="26"/>
       <c r="E616" s="4"/>
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
@@ -19078,7 +19090,7 @@
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
-      <c r="D617" s="27"/>
+      <c r="D617" s="26"/>
       <c r="E617" s="4"/>
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
@@ -19104,7 +19116,7 @@
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
-      <c r="D618" s="27"/>
+      <c r="D618" s="26"/>
       <c r="E618" s="4"/>
       <c r="F618" s="3"/>
       <c r="G618" s="3"/>
@@ -19130,7 +19142,7 @@
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
-      <c r="D619" s="27"/>
+      <c r="D619" s="26"/>
       <c r="E619" s="4"/>
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
@@ -19156,7 +19168,7 @@
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
-      <c r="D620" s="27"/>
+      <c r="D620" s="26"/>
       <c r="E620" s="4"/>
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
@@ -19182,7 +19194,7 @@
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
-      <c r="D621" s="27"/>
+      <c r="D621" s="26"/>
       <c r="E621" s="4"/>
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
@@ -19208,7 +19220,7 @@
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
-      <c r="D622" s="27"/>
+      <c r="D622" s="26"/>
       <c r="E622" s="4"/>
       <c r="F622" s="3"/>
       <c r="G622" s="3"/>
@@ -19234,7 +19246,7 @@
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
-      <c r="D623" s="27"/>
+      <c r="D623" s="26"/>
       <c r="E623" s="4"/>
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
@@ -19260,7 +19272,7 @@
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
-      <c r="D624" s="27"/>
+      <c r="D624" s="26"/>
       <c r="E624" s="4"/>
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
@@ -19286,7 +19298,7 @@
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
-      <c r="D625" s="27"/>
+      <c r="D625" s="26"/>
       <c r="E625" s="4"/>
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
@@ -19312,7 +19324,7 @@
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
-      <c r="D626" s="27"/>
+      <c r="D626" s="26"/>
       <c r="E626" s="4"/>
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
@@ -19338,7 +19350,7 @@
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
-      <c r="D627" s="27"/>
+      <c r="D627" s="26"/>
       <c r="E627" s="4"/>
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
@@ -19364,7 +19376,7 @@
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
-      <c r="D628" s="27"/>
+      <c r="D628" s="26"/>
       <c r="E628" s="4"/>
       <c r="F628" s="3"/>
       <c r="G628" s="3"/>
@@ -19390,7 +19402,7 @@
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
-      <c r="D629" s="27"/>
+      <c r="D629" s="26"/>
       <c r="E629" s="4"/>
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
@@ -19416,7 +19428,7 @@
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
-      <c r="D630" s="27"/>
+      <c r="D630" s="26"/>
       <c r="E630" s="4"/>
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
@@ -19442,7 +19454,7 @@
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
-      <c r="D631" s="27"/>
+      <c r="D631" s="26"/>
       <c r="E631" s="4"/>
       <c r="F631" s="3"/>
       <c r="G631" s="3"/>
@@ -19468,7 +19480,7 @@
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
-      <c r="D632" s="27"/>
+      <c r="D632" s="26"/>
       <c r="E632" s="4"/>
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
@@ -19494,7 +19506,7 @@
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
-      <c r="D633" s="27"/>
+      <c r="D633" s="26"/>
       <c r="E633" s="4"/>
       <c r="F633" s="3"/>
       <c r="G633" s="3"/>
@@ -19520,7 +19532,7 @@
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
-      <c r="D634" s="27"/>
+      <c r="D634" s="26"/>
       <c r="E634" s="4"/>
       <c r="F634" s="3"/>
       <c r="G634" s="3"/>
@@ -19546,7 +19558,7 @@
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
-      <c r="D635" s="27"/>
+      <c r="D635" s="26"/>
       <c r="E635" s="4"/>
       <c r="F635" s="3"/>
       <c r="G635" s="3"/>
@@ -19572,7 +19584,7 @@
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
-      <c r="D636" s="27"/>
+      <c r="D636" s="26"/>
       <c r="E636" s="4"/>
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
@@ -19598,7 +19610,7 @@
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
-      <c r="D637" s="27"/>
+      <c r="D637" s="26"/>
       <c r="E637" s="4"/>
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
@@ -19624,7 +19636,7 @@
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
-      <c r="D638" s="27"/>
+      <c r="D638" s="26"/>
       <c r="E638" s="4"/>
       <c r="F638" s="3"/>
       <c r="G638" s="3"/>
@@ -19650,7 +19662,7 @@
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
-      <c r="D639" s="27"/>
+      <c r="D639" s="26"/>
       <c r="E639" s="4"/>
       <c r="F639" s="3"/>
       <c r="G639" s="3"/>
@@ -19676,7 +19688,7 @@
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
-      <c r="D640" s="27"/>
+      <c r="D640" s="26"/>
       <c r="E640" s="4"/>
       <c r="F640" s="3"/>
       <c r="G640" s="3"/>
@@ -19702,7 +19714,7 @@
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
-      <c r="D641" s="27"/>
+      <c r="D641" s="26"/>
       <c r="E641" s="4"/>
       <c r="F641" s="3"/>
       <c r="G641" s="3"/>
@@ -19728,7 +19740,7 @@
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
-      <c r="D642" s="27"/>
+      <c r="D642" s="26"/>
       <c r="E642" s="4"/>
       <c r="F642" s="3"/>
       <c r="G642" s="3"/>
@@ -19754,7 +19766,7 @@
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
-      <c r="D643" s="27"/>
+      <c r="D643" s="26"/>
       <c r="E643" s="4"/>
       <c r="F643" s="3"/>
       <c r="G643" s="3"/>
@@ -19780,7 +19792,7 @@
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
-      <c r="D644" s="27"/>
+      <c r="D644" s="26"/>
       <c r="E644" s="4"/>
       <c r="F644" s="3"/>
       <c r="G644" s="3"/>
@@ -19806,7 +19818,7 @@
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
-      <c r="D645" s="27"/>
+      <c r="D645" s="26"/>
       <c r="E645" s="4"/>
       <c r="F645" s="3"/>
       <c r="G645" s="3"/>
@@ -19832,7 +19844,7 @@
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
-      <c r="D646" s="27"/>
+      <c r="D646" s="26"/>
       <c r="E646" s="4"/>
       <c r="F646" s="3"/>
       <c r="G646" s="3"/>
@@ -19858,7 +19870,7 @@
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
-      <c r="D647" s="27"/>
+      <c r="D647" s="26"/>
       <c r="E647" s="4"/>
       <c r="F647" s="3"/>
       <c r="G647" s="3"/>
@@ -19884,7 +19896,7 @@
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
-      <c r="D648" s="27"/>
+      <c r="D648" s="26"/>
       <c r="E648" s="4"/>
       <c r="F648" s="3"/>
       <c r="G648" s="3"/>
@@ -19910,7 +19922,7 @@
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
-      <c r="D649" s="27"/>
+      <c r="D649" s="26"/>
       <c r="E649" s="4"/>
       <c r="F649" s="3"/>
       <c r="G649" s="3"/>
@@ -19936,7 +19948,7 @@
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
-      <c r="D650" s="27"/>
+      <c r="D650" s="26"/>
       <c r="E650" s="4"/>
       <c r="F650" s="3"/>
       <c r="G650" s="3"/>
@@ -19962,7 +19974,7 @@
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
-      <c r="D651" s="27"/>
+      <c r="D651" s="26"/>
       <c r="E651" s="4"/>
       <c r="F651" s="3"/>
       <c r="G651" s="3"/>
@@ -19988,7 +20000,7 @@
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
-      <c r="D652" s="27"/>
+      <c r="D652" s="26"/>
       <c r="E652" s="4"/>
       <c r="F652" s="3"/>
       <c r="G652" s="3"/>
@@ -20014,7 +20026,7 @@
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
-      <c r="D653" s="27"/>
+      <c r="D653" s="26"/>
       <c r="E653" s="4"/>
       <c r="F653" s="3"/>
       <c r="G653" s="3"/>
@@ -20040,7 +20052,7 @@
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
-      <c r="D654" s="27"/>
+      <c r="D654" s="26"/>
       <c r="E654" s="4"/>
       <c r="F654" s="3"/>
       <c r="G654" s="3"/>
@@ -20066,7 +20078,7 @@
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
-      <c r="D655" s="27"/>
+      <c r="D655" s="26"/>
       <c r="E655" s="4"/>
       <c r="F655" s="3"/>
       <c r="G655" s="3"/>
@@ -20092,7 +20104,7 @@
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
-      <c r="D656" s="27"/>
+      <c r="D656" s="26"/>
       <c r="E656" s="4"/>
       <c r="F656" s="3"/>
       <c r="G656" s="3"/>
@@ -20118,7 +20130,7 @@
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
-      <c r="D657" s="27"/>
+      <c r="D657" s="26"/>
       <c r="E657" s="4"/>
       <c r="F657" s="3"/>
       <c r="G657" s="3"/>
@@ -20144,7 +20156,7 @@
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
-      <c r="D658" s="27"/>
+      <c r="D658" s="26"/>
       <c r="E658" s="4"/>
       <c r="F658" s="3"/>
       <c r="G658" s="3"/>
@@ -20170,7 +20182,7 @@
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
-      <c r="D659" s="27"/>
+      <c r="D659" s="26"/>
       <c r="E659" s="4"/>
       <c r="F659" s="3"/>
       <c r="G659" s="3"/>
@@ -20196,7 +20208,7 @@
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
-      <c r="D660" s="27"/>
+      <c r="D660" s="26"/>
       <c r="E660" s="4"/>
       <c r="F660" s="3"/>
       <c r="G660" s="3"/>
@@ -20222,7 +20234,7 @@
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
-      <c r="D661" s="27"/>
+      <c r="D661" s="26"/>
       <c r="E661" s="4"/>
       <c r="F661" s="3"/>
       <c r="G661" s="3"/>
@@ -20248,7 +20260,7 @@
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
-      <c r="D662" s="27"/>
+      <c r="D662" s="26"/>
       <c r="E662" s="4"/>
       <c r="F662" s="3"/>
       <c r="G662" s="3"/>
@@ -20274,7 +20286,7 @@
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
-      <c r="D663" s="27"/>
+      <c r="D663" s="26"/>
       <c r="E663" s="4"/>
       <c r="F663" s="3"/>
       <c r="G663" s="3"/>
@@ -20300,7 +20312,7 @@
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
-      <c r="D664" s="27"/>
+      <c r="D664" s="26"/>
       <c r="E664" s="4"/>
       <c r="F664" s="3"/>
       <c r="G664" s="3"/>
@@ -20326,7 +20338,7 @@
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
-      <c r="D665" s="27"/>
+      <c r="D665" s="26"/>
       <c r="E665" s="4"/>
       <c r="F665" s="3"/>
       <c r="G665" s="3"/>
@@ -20352,7 +20364,7 @@
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
-      <c r="D666" s="27"/>
+      <c r="D666" s="26"/>
       <c r="E666" s="4"/>
       <c r="F666" s="3"/>
       <c r="G666" s="3"/>
@@ -20378,7 +20390,7 @@
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
-      <c r="D667" s="27"/>
+      <c r="D667" s="26"/>
       <c r="E667" s="4"/>
       <c r="F667" s="3"/>
       <c r="G667" s="3"/>
@@ -20404,7 +20416,7 @@
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
-      <c r="D668" s="27"/>
+      <c r="D668" s="26"/>
       <c r="E668" s="4"/>
       <c r="F668" s="3"/>
       <c r="G668" s="3"/>
@@ -20430,7 +20442,7 @@
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
-      <c r="D669" s="27"/>
+      <c r="D669" s="26"/>
       <c r="E669" s="4"/>
       <c r="F669" s="3"/>
       <c r="G669" s="3"/>
@@ -20456,7 +20468,7 @@
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
-      <c r="D670" s="27"/>
+      <c r="D670" s="26"/>
       <c r="E670" s="4"/>
       <c r="F670" s="3"/>
       <c r="G670" s="3"/>
@@ -20482,7 +20494,7 @@
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
-      <c r="D671" s="27"/>
+      <c r="D671" s="26"/>
       <c r="E671" s="4"/>
       <c r="F671" s="3"/>
       <c r="G671" s="3"/>
@@ -20508,7 +20520,7 @@
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
-      <c r="D672" s="27"/>
+      <c r="D672" s="26"/>
       <c r="E672" s="4"/>
       <c r="F672" s="3"/>
       <c r="G672" s="3"/>
@@ -20534,7 +20546,7 @@
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
-      <c r="D673" s="27"/>
+      <c r="D673" s="26"/>
       <c r="E673" s="4"/>
       <c r="F673" s="3"/>
       <c r="G673" s="3"/>
@@ -20560,7 +20572,7 @@
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
-      <c r="D674" s="27"/>
+      <c r="D674" s="26"/>
       <c r="E674" s="4"/>
       <c r="F674" s="3"/>
       <c r="G674" s="3"/>
@@ -20586,7 +20598,7 @@
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
-      <c r="D675" s="27"/>
+      <c r="D675" s="26"/>
       <c r="E675" s="4"/>
       <c r="F675" s="3"/>
       <c r="G675" s="3"/>
@@ -20612,7 +20624,7 @@
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
-      <c r="D676" s="27"/>
+      <c r="D676" s="26"/>
       <c r="E676" s="4"/>
       <c r="F676" s="3"/>
       <c r="G676" s="3"/>
@@ -20638,7 +20650,7 @@
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
-      <c r="D677" s="27"/>
+      <c r="D677" s="26"/>
       <c r="E677" s="4"/>
       <c r="F677" s="3"/>
       <c r="G677" s="3"/>
@@ -20664,7 +20676,7 @@
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
-      <c r="D678" s="27"/>
+      <c r="D678" s="26"/>
       <c r="E678" s="4"/>
       <c r="F678" s="3"/>
       <c r="G678" s="3"/>
@@ -20690,7 +20702,7 @@
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
-      <c r="D679" s="27"/>
+      <c r="D679" s="26"/>
       <c r="E679" s="4"/>
       <c r="F679" s="3"/>
       <c r="G679" s="3"/>
@@ -20716,7 +20728,7 @@
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
-      <c r="D680" s="27"/>
+      <c r="D680" s="26"/>
       <c r="E680" s="4"/>
       <c r="F680" s="3"/>
       <c r="G680" s="3"/>
@@ -20742,7 +20754,7 @@
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
-      <c r="D681" s="27"/>
+      <c r="D681" s="26"/>
       <c r="E681" s="4"/>
       <c r="F681" s="3"/>
       <c r="G681" s="3"/>
@@ -20768,7 +20780,7 @@
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
-      <c r="D682" s="27"/>
+      <c r="D682" s="26"/>
       <c r="E682" s="4"/>
       <c r="F682" s="3"/>
       <c r="G682" s="3"/>
@@ -20794,7 +20806,7 @@
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
-      <c r="D683" s="27"/>
+      <c r="D683" s="26"/>
       <c r="E683" s="4"/>
       <c r="F683" s="3"/>
       <c r="G683" s="3"/>
@@ -20820,7 +20832,7 @@
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
-      <c r="D684" s="27"/>
+      <c r="D684" s="26"/>
       <c r="E684" s="4"/>
       <c r="F684" s="3"/>
       <c r="G684" s="3"/>
@@ -20846,7 +20858,7 @@
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
-      <c r="D685" s="27"/>
+      <c r="D685" s="26"/>
       <c r="E685" s="4"/>
       <c r="F685" s="3"/>
       <c r="G685" s="3"/>
@@ -20872,7 +20884,7 @@
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
-      <c r="D686" s="27"/>
+      <c r="D686" s="26"/>
       <c r="E686" s="4"/>
       <c r="F686" s="3"/>
       <c r="G686" s="3"/>
@@ -20898,7 +20910,7 @@
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
-      <c r="D687" s="27"/>
+      <c r="D687" s="26"/>
       <c r="E687" s="4"/>
       <c r="F687" s="3"/>
       <c r="G687" s="3"/>
@@ -20924,7 +20936,7 @@
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
-      <c r="D688" s="27"/>
+      <c r="D688" s="26"/>
       <c r="E688" s="4"/>
       <c r="F688" s="3"/>
       <c r="G688" s="3"/>
@@ -20950,7 +20962,7 @@
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
-      <c r="D689" s="27"/>
+      <c r="D689" s="26"/>
       <c r="E689" s="4"/>
       <c r="F689" s="3"/>
       <c r="G689" s="3"/>
@@ -20976,7 +20988,7 @@
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
-      <c r="D690" s="27"/>
+      <c r="D690" s="26"/>
       <c r="E690" s="4"/>
       <c r="F690" s="3"/>
       <c r="G690" s="3"/>
@@ -21002,7 +21014,7 @@
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
-      <c r="D691" s="27"/>
+      <c r="D691" s="26"/>
       <c r="E691" s="4"/>
       <c r="F691" s="3"/>
       <c r="G691" s="3"/>
@@ -21028,7 +21040,7 @@
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
-      <c r="D692" s="27"/>
+      <c r="D692" s="26"/>
       <c r="E692" s="4"/>
       <c r="F692" s="3"/>
       <c r="G692" s="3"/>
@@ -21054,7 +21066,7 @@
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
-      <c r="D693" s="27"/>
+      <c r="D693" s="26"/>
       <c r="E693" s="4"/>
       <c r="F693" s="3"/>
       <c r="G693" s="3"/>
@@ -21080,7 +21092,7 @@
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
-      <c r="D694" s="27"/>
+      <c r="D694" s="26"/>
       <c r="E694" s="4"/>
       <c r="F694" s="3"/>
       <c r="G694" s="3"/>
@@ -21106,7 +21118,7 @@
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
-      <c r="D695" s="27"/>
+      <c r="D695" s="26"/>
       <c r="E695" s="4"/>
       <c r="F695" s="3"/>
       <c r="G695" s="3"/>
@@ -21132,7 +21144,7 @@
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
-      <c r="D696" s="27"/>
+      <c r="D696" s="26"/>
       <c r="E696" s="4"/>
       <c r="F696" s="3"/>
       <c r="G696" s="3"/>
@@ -21158,7 +21170,7 @@
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
-      <c r="D697" s="27"/>
+      <c r="D697" s="26"/>
       <c r="E697" s="4"/>
       <c r="F697" s="3"/>
       <c r="G697" s="3"/>
@@ -21184,7 +21196,7 @@
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
-      <c r="D698" s="27"/>
+      <c r="D698" s="26"/>
       <c r="E698" s="4"/>
       <c r="F698" s="3"/>
       <c r="G698" s="3"/>
@@ -21210,7 +21222,7 @@
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
-      <c r="D699" s="27"/>
+      <c r="D699" s="26"/>
       <c r="E699" s="4"/>
       <c r="F699" s="3"/>
       <c r="G699" s="3"/>
@@ -21236,7 +21248,7 @@
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
-      <c r="D700" s="27"/>
+      <c r="D700" s="26"/>
       <c r="E700" s="4"/>
       <c r="F700" s="3"/>
       <c r="G700" s="3"/>
@@ -21262,7 +21274,7 @@
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
-      <c r="D701" s="27"/>
+      <c r="D701" s="26"/>
       <c r="E701" s="4"/>
       <c r="F701" s="3"/>
       <c r="G701" s="3"/>
@@ -21288,7 +21300,7 @@
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
-      <c r="D702" s="27"/>
+      <c r="D702" s="26"/>
       <c r="E702" s="4"/>
       <c r="F702" s="3"/>
       <c r="G702" s="3"/>
@@ -21314,7 +21326,7 @@
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
-      <c r="D703" s="27"/>
+      <c r="D703" s="26"/>
       <c r="E703" s="4"/>
       <c r="F703" s="3"/>
       <c r="G703" s="3"/>
@@ -21340,7 +21352,7 @@
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
-      <c r="D704" s="27"/>
+      <c r="D704" s="26"/>
       <c r="E704" s="4"/>
       <c r="F704" s="3"/>
       <c r="G704" s="3"/>
@@ -21366,7 +21378,7 @@
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
-      <c r="D705" s="27"/>
+      <c r="D705" s="26"/>
       <c r="E705" s="4"/>
       <c r="F705" s="3"/>
       <c r="G705" s="3"/>
@@ -21392,7 +21404,7 @@
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
-      <c r="D706" s="27"/>
+      <c r="D706" s="26"/>
       <c r="E706" s="4"/>
       <c r="F706" s="3"/>
       <c r="G706" s="3"/>
@@ -21418,7 +21430,7 @@
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
-      <c r="D707" s="27"/>
+      <c r="D707" s="26"/>
       <c r="E707" s="4"/>
       <c r="F707" s="3"/>
       <c r="G707" s="3"/>
@@ -21444,7 +21456,7 @@
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
-      <c r="D708" s="27"/>
+      <c r="D708" s="26"/>
       <c r="E708" s="4"/>
       <c r="F708" s="3"/>
       <c r="G708" s="3"/>
@@ -21470,7 +21482,7 @@
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
-      <c r="D709" s="27"/>
+      <c r="D709" s="26"/>
       <c r="E709" s="4"/>
       <c r="F709" s="3"/>
       <c r="G709" s="3"/>
@@ -21496,7 +21508,7 @@
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
-      <c r="D710" s="27"/>
+      <c r="D710" s="26"/>
       <c r="E710" s="4"/>
       <c r="F710" s="3"/>
       <c r="G710" s="3"/>
@@ -21522,7 +21534,7 @@
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
-      <c r="D711" s="27"/>
+      <c r="D711" s="26"/>
       <c r="E711" s="4"/>
       <c r="F711" s="3"/>
       <c r="G711" s="3"/>
@@ -21548,7 +21560,7 @@
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
-      <c r="D712" s="27"/>
+      <c r="D712" s="26"/>
       <c r="E712" s="4"/>
       <c r="F712" s="3"/>
       <c r="G712" s="3"/>
@@ -21574,7 +21586,7 @@
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
-      <c r="D713" s="27"/>
+      <c r="D713" s="26"/>
       <c r="E713" s="4"/>
       <c r="F713" s="3"/>
       <c r="G713" s="3"/>
@@ -21600,7 +21612,7 @@
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
-      <c r="D714" s="27"/>
+      <c r="D714" s="26"/>
       <c r="E714" s="4"/>
       <c r="F714" s="3"/>
       <c r="G714" s="3"/>
@@ -21626,7 +21638,7 @@
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
-      <c r="D715" s="27"/>
+      <c r="D715" s="26"/>
       <c r="E715" s="4"/>
       <c r="F715" s="3"/>
       <c r="G715" s="3"/>
@@ -21652,7 +21664,7 @@
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
-      <c r="D716" s="27"/>
+      <c r="D716" s="26"/>
       <c r="E716" s="4"/>
       <c r="F716" s="3"/>
       <c r="G716" s="3"/>
@@ -21678,7 +21690,7 @@
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
-      <c r="D717" s="27"/>
+      <c r="D717" s="26"/>
       <c r="E717" s="4"/>
       <c r="F717" s="3"/>
       <c r="G717" s="3"/>
@@ -21704,7 +21716,7 @@
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
-      <c r="D718" s="27"/>
+      <c r="D718" s="26"/>
       <c r="E718" s="4"/>
       <c r="F718" s="3"/>
       <c r="G718" s="3"/>
@@ -21730,7 +21742,7 @@
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
-      <c r="D719" s="27"/>
+      <c r="D719" s="26"/>
       <c r="E719" s="4"/>
       <c r="F719" s="3"/>
       <c r="G719" s="3"/>
@@ -21756,7 +21768,7 @@
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
-      <c r="D720" s="27"/>
+      <c r="D720" s="26"/>
       <c r="E720" s="4"/>
       <c r="F720" s="3"/>
       <c r="G720" s="3"/>
@@ -21782,7 +21794,7 @@
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
-      <c r="D721" s="27"/>
+      <c r="D721" s="26"/>
       <c r="E721" s="4"/>
       <c r="F721" s="3"/>
       <c r="G721" s="3"/>
@@ -21808,7 +21820,7 @@
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
-      <c r="D722" s="27"/>
+      <c r="D722" s="26"/>
       <c r="E722" s="4"/>
       <c r="F722" s="3"/>
       <c r="G722" s="3"/>
@@ -21834,7 +21846,7 @@
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
-      <c r="D723" s="27"/>
+      <c r="D723" s="26"/>
       <c r="E723" s="4"/>
       <c r="F723" s="3"/>
       <c r="G723" s="3"/>
@@ -21860,7 +21872,7 @@
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
-      <c r="D724" s="27"/>
+      <c r="D724" s="26"/>
       <c r="E724" s="4"/>
       <c r="F724" s="3"/>
       <c r="G724" s="3"/>
@@ -21886,7 +21898,7 @@
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
-      <c r="D725" s="27"/>
+      <c r="D725" s="26"/>
       <c r="E725" s="4"/>
       <c r="F725" s="3"/>
       <c r="G725" s="3"/>
@@ -21912,7 +21924,7 @@
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
-      <c r="D726" s="27"/>
+      <c r="D726" s="26"/>
       <c r="E726" s="4"/>
       <c r="F726" s="3"/>
       <c r="G726" s="3"/>
@@ -21938,7 +21950,7 @@
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
-      <c r="D727" s="27"/>
+      <c r="D727" s="26"/>
       <c r="E727" s="4"/>
       <c r="F727" s="3"/>
       <c r="G727" s="3"/>
@@ -21964,7 +21976,7 @@
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
-      <c r="D728" s="27"/>
+      <c r="D728" s="26"/>
       <c r="E728" s="4"/>
       <c r="F728" s="3"/>
       <c r="G728" s="3"/>
@@ -21990,7 +22002,7 @@
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
-      <c r="D729" s="27"/>
+      <c r="D729" s="26"/>
       <c r="E729" s="4"/>
       <c r="F729" s="3"/>
       <c r="G729" s="3"/>
@@ -22016,7 +22028,7 @@
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
-      <c r="D730" s="27"/>
+      <c r="D730" s="26"/>
       <c r="E730" s="4"/>
       <c r="F730" s="3"/>
       <c r="G730" s="3"/>
@@ -22042,7 +22054,7 @@
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
-      <c r="D731" s="27"/>
+      <c r="D731" s="26"/>
       <c r="E731" s="4"/>
       <c r="F731" s="3"/>
       <c r="G731" s="3"/>
@@ -22068,7 +22080,7 @@
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
-      <c r="D732" s="27"/>
+      <c r="D732" s="26"/>
       <c r="E732" s="4"/>
       <c r="F732" s="3"/>
       <c r="G732" s="3"/>
@@ -22094,7 +22106,7 @@
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
-      <c r="D733" s="27"/>
+      <c r="D733" s="26"/>
       <c r="E733" s="4"/>
       <c r="F733" s="3"/>
       <c r="G733" s="3"/>
@@ -22120,7 +22132,7 @@
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
-      <c r="D734" s="27"/>
+      <c r="D734" s="26"/>
       <c r="E734" s="4"/>
       <c r="F734" s="3"/>
       <c r="G734" s="3"/>
@@ -22146,7 +22158,7 @@
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
-      <c r="D735" s="27"/>
+      <c r="D735" s="26"/>
       <c r="E735" s="4"/>
       <c r="F735" s="3"/>
       <c r="G735" s="3"/>
@@ -22172,7 +22184,7 @@
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
-      <c r="D736" s="27"/>
+      <c r="D736" s="26"/>
       <c r="E736" s="4"/>
       <c r="F736" s="3"/>
       <c r="G736" s="3"/>
@@ -22198,7 +22210,7 @@
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
-      <c r="D737" s="27"/>
+      <c r="D737" s="26"/>
       <c r="E737" s="4"/>
       <c r="F737" s="3"/>
       <c r="G737" s="3"/>
@@ -22224,7 +22236,7 @@
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
-      <c r="D738" s="27"/>
+      <c r="D738" s="26"/>
       <c r="E738" s="4"/>
       <c r="F738" s="3"/>
       <c r="G738" s="3"/>
@@ -22250,7 +22262,7 @@
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
-      <c r="D739" s="27"/>
+      <c r="D739" s="26"/>
       <c r="E739" s="4"/>
       <c r="F739" s="3"/>
       <c r="G739" s="3"/>
@@ -22276,7 +22288,7 @@
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
-      <c r="D740" s="27"/>
+      <c r="D740" s="26"/>
       <c r="E740" s="4"/>
       <c r="F740" s="3"/>
       <c r="G740" s="3"/>
@@ -22302,7 +22314,7 @@
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
-      <c r="D741" s="27"/>
+      <c r="D741" s="26"/>
       <c r="E741" s="4"/>
       <c r="F741" s="3"/>
       <c r="G741" s="3"/>
@@ -22328,7 +22340,7 @@
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
-      <c r="D742" s="27"/>
+      <c r="D742" s="26"/>
       <c r="E742" s="4"/>
       <c r="F742" s="3"/>
       <c r="G742" s="3"/>
@@ -22354,7 +22366,7 @@
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
-      <c r="D743" s="27"/>
+      <c r="D743" s="26"/>
       <c r="E743" s="4"/>
       <c r="F743" s="3"/>
       <c r="G743" s="3"/>
@@ -22380,7 +22392,7 @@
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
-      <c r="D744" s="27"/>
+      <c r="D744" s="26"/>
       <c r="E744" s="4"/>
       <c r="F744" s="3"/>
       <c r="G744" s="3"/>
@@ -22406,7 +22418,7 @@
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
-      <c r="D745" s="27"/>
+      <c r="D745" s="26"/>
       <c r="E745" s="4"/>
       <c r="F745" s="3"/>
       <c r="G745" s="3"/>
@@ -22432,7 +22444,7 @@
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
-      <c r="D746" s="27"/>
+      <c r="D746" s="26"/>
       <c r="E746" s="4"/>
       <c r="F746" s="3"/>
       <c r="G746" s="3"/>
@@ -22458,7 +22470,7 @@
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
-      <c r="D747" s="27"/>
+      <c r="D747" s="26"/>
       <c r="E747" s="4"/>
       <c r="F747" s="3"/>
       <c r="G747" s="3"/>
@@ -22484,7 +22496,7 @@
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
-      <c r="D748" s="27"/>
+      <c r="D748" s="26"/>
       <c r="E748" s="4"/>
       <c r="F748" s="3"/>
       <c r="G748" s="3"/>
@@ -22510,7 +22522,7 @@
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
-      <c r="D749" s="27"/>
+      <c r="D749" s="26"/>
       <c r="E749" s="4"/>
       <c r="F749" s="3"/>
       <c r="G749" s="3"/>
@@ -22536,7 +22548,7 @@
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
-      <c r="D750" s="27"/>
+      <c r="D750" s="26"/>
       <c r="E750" s="4"/>
       <c r="F750" s="3"/>
       <c r="G750" s="3"/>
@@ -22562,7 +22574,7 @@
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
-      <c r="D751" s="27"/>
+      <c r="D751" s="26"/>
       <c r="E751" s="4"/>
       <c r="F751" s="3"/>
       <c r="G751" s="3"/>
@@ -22588,7 +22600,7 @@
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
-      <c r="D752" s="27"/>
+      <c r="D752" s="26"/>
       <c r="E752" s="4"/>
       <c r="F752" s="3"/>
       <c r="G752" s="3"/>
@@ -22614,7 +22626,7 @@
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
-      <c r="D753" s="27"/>
+      <c r="D753" s="26"/>
       <c r="E753" s="4"/>
       <c r="F753" s="3"/>
       <c r="G753" s="3"/>
@@ -22640,7 +22652,7 @@
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
-      <c r="D754" s="27"/>
+      <c r="D754" s="26"/>
       <c r="E754" s="4"/>
       <c r="F754" s="3"/>
       <c r="G754" s="3"/>
@@ -22666,7 +22678,7 @@
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
-      <c r="D755" s="27"/>
+      <c r="D755" s="26"/>
       <c r="E755" s="4"/>
       <c r="F755" s="3"/>
       <c r="G755" s="3"/>
@@ -22692,7 +22704,7 @@
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
-      <c r="D756" s="27"/>
+      <c r="D756" s="26"/>
       <c r="E756" s="4"/>
       <c r="F756" s="3"/>
       <c r="G756" s="3"/>
@@ -22718,7 +22730,7 @@
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
-      <c r="D757" s="27"/>
+      <c r="D757" s="26"/>
       <c r="E757" s="4"/>
       <c r="F757" s="3"/>
       <c r="G757" s="3"/>
@@ -22744,7 +22756,7 @@
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
-      <c r="D758" s="27"/>
+      <c r="D758" s="26"/>
       <c r="E758" s="4"/>
       <c r="F758" s="3"/>
       <c r="G758" s="3"/>
@@ -22770,7 +22782,7 @@
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
-      <c r="D759" s="27"/>
+      <c r="D759" s="26"/>
       <c r="E759" s="4"/>
       <c r="F759" s="3"/>
       <c r="G759" s="3"/>
@@ -22796,7 +22808,7 @@
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
-      <c r="D760" s="27"/>
+      <c r="D760" s="26"/>
       <c r="E760" s="4"/>
       <c r="F760" s="3"/>
       <c r="G760" s="3"/>
@@ -22822,7 +22834,7 @@
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
-      <c r="D761" s="27"/>
+      <c r="D761" s="26"/>
       <c r="E761" s="4"/>
       <c r="F761" s="3"/>
       <c r="G761" s="3"/>
@@ -22848,7 +22860,7 @@
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
-      <c r="D762" s="27"/>
+      <c r="D762" s="26"/>
       <c r="E762" s="4"/>
       <c r="F762" s="3"/>
       <c r="G762" s="3"/>
@@ -22874,7 +22886,7 @@
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
-      <c r="D763" s="27"/>
+      <c r="D763" s="26"/>
       <c r="E763" s="4"/>
       <c r="F763" s="3"/>
       <c r="G763" s="3"/>
@@ -22900,7 +22912,7 @@
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
-      <c r="D764" s="27"/>
+      <c r="D764" s="26"/>
       <c r="E764" s="4"/>
       <c r="F764" s="3"/>
       <c r="G764" s="3"/>
@@ -22926,7 +22938,7 @@
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
-      <c r="D765" s="27"/>
+      <c r="D765" s="26"/>
       <c r="E765" s="4"/>
       <c r="F765" s="3"/>
       <c r="G765" s="3"/>
@@ -22952,7 +22964,7 @@
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
-      <c r="D766" s="27"/>
+      <c r="D766" s="26"/>
       <c r="E766" s="4"/>
       <c r="F766" s="3"/>
       <c r="G766" s="3"/>
@@ -22978,7 +22990,7 @@
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
-      <c r="D767" s="27"/>
+      <c r="D767" s="26"/>
       <c r="E767" s="4"/>
       <c r="F767" s="3"/>
       <c r="G767" s="3"/>
@@ -23004,7 +23016,7 @@
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
-      <c r="D768" s="27"/>
+      <c r="D768" s="26"/>
       <c r="E768" s="4"/>
       <c r="F768" s="3"/>
       <c r="G768" s="3"/>
@@ -23030,7 +23042,7 @@
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
-      <c r="D769" s="27"/>
+      <c r="D769" s="26"/>
       <c r="E769" s="4"/>
       <c r="F769" s="3"/>
       <c r="G769" s="3"/>
@@ -23056,7 +23068,7 @@
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
-      <c r="D770" s="27"/>
+      <c r="D770" s="26"/>
       <c r="E770" s="4"/>
       <c r="F770" s="3"/>
       <c r="G770" s="3"/>
@@ -23082,7 +23094,7 @@
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
-      <c r="D771" s="27"/>
+      <c r="D771" s="26"/>
       <c r="E771" s="4"/>
       <c r="F771" s="3"/>
       <c r="G771" s="3"/>
@@ -23108,7 +23120,7 @@
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
-      <c r="D772" s="27"/>
+      <c r="D772" s="26"/>
       <c r="E772" s="4"/>
       <c r="F772" s="3"/>
       <c r="G772" s="3"/>
@@ -23134,7 +23146,7 @@
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
-      <c r="D773" s="27"/>
+      <c r="D773" s="26"/>
       <c r="E773" s="4"/>
       <c r="F773" s="3"/>
       <c r="G773" s="3"/>
@@ -23160,7 +23172,7 @@
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
-      <c r="D774" s="27"/>
+      <c r="D774" s="26"/>
       <c r="E774" s="4"/>
       <c r="F774" s="3"/>
       <c r="G774" s="3"/>
@@ -23186,7 +23198,7 @@
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
-      <c r="D775" s="27"/>
+      <c r="D775" s="26"/>
       <c r="E775" s="4"/>
       <c r="F775" s="3"/>
       <c r="G775" s="3"/>
@@ -23212,7 +23224,7 @@
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
-      <c r="D776" s="27"/>
+      <c r="D776" s="26"/>
       <c r="E776" s="4"/>
       <c r="F776" s="3"/>
       <c r="G776" s="3"/>
@@ -23238,7 +23250,7 @@
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
-      <c r="D777" s="27"/>
+      <c r="D777" s="26"/>
       <c r="E777" s="4"/>
       <c r="F777" s="3"/>
       <c r="G777" s="3"/>
@@ -23264,7 +23276,7 @@
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
-      <c r="D778" s="27"/>
+      <c r="D778" s="26"/>
       <c r="E778" s="4"/>
       <c r="F778" s="3"/>
       <c r="G778" s="3"/>
@@ -23290,7 +23302,7 @@
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
-      <c r="D779" s="27"/>
+      <c r="D779" s="26"/>
       <c r="E779" s="4"/>
       <c r="F779" s="3"/>
       <c r="G779" s="3"/>
@@ -23316,7 +23328,7 @@
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
-      <c r="D780" s="27"/>
+      <c r="D780" s="26"/>
       <c r="E780" s="4"/>
       <c r="F780" s="3"/>
       <c r="G780" s="3"/>
@@ -23342,7 +23354,7 @@
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
-      <c r="D781" s="27"/>
+      <c r="D781" s="26"/>
       <c r="E781" s="4"/>
       <c r="F781" s="3"/>
       <c r="G781" s="3"/>
@@ -23368,7 +23380,7 @@
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
-      <c r="D782" s="27"/>
+      <c r="D782" s="26"/>
       <c r="E782" s="4"/>
       <c r="F782" s="3"/>
       <c r="G782" s="3"/>
@@ -23394,7 +23406,7 @@
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
-      <c r="D783" s="27"/>
+      <c r="D783" s="26"/>
       <c r="E783" s="4"/>
       <c r="F783" s="3"/>
       <c r="G783" s="3"/>
@@ -23420,7 +23432,7 @@
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
-      <c r="D784" s="27"/>
+      <c r="D784" s="26"/>
       <c r="E784" s="4"/>
       <c r="F784" s="3"/>
       <c r="G784" s="3"/>
@@ -23446,7 +23458,7 @@
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
-      <c r="D785" s="27"/>
+      <c r="D785" s="26"/>
       <c r="E785" s="4"/>
       <c r="F785" s="3"/>
       <c r="G785" s="3"/>
@@ -23472,7 +23484,7 @@
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
-      <c r="D786" s="27"/>
+      <c r="D786" s="26"/>
       <c r="E786" s="4"/>
       <c r="F786" s="3"/>
       <c r="G786" s="3"/>
@@ -23498,7 +23510,7 @@
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
-      <c r="D787" s="27"/>
+      <c r="D787" s="26"/>
       <c r="E787" s="4"/>
       <c r="F787" s="3"/>
       <c r="G787" s="3"/>
@@ -23524,7 +23536,7 @@
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
-      <c r="D788" s="27"/>
+      <c r="D788" s="26"/>
       <c r="E788" s="4"/>
       <c r="F788" s="3"/>
       <c r="G788" s="3"/>
@@ -23550,7 +23562,7 @@
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
-      <c r="D789" s="27"/>
+      <c r="D789" s="26"/>
       <c r="E789" s="4"/>
       <c r="F789" s="3"/>
       <c r="G789" s="3"/>
@@ -23576,7 +23588,7 @@
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
-      <c r="D790" s="27"/>
+      <c r="D790" s="26"/>
       <c r="E790" s="4"/>
       <c r="F790" s="3"/>
       <c r="G790" s="3"/>
@@ -23602,7 +23614,7 @@
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
-      <c r="D791" s="27"/>
+      <c r="D791" s="26"/>
       <c r="E791" s="4"/>
       <c r="F791" s="3"/>
       <c r="G791" s="3"/>
@@ -23628,7 +23640,7 @@
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
-      <c r="D792" s="27"/>
+      <c r="D792" s="26"/>
       <c r="E792" s="4"/>
       <c r="F792" s="3"/>
       <c r="G792" s="3"/>
@@ -23654,7 +23666,7 @@
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
-      <c r="D793" s="27"/>
+      <c r="D793" s="26"/>
       <c r="E793" s="4"/>
       <c r="F793" s="3"/>
       <c r="G793" s="3"/>
@@ -23680,7 +23692,7 @@
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
-      <c r="D794" s="27"/>
+      <c r="D794" s="26"/>
       <c r="E794" s="4"/>
       <c r="F794" s="3"/>
       <c r="G794" s="3"/>
@@ -23706,7 +23718,7 @@
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
-      <c r="D795" s="27"/>
+      <c r="D795" s="26"/>
       <c r="E795" s="4"/>
       <c r="F795" s="3"/>
       <c r="G795" s="3"/>
@@ -23732,7 +23744,7 @@
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
-      <c r="D796" s="27"/>
+      <c r="D796" s="26"/>
       <c r="E796" s="4"/>
       <c r="F796" s="3"/>
       <c r="G796" s="3"/>
@@ -23758,7 +23770,7 @@
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
-      <c r="D797" s="27"/>
+      <c r="D797" s="26"/>
       <c r="E797" s="4"/>
       <c r="F797" s="3"/>
       <c r="G797" s="3"/>
@@ -23784,7 +23796,7 @@
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
-      <c r="D798" s="27"/>
+      <c r="D798" s="26"/>
       <c r="E798" s="4"/>
       <c r="F798" s="3"/>
       <c r="G798" s="3"/>
@@ -23810,7 +23822,7 @@
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
-      <c r="D799" s="27"/>
+      <c r="D799" s="26"/>
       <c r="E799" s="4"/>
       <c r="F799" s="3"/>
       <c r="G799" s="3"/>
@@ -23836,7 +23848,7 @@
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
-      <c r="D800" s="27"/>
+      <c r="D800" s="26"/>
       <c r="E800" s="4"/>
       <c r="F800" s="3"/>
       <c r="G800" s="3"/>
@@ -23862,7 +23874,7 @@
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
-      <c r="D801" s="27"/>
+      <c r="D801" s="26"/>
       <c r="E801" s="4"/>
       <c r="F801" s="3"/>
       <c r="G801" s="3"/>
@@ -23888,7 +23900,7 @@
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
-      <c r="D802" s="27"/>
+      <c r="D802" s="26"/>
       <c r="E802" s="4"/>
       <c r="F802" s="3"/>
       <c r="G802" s="3"/>
@@ -23914,7 +23926,7 @@
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
-      <c r="D803" s="27"/>
+      <c r="D803" s="26"/>
       <c r="E803" s="4"/>
       <c r="F803" s="3"/>
       <c r="G803" s="3"/>
@@ -23940,7 +23952,7 @@
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
-      <c r="D804" s="27"/>
+      <c r="D804" s="26"/>
       <c r="E804" s="4"/>
       <c r="F804" s="3"/>
       <c r="G804" s="3"/>
@@ -23966,7 +23978,7 @@
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
-      <c r="D805" s="27"/>
+      <c r="D805" s="26"/>
       <c r="E805" s="4"/>
       <c r="F805" s="3"/>
       <c r="G805" s="3"/>
@@ -23992,7 +24004,7 @@
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
-      <c r="D806" s="27"/>
+      <c r="D806" s="26"/>
       <c r="E806" s="4"/>
       <c r="F806" s="3"/>
       <c r="G806" s="3"/>
@@ -24018,7 +24030,7 @@
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
-      <c r="D807" s="27"/>
+      <c r="D807" s="26"/>
       <c r="E807" s="4"/>
       <c r="F807" s="3"/>
       <c r="G807" s="3"/>
@@ -24044,7 +24056,7 @@
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
-      <c r="D808" s="27"/>
+      <c r="D808" s="26"/>
       <c r="E808" s="4"/>
       <c r="F808" s="3"/>
       <c r="G808" s="3"/>
@@ -24070,7 +24082,7 @@
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
-      <c r="D809" s="27"/>
+      <c r="D809" s="26"/>
       <c r="E809" s="4"/>
       <c r="F809" s="3"/>
       <c r="G809" s="3"/>
@@ -24096,7 +24108,7 @@
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
-      <c r="D810" s="27"/>
+      <c r="D810" s="26"/>
       <c r="E810" s="4"/>
       <c r="F810" s="3"/>
       <c r="G810" s="3"/>
@@ -24122,7 +24134,7 @@
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
-      <c r="D811" s="27"/>
+      <c r="D811" s="26"/>
       <c r="E811" s="4"/>
       <c r="F811" s="3"/>
       <c r="G811" s="3"/>
@@ -24148,7 +24160,7 @@
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
-      <c r="D812" s="27"/>
+      <c r="D812" s="26"/>
       <c r="E812" s="4"/>
       <c r="F812" s="3"/>
       <c r="G812" s="3"/>
@@ -24174,7 +24186,7 @@
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
-      <c r="D813" s="27"/>
+      <c r="D813" s="26"/>
       <c r="E813" s="4"/>
       <c r="F813" s="3"/>
       <c r="G813" s="3"/>
@@ -24200,7 +24212,7 @@
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
-      <c r="D814" s="27"/>
+      <c r="D814" s="26"/>
       <c r="E814" s="4"/>
       <c r="F814" s="3"/>
       <c r="G814" s="3"/>
@@ -24226,7 +24238,7 @@
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
-      <c r="D815" s="27"/>
+      <c r="D815" s="26"/>
       <c r="E815" s="4"/>
       <c r="F815" s="3"/>
       <c r="G815" s="3"/>
@@ -24252,7 +24264,7 @@
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
-      <c r="D816" s="27"/>
+      <c r="D816" s="26"/>
       <c r="E816" s="4"/>
       <c r="F816" s="3"/>
       <c r="G816" s="3"/>
@@ -24278,7 +24290,7 @@
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
-      <c r="D817" s="27"/>
+      <c r="D817" s="26"/>
       <c r="E817" s="4"/>
       <c r="F817" s="3"/>
       <c r="G817" s="3"/>
@@ -24304,7 +24316,7 @@
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
-      <c r="D818" s="27"/>
+      <c r="D818" s="26"/>
       <c r="E818" s="4"/>
       <c r="F818" s="3"/>
       <c r="G818" s="3"/>
@@ -24330,7 +24342,7 @@
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
-      <c r="D819" s="27"/>
+      <c r="D819" s="26"/>
       <c r="E819" s="4"/>
       <c r="F819" s="3"/>
       <c r="G819" s="3"/>
@@ -24356,7 +24368,7 @@
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
-      <c r="D820" s="27"/>
+      <c r="D820" s="26"/>
       <c r="E820" s="4"/>
       <c r="F820" s="3"/>
       <c r="G820" s="3"/>
@@ -24382,7 +24394,7 @@
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
-      <c r="D821" s="27"/>
+      <c r="D821" s="26"/>
       <c r="E821" s="4"/>
       <c r="F821" s="3"/>
       <c r="G821" s="3"/>
@@ -24408,7 +24420,7 @@
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
-      <c r="D822" s="27"/>
+      <c r="D822" s="26"/>
       <c r="E822" s="4"/>
       <c r="F822" s="3"/>
       <c r="G822" s="3"/>
@@ -24434,7 +24446,7 @@
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
-      <c r="D823" s="27"/>
+      <c r="D823" s="26"/>
       <c r="E823" s="4"/>
       <c r="F823" s="3"/>
       <c r="G823" s="3"/>
@@ -24460,7 +24472,7 @@
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
-      <c r="D824" s="27"/>
+      <c r="D824" s="26"/>
       <c r="E824" s="4"/>
       <c r="F824" s="3"/>
       <c r="G824" s="3"/>
@@ -24486,7 +24498,7 @@
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
-      <c r="D825" s="27"/>
+      <c r="D825" s="26"/>
       <c r="E825" s="4"/>
       <c r="F825" s="3"/>
       <c r="G825" s="3"/>
@@ -24512,7 +24524,7 @@
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
-      <c r="D826" s="27"/>
+      <c r="D826" s="26"/>
       <c r="E826" s="4"/>
       <c r="F826" s="3"/>
       <c r="G826" s="3"/>
@@ -24538,7 +24550,7 @@
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
-      <c r="D827" s="27"/>
+      <c r="D827" s="26"/>
       <c r="E827" s="4"/>
       <c r="F827" s="3"/>
       <c r="G827" s="3"/>
@@ -24564,7 +24576,7 @@
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
-      <c r="D828" s="27"/>
+      <c r="D828" s="26"/>
       <c r="E828" s="4"/>
       <c r="F828" s="3"/>
       <c r="G828" s="3"/>
@@ -24590,7 +24602,7 @@
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
-      <c r="D829" s="27"/>
+      <c r="D829" s="26"/>
       <c r="E829" s="4"/>
       <c r="F829" s="3"/>
       <c r="G829" s="3"/>
@@ -24616,7 +24628,7 @@
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
-      <c r="D830" s="27"/>
+      <c r="D830" s="26"/>
       <c r="E830" s="4"/>
       <c r="F830" s="3"/>
       <c r="G830" s="3"/>
@@ -24642,7 +24654,7 @@
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
-      <c r="D831" s="27"/>
+      <c r="D831" s="26"/>
       <c r="E831" s="4"/>
       <c r="F831" s="3"/>
       <c r="G831" s="3"/>
@@ -24668,7 +24680,7 @@
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
-      <c r="D832" s="27"/>
+      <c r="D832" s="26"/>
       <c r="E832" s="4"/>
       <c r="F832" s="3"/>
       <c r="G832" s="3"/>
@@ -24694,7 +24706,7 @@
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
-      <c r="D833" s="27"/>
+      <c r="D833" s="26"/>
       <c r="E833" s="4"/>
       <c r="F833" s="3"/>
       <c r="G833" s="3"/>
@@ -24720,7 +24732,7 @@
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
-      <c r="D834" s="27"/>
+      <c r="D834" s="26"/>
       <c r="E834" s="4"/>
       <c r="F834" s="3"/>
       <c r="G834" s="3"/>
@@ -24746,7 +24758,7 @@
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
-      <c r="D835" s="27"/>
+      <c r="D835" s="26"/>
       <c r="E835" s="4"/>
       <c r="F835" s="3"/>
       <c r="G835" s="3"/>
@@ -24772,7 +24784,7 @@
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
-      <c r="D836" s="27"/>
+      <c r="D836" s="26"/>
       <c r="E836" s="4"/>
       <c r="F836" s="3"/>
       <c r="G836" s="3"/>
@@ -24798,7 +24810,7 @@
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
-      <c r="D837" s="27"/>
+      <c r="D837" s="26"/>
       <c r="E837" s="4"/>
       <c r="F837" s="3"/>
       <c r="G837" s="3"/>
@@ -24824,7 +24836,7 @@
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
-      <c r="D838" s="27"/>
+      <c r="D838" s="26"/>
       <c r="E838" s="4"/>
       <c r="F838" s="3"/>
       <c r="G838" s="3"/>
@@ -24850,7 +24862,7 @@
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
-      <c r="D839" s="27"/>
+      <c r="D839" s="26"/>
       <c r="E839" s="4"/>
       <c r="F839" s="3"/>
       <c r="G839" s="3"/>
@@ -24876,7 +24888,7 @@
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
-      <c r="D840" s="27"/>
+      <c r="D840" s="26"/>
       <c r="E840" s="4"/>
       <c r="F840" s="3"/>
       <c r="G840" s="3"/>
@@ -24902,7 +24914,7 @@
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
-      <c r="D841" s="27"/>
+      <c r="D841" s="26"/>
       <c r="E841" s="4"/>
       <c r="F841" s="3"/>
       <c r="G841" s="3"/>
@@ -24928,7 +24940,7 @@
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
-      <c r="D842" s="27"/>
+      <c r="D842" s="26"/>
       <c r="E842" s="4"/>
       <c r="F842" s="3"/>
       <c r="G842" s="3"/>
@@ -24954,7 +24966,7 @@
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
-      <c r="D843" s="27"/>
+      <c r="D843" s="26"/>
       <c r="E843" s="4"/>
       <c r="F843" s="3"/>
       <c r="G843" s="3"/>
@@ -24980,7 +24992,7 @@
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
-      <c r="D844" s="27"/>
+      <c r="D844" s="26"/>
       <c r="E844" s="4"/>
       <c r="F844" s="3"/>
       <c r="G844" s="3"/>
@@ -25006,7 +25018,7 @@
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
-      <c r="D845" s="27"/>
+      <c r="D845" s="26"/>
       <c r="E845" s="4"/>
       <c r="F845" s="3"/>
       <c r="G845" s="3"/>
@@ -25032,7 +25044,7 @@
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
-      <c r="D846" s="27"/>
+      <c r="D846" s="26"/>
       <c r="E846" s="4"/>
       <c r="F846" s="3"/>
       <c r="G846" s="3"/>
@@ -25058,7 +25070,7 @@
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
-      <c r="D847" s="27"/>
+      <c r="D847" s="26"/>
       <c r="E847" s="4"/>
       <c r="F847" s="3"/>
       <c r="G847" s="3"/>
@@ -25084,7 +25096,7 @@
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
-      <c r="D848" s="27"/>
+      <c r="D848" s="26"/>
       <c r="E848" s="4"/>
       <c r="F848" s="3"/>
       <c r="G848" s="3"/>
@@ -25110,7 +25122,7 @@
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
-      <c r="D849" s="27"/>
+      <c r="D849" s="26"/>
       <c r="E849" s="4"/>
       <c r="F849" s="3"/>
       <c r="G849" s="3"/>
@@ -25136,7 +25148,7 @@
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
-      <c r="D850" s="27"/>
+      <c r="D850" s="26"/>
       <c r="E850" s="4"/>
       <c r="F850" s="3"/>
       <c r="G850" s="3"/>
@@ -25162,7 +25174,7 @@
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
-      <c r="D851" s="27"/>
+      <c r="D851" s="26"/>
       <c r="E851" s="4"/>
       <c r="F851" s="3"/>
       <c r="G851" s="3"/>
@@ -25188,7 +25200,7 @@
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
-      <c r="D852" s="27"/>
+      <c r="D852" s="26"/>
       <c r="E852" s="4"/>
       <c r="F852" s="3"/>
       <c r="G852" s="3"/>
@@ -25214,7 +25226,7 @@
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
-      <c r="D853" s="27"/>
+      <c r="D853" s="26"/>
       <c r="E853" s="4"/>
       <c r="F853" s="3"/>
       <c r="G853" s="3"/>
@@ -25240,7 +25252,7 @@
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
-      <c r="D854" s="27"/>
+      <c r="D854" s="26"/>
       <c r="E854" s="4"/>
       <c r="F854" s="3"/>
       <c r="G854" s="3"/>
@@ -25266,7 +25278,7 @@
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
-      <c r="D855" s="27"/>
+      <c r="D855" s="26"/>
       <c r="E855" s="4"/>
       <c r="F855" s="3"/>
       <c r="G855" s="3"/>
@@ -25292,7 +25304,7 @@
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
-      <c r="D856" s="27"/>
+      <c r="D856" s="26"/>
       <c r="E856" s="4"/>
       <c r="F856" s="3"/>
       <c r="G856" s="3"/>
@@ -25318,7 +25330,7 @@
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
-      <c r="D857" s="27"/>
+      <c r="D857" s="26"/>
       <c r="E857" s="4"/>
       <c r="F857" s="3"/>
       <c r="G857" s="3"/>
@@ -25344,7 +25356,7 @@
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
-      <c r="D858" s="27"/>
+      <c r="D858" s="26"/>
       <c r="E858" s="4"/>
       <c r="F858" s="3"/>
       <c r="G858" s="3"/>
@@ -25370,7 +25382,7 @@
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
-      <c r="D859" s="27"/>
+      <c r="D859" s="26"/>
       <c r="E859" s="4"/>
       <c r="F859" s="3"/>
       <c r="G859" s="3"/>
@@ -25396,7 +25408,7 @@
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
-      <c r="D860" s="27"/>
+      <c r="D860" s="26"/>
       <c r="E860" s="4"/>
       <c r="F860" s="3"/>
       <c r="G860" s="3"/>
@@ -25422,7 +25434,7 @@
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
-      <c r="D861" s="27"/>
+      <c r="D861" s="26"/>
       <c r="E861" s="4"/>
       <c r="F861" s="3"/>
       <c r="G861" s="3"/>
@@ -25448,7 +25460,7 @@
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
-      <c r="D862" s="27"/>
+      <c r="D862" s="26"/>
       <c r="E862" s="4"/>
       <c r="F862" s="3"/>
       <c r="G862" s="3"/>
@@ -25474,7 +25486,7 @@
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
-      <c r="D863" s="27"/>
+      <c r="D863" s="26"/>
       <c r="E863" s="4"/>
       <c r="F863" s="3"/>
       <c r="G863" s="3"/>
@@ -25500,7 +25512,7 @@
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
-      <c r="D864" s="27"/>
+      <c r="D864" s="26"/>
       <c r="E864" s="4"/>
       <c r="F864" s="3"/>
       <c r="G864" s="3"/>
@@ -25526,7 +25538,7 @@
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
-      <c r="D865" s="27"/>
+      <c r="D865" s="26"/>
       <c r="E865" s="4"/>
       <c r="F865" s="3"/>
       <c r="G865" s="3"/>
@@ -25552,7 +25564,7 @@
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
-      <c r="D866" s="27"/>
+      <c r="D866" s="26"/>
       <c r="E866" s="4"/>
       <c r="F866" s="3"/>
       <c r="G866" s="3"/>
@@ -25578,7 +25590,7 @@
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
-      <c r="D867" s="27"/>
+      <c r="D867" s="26"/>
       <c r="E867" s="4"/>
       <c r="F867" s="3"/>
       <c r="G867" s="3"/>
@@ -25604,7 +25616,7 @@
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
-      <c r="D868" s="27"/>
+      <c r="D868" s="26"/>
       <c r="E868" s="4"/>
       <c r="F868" s="3"/>
       <c r="G868" s="3"/>
@@ -25630,7 +25642,7 @@
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
-      <c r="D869" s="27"/>
+      <c r="D869" s="26"/>
       <c r="E869" s="4"/>
       <c r="F869" s="3"/>
       <c r="G869" s="3"/>
@@ -25656,7 +25668,7 @@
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
-      <c r="D870" s="27"/>
+      <c r="D870" s="26"/>
       <c r="E870" s="4"/>
       <c r="F870" s="3"/>
       <c r="G870" s="3"/>
@@ -25682,7 +25694,7 @@
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
-      <c r="D871" s="27"/>
+      <c r="D871" s="26"/>
       <c r="E871" s="4"/>
       <c r="F871" s="3"/>
       <c r="G871" s="3"/>
@@ -25708,7 +25720,7 @@
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
-      <c r="D872" s="27"/>
+      <c r="D872" s="26"/>
       <c r="E872" s="4"/>
       <c r="F872" s="3"/>
       <c r="G872" s="3"/>
@@ -25734,7 +25746,7 @@
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
-      <c r="D873" s="27"/>
+      <c r="D873" s="26"/>
       <c r="E873" s="4"/>
       <c r="F873" s="3"/>
       <c r="G873" s="3"/>
@@ -25760,7 +25772,7 @@
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
-      <c r="D874" s="27"/>
+      <c r="D874" s="26"/>
       <c r="E874" s="4"/>
       <c r="F874" s="3"/>
       <c r="G874" s="3"/>
@@ -25786,7 +25798,7 @@
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
-      <c r="D875" s="27"/>
+      <c r="D875" s="26"/>
       <c r="E875" s="4"/>
       <c r="F875" s="3"/>
       <c r="G875" s="3"/>
@@ -25812,7 +25824,7 @@
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
-      <c r="D876" s="27"/>
+      <c r="D876" s="26"/>
       <c r="E876" s="4"/>
       <c r="F876" s="3"/>
       <c r="G876" s="3"/>
@@ -25838,7 +25850,7 @@
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
-      <c r="D877" s="27"/>
+      <c r="D877" s="26"/>
       <c r="E877" s="4"/>
       <c r="F877" s="3"/>
       <c r="G877" s="3"/>
@@ -25864,7 +25876,7 @@
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
-      <c r="D878" s="27"/>
+      <c r="D878" s="26"/>
       <c r="E878" s="4"/>
       <c r="F878" s="3"/>
       <c r="G878" s="3"/>
@@ -25890,7 +25902,7 @@
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
-      <c r="D879" s="27"/>
+      <c r="D879" s="26"/>
       <c r="E879" s="4"/>
       <c r="F879" s="3"/>
       <c r="G879" s="3"/>
@@ -25916,7 +25928,7 @@
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
-      <c r="D880" s="27"/>
+      <c r="D880" s="26"/>
       <c r="E880" s="4"/>
       <c r="F880" s="3"/>
       <c r="G880" s="3"/>
@@ -25942,7 +25954,7 @@
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
-      <c r="D881" s="27"/>
+      <c r="D881" s="26"/>
       <c r="E881" s="4"/>
       <c r="F881" s="3"/>
       <c r="G881" s="3"/>
@@ -25968,7 +25980,7 @@
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
-      <c r="D882" s="27"/>
+      <c r="D882" s="26"/>
       <c r="E882" s="4"/>
       <c r="F882" s="3"/>
       <c r="G882" s="3"/>
@@ -25994,7 +26006,7 @@
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
-      <c r="D883" s="27"/>
+      <c r="D883" s="26"/>
       <c r="E883" s="4"/>
       <c r="F883" s="3"/>
       <c r="G883" s="3"/>
@@ -26020,7 +26032,7 @@
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
-      <c r="D884" s="27"/>
+      <c r="D884" s="26"/>
       <c r="E884" s="4"/>
       <c r="F884" s="3"/>
       <c r="G884" s="3"/>
@@ -26046,7 +26058,7 @@
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
-      <c r="D885" s="27"/>
+      <c r="D885" s="26"/>
       <c r="E885" s="4"/>
       <c r="F885" s="3"/>
       <c r="G885" s="3"/>
@@ -26072,7 +26084,7 @@
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
-      <c r="D886" s="27"/>
+      <c r="D886" s="26"/>
       <c r="E886" s="4"/>
       <c r="F886" s="3"/>
       <c r="G886" s="3"/>
@@ -26098,7 +26110,7 @@
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
-      <c r="D887" s="27"/>
+      <c r="D887" s="26"/>
       <c r="E887" s="4"/>
       <c r="F887" s="3"/>
       <c r="G887" s="3"/>
@@ -26124,7 +26136,7 @@
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
-      <c r="D888" s="27"/>
+      <c r="D888" s="26"/>
       <c r="E888" s="4"/>
       <c r="F888" s="3"/>
       <c r="G888" s="3"/>
@@ -26150,7 +26162,7 @@
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
-      <c r="D889" s="27"/>
+      <c r="D889" s="26"/>
       <c r="E889" s="4"/>
       <c r="F889" s="3"/>
       <c r="G889" s="3"/>
@@ -26176,7 +26188,7 @@
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
-      <c r="D890" s="27"/>
+      <c r="D890" s="26"/>
       <c r="E890" s="4"/>
       <c r="F890" s="3"/>
       <c r="G890" s="3"/>
@@ -26202,7 +26214,7 @@
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
-      <c r="D891" s="27"/>
+      <c r="D891" s="26"/>
       <c r="E891" s="4"/>
       <c r="F891" s="3"/>
       <c r="G891" s="3"/>
@@ -26228,7 +26240,7 @@
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
-      <c r="D892" s="27"/>
+      <c r="D892" s="26"/>
       <c r="E892" s="4"/>
       <c r="F892" s="3"/>
       <c r="G892" s="3"/>
@@ -26254,7 +26266,7 @@
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
-      <c r="D893" s="27"/>
+      <c r="D893" s="26"/>
       <c r="E893" s="4"/>
       <c r="F893" s="3"/>
       <c r="G893" s="3"/>
@@ -26280,7 +26292,7 @@
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
-      <c r="D894" s="27"/>
+      <c r="D894" s="26"/>
       <c r="E894" s="4"/>
       <c r="F894" s="3"/>
       <c r="G894" s="3"/>
@@ -26306,7 +26318,7 @@
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
-      <c r="D895" s="27"/>
+      <c r="D895" s="26"/>
       <c r="E895" s="4"/>
       <c r="F895" s="3"/>
       <c r="G895" s="3"/>
@@ -26332,7 +26344,7 @@
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
-      <c r="D896" s="27"/>
+      <c r="D896" s="26"/>
       <c r="E896" s="4"/>
       <c r="F896" s="3"/>
       <c r="G896" s="3"/>
@@ -26358,7 +26370,7 @@
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
-      <c r="D897" s="27"/>
+      <c r="D897" s="26"/>
       <c r="E897" s="4"/>
       <c r="F897" s="3"/>
       <c r="G897" s="3"/>
@@ -26384,7 +26396,7 @@
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
-      <c r="D898" s="27"/>
+      <c r="D898" s="26"/>
       <c r="E898" s="4"/>
       <c r="F898" s="3"/>
       <c r="G898" s="3"/>
@@ -26410,7 +26422,7 @@
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
-      <c r="D899" s="27"/>
+      <c r="D899" s="26"/>
       <c r="E899" s="4"/>
       <c r="F899" s="3"/>
       <c r="G899" s="3"/>
@@ -26436,7 +26448,7 @@
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
-      <c r="D900" s="27"/>
+      <c r="D900" s="26"/>
       <c r="E900" s="4"/>
       <c r="F900" s="3"/>
       <c r="G900" s="3"/>
@@ -26462,7 +26474,7 @@
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
-      <c r="D901" s="27"/>
+      <c r="D901" s="26"/>
       <c r="E901" s="4"/>
       <c r="F901" s="3"/>
       <c r="G901" s="3"/>
@@ -26488,7 +26500,7 @@
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
-      <c r="D902" s="27"/>
+      <c r="D902" s="26"/>
       <c r="E902" s="4"/>
       <c r="F902" s="3"/>
       <c r="G902" s="3"/>
@@ -26514,7 +26526,7 @@
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
-      <c r="D903" s="27"/>
+      <c r="D903" s="26"/>
       <c r="E903" s="4"/>
       <c r="F903" s="3"/>
       <c r="G903" s="3"/>
@@ -26540,7 +26552,7 @@
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
-      <c r="D904" s="27"/>
+      <c r="D904" s="26"/>
       <c r="E904" s="4"/>
       <c r="F904" s="3"/>
       <c r="G904" s="3"/>
@@ -26566,7 +26578,7 @@
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
-      <c r="D905" s="27"/>
+      <c r="D905" s="26"/>
       <c r="E905" s="4"/>
       <c r="F905" s="3"/>
       <c r="G905" s="3"/>
@@ -26592,7 +26604,7 @@
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
-      <c r="D906" s="27"/>
+      <c r="D906" s="26"/>
       <c r="E906" s="4"/>
       <c r="F906" s="3"/>
       <c r="G906" s="3"/>
@@ -26618,7 +26630,7 @@
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
-      <c r="D907" s="27"/>
+      <c r="D907" s="26"/>
       <c r="E907" s="4"/>
       <c r="F907" s="3"/>
       <c r="G907" s="3"/>
@@ -26644,7 +26656,7 @@
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
-      <c r="D908" s="27"/>
+      <c r="D908" s="26"/>
       <c r="E908" s="4"/>
       <c r="F908" s="3"/>
       <c r="G908" s="3"/>
@@ -26670,7 +26682,7 @@
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
-      <c r="D909" s="27"/>
+      <c r="D909" s="26"/>
       <c r="E909" s="4"/>
       <c r="F909" s="3"/>
       <c r="G909" s="3"/>
@@ -26696,7 +26708,7 @@
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
-      <c r="D910" s="27"/>
+      <c r="D910" s="26"/>
       <c r="E910" s="4"/>
       <c r="F910" s="3"/>
       <c r="G910" s="3"/>
@@ -26722,7 +26734,7 @@
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
-      <c r="D911" s="27"/>
+      <c r="D911" s="26"/>
       <c r="E911" s="4"/>
       <c r="F911" s="3"/>
       <c r="G911" s="3"/>
@@ -26748,7 +26760,7 @@
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
-      <c r="D912" s="27"/>
+      <c r="D912" s="26"/>
       <c r="E912" s="4"/>
       <c r="F912" s="3"/>
       <c r="G912" s="3"/>
@@ -26774,7 +26786,7 @@
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
-      <c r="D913" s="27"/>
+      <c r="D913" s="26"/>
       <c r="E913" s="4"/>
       <c r="F913" s="3"/>
       <c r="G913" s="3"/>
@@ -26800,7 +26812,7 @@
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
-      <c r="D914" s="27"/>
+      <c r="D914" s="26"/>
       <c r="E914" s="4"/>
       <c r="F914" s="3"/>
       <c r="G914" s="3"/>
@@ -26826,7 +26838,7 @@
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
-      <c r="D915" s="27"/>
+      <c r="D915" s="26"/>
       <c r="E915" s="4"/>
       <c r="F915" s="3"/>
       <c r="G915" s="3"/>
@@ -26852,7 +26864,7 @@
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
-      <c r="D916" s="27"/>
+      <c r="D916" s="26"/>
       <c r="E916" s="4"/>
       <c r="F916" s="3"/>
       <c r="G916" s="3"/>
@@ -26878,7 +26890,7 @@
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
-      <c r="D917" s="27"/>
+      <c r="D917" s="26"/>
       <c r="E917" s="4"/>
       <c r="F917" s="3"/>
       <c r="G917" s="3"/>
@@ -26904,7 +26916,7 @@
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
-      <c r="D918" s="27"/>
+      <c r="D918" s="26"/>
       <c r="E918" s="4"/>
       <c r="F918" s="3"/>
       <c r="G918" s="3"/>
@@ -26930,7 +26942,7 @@
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
-      <c r="D919" s="27"/>
+      <c r="D919" s="26"/>
       <c r="E919" s="4"/>
       <c r="F919" s="3"/>
       <c r="G919" s="3"/>
@@ -26956,7 +26968,7 @@
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
-      <c r="D920" s="27"/>
+      <c r="D920" s="26"/>
       <c r="E920" s="4"/>
       <c r="F920" s="3"/>
       <c r="G920" s="3"/>
@@ -26982,7 +26994,7 @@
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
-      <c r="D921" s="27"/>
+      <c r="D921" s="26"/>
       <c r="E921" s="4"/>
       <c r="F921" s="3"/>
       <c r="G921" s="3"/>
@@ -27008,7 +27020,7 @@
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
-      <c r="D922" s="27"/>
+      <c r="D922" s="26"/>
       <c r="E922" s="4"/>
       <c r="F922" s="3"/>
       <c r="G922" s="3"/>
@@ -27034,7 +27046,7 @@
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
-      <c r="D923" s="27"/>
+      <c r="D923" s="26"/>
       <c r="E923" s="4"/>
       <c r="F923" s="3"/>
       <c r="G923" s="3"/>
@@ -27060,7 +27072,7 @@
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
-      <c r="D924" s="27"/>
+      <c r="D924" s="26"/>
       <c r="E924" s="4"/>
       <c r="F924" s="3"/>
       <c r="G924" s="3"/>
@@ -27086,7 +27098,7 @@
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
-      <c r="D925" s="27"/>
+      <c r="D925" s="26"/>
       <c r="E925" s="4"/>
       <c r="F925" s="3"/>
       <c r="G925" s="3"/>
@@ -27112,7 +27124,7 @@
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
-      <c r="D926" s="27"/>
+      <c r="D926" s="26"/>
       <c r="E926" s="4"/>
       <c r="F926" s="3"/>
       <c r="G926" s="3"/>
@@ -27138,7 +27150,7 @@
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
-      <c r="D927" s="27"/>
+      <c r="D927" s="26"/>
       <c r="E927" s="4"/>
       <c r="F927" s="3"/>
       <c r="G927" s="3"/>
@@ -27164,7 +27176,7 @@
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
-      <c r="D928" s="27"/>
+      <c r="D928" s="26"/>
       <c r="E928" s="4"/>
       <c r="F928" s="3"/>
       <c r="G928" s="3"/>
@@ -27190,7 +27202,7 @@
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
-      <c r="D929" s="27"/>
+      <c r="D929" s="26"/>
       <c r="E929" s="4"/>
       <c r="F929" s="3"/>
       <c r="G929" s="3"/>
@@ -27216,7 +27228,7 @@
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
-      <c r="D930" s="27"/>
+      <c r="D930" s="26"/>
       <c r="E930" s="4"/>
       <c r="F930" s="3"/>
       <c r="G930" s="3"/>
@@ -27242,7 +27254,7 @@
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
-      <c r="D931" s="27"/>
+      <c r="D931" s="26"/>
       <c r="E931" s="4"/>
       <c r="F931" s="3"/>
       <c r="G931" s="3"/>
@@ -27268,7 +27280,7 @@
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
-      <c r="D932" s="27"/>
+      <c r="D932" s="26"/>
       <c r="E932" s="4"/>
       <c r="F932" s="3"/>
       <c r="G932" s="3"/>
@@ -27294,7 +27306,7 @@
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
-      <c r="D933" s="27"/>
+      <c r="D933" s="26"/>
       <c r="E933" s="4"/>
       <c r="F933" s="3"/>
       <c r="G933" s="3"/>
@@ -27320,7 +27332,7 @@
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
-      <c r="D934" s="27"/>
+      <c r="D934" s="26"/>
       <c r="E934" s="4"/>
       <c r="F934" s="3"/>
       <c r="G934" s="3"/>
@@ -27346,7 +27358,7 @@
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
-      <c r="D935" s="27"/>
+      <c r="D935" s="26"/>
       <c r="E935" s="4"/>
       <c r="F935" s="3"/>
       <c r="G935" s="3"/>
@@ -27372,7 +27384,7 @@
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
-      <c r="D936" s="27"/>
+      <c r="D936" s="26"/>
       <c r="E936" s="4"/>
       <c r="F936" s="3"/>
       <c r="G936" s="3"/>
@@ -27398,7 +27410,7 @@
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
-      <c r="D937" s="27"/>
+      <c r="D937" s="26"/>
       <c r="E937" s="4"/>
       <c r="F937" s="3"/>
       <c r="G937" s="3"/>
@@ -27424,7 +27436,7 @@
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
-      <c r="D938" s="27"/>
+      <c r="D938" s="26"/>
       <c r="E938" s="4"/>
       <c r="F938" s="3"/>
       <c r="G938" s="3"/>
@@ -27450,7 +27462,7 @@
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
-      <c r="D939" s="27"/>
+      <c r="D939" s="26"/>
       <c r="E939" s="4"/>
       <c r="F939" s="3"/>
       <c r="G939" s="3"/>
@@ -27476,7 +27488,7 @@
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
-      <c r="D940" s="27"/>
+      <c r="D940" s="26"/>
       <c r="E940" s="4"/>
       <c r="F940" s="3"/>
       <c r="G940" s="3"/>
@@ -27502,7 +27514,7 @@
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
-      <c r="D941" s="27"/>
+      <c r="D941" s="26"/>
       <c r="E941" s="4"/>
       <c r="F941" s="3"/>
       <c r="G941" s="3"/>
@@ -27528,7 +27540,7 @@
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
-      <c r="D942" s="27"/>
+      <c r="D942" s="26"/>
       <c r="E942" s="4"/>
       <c r="F942" s="3"/>
       <c r="G942" s="3"/>
@@ -27554,7 +27566,7 @@
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
-      <c r="D943" s="27"/>
+      <c r="D943" s="26"/>
       <c r="E943" s="4"/>
       <c r="F943" s="3"/>
       <c r="G943" s="3"/>
@@ -27580,7 +27592,7 @@
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
-      <c r="D944" s="27"/>
+      <c r="D944" s="26"/>
       <c r="E944" s="4"/>
       <c r="F944" s="3"/>
       <c r="G944" s="3"/>
@@ -27606,7 +27618,7 @@
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
-      <c r="D945" s="27"/>
+      <c r="D945" s="26"/>
       <c r="E945" s="4"/>
       <c r="F945" s="3"/>
       <c r="G945" s="3"/>
@@ -27632,7 +27644,7 @@
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
-      <c r="D946" s="27"/>
+      <c r="D946" s="26"/>
       <c r="E946" s="4"/>
       <c r="F946" s="3"/>
       <c r="G946" s="3"/>
@@ -27658,7 +27670,7 @@
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
-      <c r="D947" s="27"/>
+      <c r="D947" s="26"/>
       <c r="E947" s="4"/>
       <c r="F947" s="3"/>
       <c r="G947" s="3"/>
@@ -27684,7 +27696,7 @@
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
-      <c r="D948" s="27"/>
+      <c r="D948" s="26"/>
       <c r="E948" s="4"/>
       <c r="F948" s="3"/>
       <c r="G948" s="3"/>
@@ -27710,7 +27722,7 @@
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
-      <c r="D949" s="27"/>
+      <c r="D949" s="26"/>
       <c r="E949" s="4"/>
       <c r="F949" s="3"/>
       <c r="G949" s="3"/>
@@ -27736,7 +27748,7 @@
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
-      <c r="D950" s="27"/>
+      <c r="D950" s="26"/>
       <c r="E950" s="4"/>
       <c r="F950" s="3"/>
       <c r="G950" s="3"/>
@@ -27762,7 +27774,7 @@
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
-      <c r="D951" s="27"/>
+      <c r="D951" s="26"/>
       <c r="E951" s="4"/>
       <c r="F951" s="3"/>
       <c r="G951" s="3"/>
@@ -27788,7 +27800,7 @@
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
-      <c r="D952" s="27"/>
+      <c r="D952" s="26"/>
       <c r="E952" s="4"/>
       <c r="F952" s="3"/>
       <c r="G952" s="3"/>
@@ -27814,7 +27826,7 @@
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
-      <c r="D953" s="27"/>
+      <c r="D953" s="26"/>
       <c r="E953" s="4"/>
       <c r="F953" s="3"/>
       <c r="G953" s="3"/>
@@ -27840,7 +27852,7 @@
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
-      <c r="D954" s="27"/>
+      <c r="D954" s="26"/>
       <c r="E954" s="4"/>
       <c r="F954" s="3"/>
       <c r="G954" s="3"/>
@@ -27866,7 +27878,7 @@
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
-      <c r="D955" s="27"/>
+      <c r="D955" s="26"/>
       <c r="E955" s="4"/>
       <c r="F955" s="3"/>
       <c r="G955" s="3"/>
@@ -27892,7 +27904,7 @@
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
-      <c r="D956" s="27"/>
+      <c r="D956" s="26"/>
       <c r="E956" s="4"/>
       <c r="F956" s="3"/>
       <c r="G956" s="3"/>
@@ -27918,7 +27930,7 @@
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
-      <c r="D957" s="27"/>
+      <c r="D957" s="26"/>
       <c r="E957" s="4"/>
       <c r="F957" s="3"/>
       <c r="G957" s="3"/>
@@ -27944,7 +27956,7 @@
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
-      <c r="D958" s="27"/>
+      <c r="D958" s="26"/>
       <c r="E958" s="4"/>
       <c r="F958" s="3"/>
       <c r="G958" s="3"/>
@@ -27970,7 +27982,7 @@
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
-      <c r="D959" s="27"/>
+      <c r="D959" s="26"/>
       <c r="E959" s="4"/>
       <c r="F959" s="3"/>
       <c r="G959" s="3"/>
@@ -27996,7 +28008,7 @@
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
-      <c r="D960" s="27"/>
+      <c r="D960" s="26"/>
       <c r="E960" s="4"/>
       <c r="F960" s="3"/>
       <c r="G960" s="3"/>
@@ -28022,7 +28034,7 @@
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
-      <c r="D961" s="27"/>
+      <c r="D961" s="26"/>
       <c r="E961" s="4"/>
       <c r="F961" s="3"/>
       <c r="G961" s="3"/>
@@ -28048,7 +28060,7 @@
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
-      <c r="D962" s="27"/>
+      <c r="D962" s="26"/>
       <c r="E962" s="4"/>
       <c r="F962" s="3"/>
       <c r="G962" s="3"/>
@@ -28074,7 +28086,7 @@
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
-      <c r="D963" s="27"/>
+      <c r="D963" s="26"/>
       <c r="E963" s="4"/>
       <c r="F963" s="3"/>
       <c r="G963" s="3"/>
@@ -28100,7 +28112,7 @@
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
-      <c r="D964" s="27"/>
+      <c r="D964" s="26"/>
       <c r="E964" s="4"/>
       <c r="F964" s="3"/>
       <c r="G964" s="3"/>
@@ -28126,7 +28138,7 @@
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
-      <c r="D965" s="27"/>
+      <c r="D965" s="26"/>
       <c r="E965" s="4"/>
       <c r="F965" s="3"/>
       <c r="G965" s="3"/>
@@ -28152,7 +28164,7 @@
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
-      <c r="D966" s="27"/>
+      <c r="D966" s="26"/>
       <c r="E966" s="4"/>
       <c r="F966" s="3"/>
       <c r="G966" s="3"/>
@@ -28178,7 +28190,7 @@
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
-      <c r="D967" s="27"/>
+      <c r="D967" s="26"/>
       <c r="E967" s="4"/>
       <c r="F967" s="3"/>
       <c r="G967" s="3"/>
@@ -28204,7 +28216,7 @@
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
-      <c r="D968" s="27"/>
+      <c r="D968" s="26"/>
       <c r="E968" s="4"/>
       <c r="F968" s="3"/>
       <c r="G968" s="3"/>
@@ -28230,7 +28242,7 @@
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
-      <c r="D969" s="27"/>
+      <c r="D969" s="26"/>
       <c r="E969" s="4"/>
       <c r="F969" s="3"/>
       <c r="G969" s="3"/>
@@ -28256,7 +28268,7 @@
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
-      <c r="D970" s="27"/>
+      <c r="D970" s="26"/>
       <c r="E970" s="4"/>
       <c r="F970" s="3"/>
       <c r="G970" s="3"/>
@@ -28282,7 +28294,7 @@
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
-      <c r="D971" s="27"/>
+      <c r="D971" s="26"/>
       <c r="E971" s="4"/>
       <c r="F971" s="3"/>
       <c r="G971" s="3"/>
@@ -28308,7 +28320,7 @@
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
-      <c r="D972" s="27"/>
+      <c r="D972" s="26"/>
       <c r="E972" s="4"/>
       <c r="F972" s="3"/>
       <c r="G972" s="3"/>
@@ -28334,7 +28346,7 @@
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
-      <c r="D973" s="27"/>
+      <c r="D973" s="26"/>
       <c r="E973" s="4"/>
       <c r="F973" s="3"/>
       <c r="G973" s="3"/>
@@ -28360,7 +28372,7 @@
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
-      <c r="D974" s="27"/>
+      <c r="D974" s="26"/>
       <c r="E974" s="4"/>
       <c r="F974" s="3"/>
       <c r="G974" s="3"/>
@@ -28386,7 +28398,7 @@
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
-      <c r="D975" s="27"/>
+      <c r="D975" s="26"/>
       <c r="E975" s="4"/>
       <c r="F975" s="3"/>
       <c r="G975" s="3"/>
@@ -28412,7 +28424,7 @@
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
-      <c r="D976" s="27"/>
+      <c r="D976" s="26"/>
       <c r="E976" s="4"/>
       <c r="F976" s="3"/>
       <c r="G976" s="3"/>
@@ -28438,7 +28450,7 @@
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
-      <c r="D977" s="27"/>
+      <c r="D977" s="26"/>
       <c r="E977" s="4"/>
       <c r="F977" s="3"/>
       <c r="G977" s="3"/>
@@ -28464,7 +28476,7 @@
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
-      <c r="D978" s="27"/>
+      <c r="D978" s="26"/>
       <c r="E978" s="4"/>
       <c r="F978" s="3"/>
       <c r="G978" s="3"/>
@@ -28490,7 +28502,7 @@
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
-      <c r="D979" s="27"/>
+      <c r="D979" s="26"/>
       <c r="E979" s="4"/>
       <c r="F979" s="3"/>
       <c r="G979" s="3"/>
@@ -28516,7 +28528,7 @@
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
-      <c r="D980" s="27"/>
+      <c r="D980" s="26"/>
       <c r="E980" s="4"/>
       <c r="F980" s="3"/>
       <c r="G980" s="3"/>
@@ -28542,7 +28554,7 @@
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
-      <c r="D981" s="27"/>
+      <c r="D981" s="26"/>
       <c r="E981" s="4"/>
       <c r="F981" s="3"/>
       <c r="G981" s="3"/>
@@ -28568,7 +28580,7 @@
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
-      <c r="D982" s="27"/>
+      <c r="D982" s="26"/>
       <c r="E982" s="4"/>
       <c r="F982" s="3"/>
       <c r="G982" s="3"/>
@@ -28594,7 +28606,7 @@
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
-      <c r="D983" s="27"/>
+      <c r="D983" s="26"/>
       <c r="E983" s="4"/>
       <c r="F983" s="3"/>
       <c r="G983" s="3"/>
@@ -28620,7 +28632,7 @@
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
-      <c r="D984" s="27"/>
+      <c r="D984" s="26"/>
       <c r="E984" s="4"/>
       <c r="F984" s="3"/>
       <c r="G984" s="3"/>
@@ -28646,7 +28658,7 @@
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
-      <c r="D985" s="27"/>
+      <c r="D985" s="26"/>
       <c r="E985" s="4"/>
       <c r="F985" s="3"/>
       <c r="G985" s="3"/>
@@ -28672,7 +28684,7 @@
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
-      <c r="D986" s="27"/>
+      <c r="D986" s="26"/>
       <c r="E986" s="4"/>
       <c r="F986" s="3"/>
       <c r="G986" s="3"/>
@@ -28698,7 +28710,7 @@
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
-      <c r="D987" s="27"/>
+      <c r="D987" s="26"/>
       <c r="E987" s="4"/>
       <c r="F987" s="3"/>
       <c r="G987" s="3"/>
@@ -28724,7 +28736,7 @@
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
-      <c r="D988" s="27"/>
+      <c r="D988" s="26"/>
       <c r="E988" s="4"/>
       <c r="F988" s="3"/>
       <c r="G988" s="3"/>
@@ -28750,7 +28762,7 @@
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
-      <c r="D989" s="27"/>
+      <c r="D989" s="26"/>
       <c r="E989" s="4"/>
       <c r="F989" s="3"/>
       <c r="G989" s="3"/>
@@ -28776,7 +28788,7 @@
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
-      <c r="D990" s="27"/>
+      <c r="D990" s="26"/>
       <c r="E990" s="4"/>
       <c r="F990" s="3"/>
       <c r="G990" s="3"/>
@@ -28802,7 +28814,7 @@
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
-      <c r="D991" s="27"/>
+      <c r="D991" s="26"/>
       <c r="E991" s="4"/>
       <c r="F991" s="3"/>
       <c r="G991" s="3"/>
@@ -28828,7 +28840,7 @@
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
-      <c r="D992" s="27"/>
+      <c r="D992" s="26"/>
       <c r="E992" s="4"/>
       <c r="F992" s="3"/>
       <c r="G992" s="3"/>
@@ -28854,7 +28866,7 @@
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
-      <c r="D993" s="27"/>
+      <c r="D993" s="26"/>
       <c r="E993" s="4"/>
       <c r="F993" s="3"/>
       <c r="G993" s="3"/>
@@ -28880,7 +28892,7 @@
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
-      <c r="D994" s="27"/>
+      <c r="D994" s="26"/>
       <c r="E994" s="4"/>
       <c r="F994" s="3"/>
       <c r="G994" s="3"/>
@@ -28906,7 +28918,7 @@
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
-      <c r="D995" s="27"/>
+      <c r="D995" s="26"/>
       <c r="E995" s="4"/>
       <c r="F995" s="3"/>
       <c r="G995" s="3"/>
@@ -28932,7 +28944,7 @@
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
-      <c r="D996" s="27"/>
+      <c r="D996" s="26"/>
       <c r="E996" s="4"/>
       <c r="F996" s="3"/>
       <c r="G996" s="3"/>
@@ -28958,7 +28970,7 @@
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
-      <c r="D997" s="27"/>
+      <c r="D997" s="26"/>
       <c r="E997" s="4"/>
       <c r="F997" s="3"/>
       <c r="G997" s="3"/>
@@ -28984,7 +28996,7 @@
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
-      <c r="D998" s="27"/>
+      <c r="D998" s="26"/>
       <c r="E998" s="4"/>
       <c r="F998" s="3"/>
       <c r="G998" s="3"/>
@@ -29010,7 +29022,7 @@
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
-      <c r="D999" s="27"/>
+      <c r="D999" s="26"/>
       <c r="E999" s="4"/>
       <c r="F999" s="3"/>
       <c r="G999" s="3"/>
@@ -29036,7 +29048,7 @@
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
-      <c r="D1000" s="27"/>
+      <c r="D1000" s="26"/>
       <c r="E1000" s="4"/>
       <c r="F1000" s="3"/>
       <c r="G1000" s="3"/>
@@ -29062,7 +29074,7 @@
       <c r="A1001" s="3"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
-      <c r="D1001" s="27"/>
+      <c r="D1001" s="26"/>
       <c r="E1001" s="4"/>
       <c r="F1001" s="3"/>
       <c r="G1001" s="3"/>
@@ -29088,7 +29100,7 @@
       <c r="A1002" s="3"/>
       <c r="B1002" s="3"/>
       <c r="C1002" s="3"/>
-      <c r="D1002" s="27"/>
+      <c r="D1002" s="26"/>
       <c r="E1002" s="4"/>
       <c r="F1002" s="3"/>
       <c r="G1002" s="3"/>
@@ -29114,12 +29126,10 @@
   <autoFilter ref="A1:G127" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
+        <filter val="Binary Search"/>
         <filter val="Binary Search / Heap"/>
         <filter val="Binary Search / Heap / Quick Select"/>
-        <filter val="GreedyHeap"/>
-        <filter val="Heap"/>
-        <filter val="Heap / Bucket Sort"/>
-        <filter val="Heap / Quick Select"/>
+        <filter val="Trie"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -29252,6 +29262,7 @@
     <hyperlink ref="A127" r:id="rId126" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/" xr:uid="{332AD428-BEFD-014F-9AF1-BD436C768081}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -58024,7 +58035,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/LEET_CODE_LIST.xlsx
+++ b/LEET_CODE_LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkat/Desktop/DSA_08_29_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D98D01C-8DD0-054D-8D61-E46DA5EFF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA4BC5-E7AF-9F40-A98E-96209DC2036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Patterns" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'amazon 1M'!$A$1:$B$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Patterns'!$A$1:$G$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Patterns'!$A$1:$G$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'My Patterns'!$A$1:$F$233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="576">
   <si>
     <t>Problem Name</t>
   </si>
@@ -2331,13 +2331,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1002"/>
+  <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2382,7 +2382,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2412,7 +2412,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2442,7 +2442,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2472,7 +2472,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2502,7 +2502,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2532,7 +2532,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2562,7 +2562,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2592,7 +2592,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="4"/>
@@ -2628,7 +2628,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="4"/>
@@ -2664,7 +2664,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4"/>
@@ -2700,7 +2700,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4"/>
@@ -2736,7 +2736,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="4"/>
@@ -2770,7 +2770,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -2780,7 +2780,7 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="4"/>
@@ -2806,7 +2806,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>568</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="3"/>
@@ -2838,7 +2838,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="4"/>
@@ -2874,7 +2874,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="4"/>
@@ -2910,7 +2910,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="4"/>
@@ -2946,17 +2946,17 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2978,20 +2978,26 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>25</v>
+    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -3010,9 +3016,9 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>14</v>
@@ -3020,15 +3026,15 @@
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3048,9 +3054,9 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
@@ -3058,16 +3064,14 @@
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3">
-        <v>6</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -3086,9 +3090,9 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
@@ -3096,12 +3100,12 @@
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -3122,9 +3126,9 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>14</v>
@@ -3132,13 +3136,11 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3">
-        <v>10</v>
-      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -3158,18 +3160,18 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -3190,15 +3192,15 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="4"/>
@@ -3222,15 +3224,15 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="4"/>
@@ -3254,15 +3256,15 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="4"/>
@@ -3286,15 +3288,15 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="4"/>
@@ -3318,17 +3320,15 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>38</v>
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D30" s="26"/>
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3350,15 +3350,17 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>39</v>
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3380,15 +3382,15 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="4"/>
@@ -3412,20 +3414,24 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -3446,7 +3452,7 @@
     </row>
     <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>44</v>
@@ -3460,7 +3466,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3482,7 +3488,7 @@
     </row>
     <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>44</v>
@@ -3496,7 +3502,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -3518,7 +3524,7 @@
     </row>
     <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>44</v>
@@ -3532,7 +3538,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3554,7 +3560,7 @@
     </row>
     <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>44</v>
@@ -3590,7 +3596,7 @@
     </row>
     <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>44</v>
@@ -3603,9 +3609,7 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -3626,20 +3630,20 @@
     </row>
     <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>575</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -3660,7 +3664,7 @@
     </row>
     <row r="40" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>44</v>
@@ -3671,9 +3675,7 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>575</v>
-      </c>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -3694,10 +3696,10 @@
     </row>
     <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>570</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="26" t="s">
@@ -3726,15 +3728,13 @@
     </row>
     <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>570</v>
+        <v>58</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="D42" s="26"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -3756,15 +3756,15 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -3786,15 +3786,15 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -3816,15 +3816,15 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -3846,15 +3846,15 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -3876,15 +3876,15 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3906,15 +3906,15 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -3936,15 +3936,15 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -3966,15 +3966,15 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -3996,15 +3996,15 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -4026,15 +4026,15 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -4056,15 +4056,15 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -4086,15 +4086,15 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4116,15 +4116,15 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -4146,15 +4146,15 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -4176,15 +4176,15 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -4206,15 +4206,15 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -4236,15 +4236,15 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -4266,15 +4266,15 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -4296,15 +4296,15 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -4326,15 +4326,15 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -4356,15 +4356,15 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -4386,15 +4386,15 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -4416,15 +4416,15 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4446,15 +4446,15 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -4476,15 +4476,15 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -4506,15 +4506,15 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -4536,15 +4536,15 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -4566,15 +4566,15 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -4596,15 +4596,15 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4626,15 +4626,15 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -4656,15 +4656,15 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -4686,18 +4686,22 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="D74" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="G74" s="3" t="s">
+        <v>572</v>
+      </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -4716,9 +4720,9 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
@@ -4750,12 +4754,12 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="26" t="s">
@@ -4763,9 +4767,7 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="3" t="s">
-        <v>572</v>
-      </c>
+      <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -4784,12 +4786,12 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>573</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="26" t="s">
@@ -4797,7 +4799,9 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="G77" s="3" t="s">
+        <v>572</v>
+      </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -4818,7 +4822,7 @@
     </row>
     <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>573</v>
@@ -4850,12 +4854,12 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="26" t="s">
@@ -4884,12 +4888,12 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>574</v>
+        <v>106</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="26" t="s">
@@ -4897,9 +4901,7 @@
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="3" t="s">
-        <v>572</v>
-      </c>
+      <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -4918,15 +4920,17 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -4948,15 +4952,17 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -4978,15 +4984,17 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="D83" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -5008,15 +5016,15 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5038,15 +5046,15 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -5068,15 +5076,15 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -5098,15 +5106,15 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -5128,15 +5136,15 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="D88" s="26"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -5158,15 +5166,15 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="D89" s="26"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -5188,15 +5196,15 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="26"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -5218,15 +5226,15 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="D91" s="26"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -5248,15 +5256,15 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="D92" s="26"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -5278,15 +5286,15 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -5308,15 +5316,15 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5338,15 +5346,15 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="D95" s="26"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -5368,15 +5376,15 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="26"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -5398,16 +5406,20 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="4"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -5428,9 +5440,9 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>126</v>
@@ -5438,7 +5450,7 @@
       <c r="C98" s="3">
         <v>2</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E98" s="4"/>
@@ -5462,17 +5474,17 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C99" s="3">
-        <v>2</v>
-      </c>
-      <c r="D99" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E99" s="4"/>
@@ -5496,9 +5508,9 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="5" t="s">
-        <v>128</v>
+    <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+      <c r="A100" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>126</v>
@@ -5506,7 +5518,7 @@
       <c r="C100" s="3">
         <v>1</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="4"/>
@@ -5530,17 +5542,17 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="25" t="s">
-        <v>129</v>
+    <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+      <c r="A101" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C101" s="3">
-        <v>1</v>
-      </c>
-      <c r="D101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="4"/>
@@ -5564,9 +5576,9 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>126</v>
@@ -5574,7 +5586,7 @@
       <c r="C102" s="3">
         <v>2</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="4"/>
@@ -5598,9 +5610,9 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>126</v>
@@ -5608,7 +5620,7 @@
       <c r="C103" s="3">
         <v>2</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E103" s="4"/>
@@ -5632,9 +5644,9 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>126</v>
@@ -5642,7 +5654,7 @@
       <c r="C104" s="3">
         <v>2</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="4"/>
@@ -5666,17 +5678,17 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C105" s="3">
-        <v>2</v>
-      </c>
-      <c r="D105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="4"/>
@@ -5700,20 +5712,16 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" s="3">
-        <v>1</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -5736,13 +5744,13 @@
     </row>
     <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="D107" s="26"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -5766,13 +5774,13 @@
     </row>
     <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -5796,13 +5804,13 @@
     </row>
     <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
+      <c r="D109" s="26"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -5824,15 +5832,15 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
+      <c r="D110" s="26"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -5854,15 +5862,15 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -5884,15 +5892,15 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
+      <c r="D112" s="26"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -5914,15 +5922,15 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
+      <c r="D113" s="26"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -5944,15 +5952,15 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
+      <c r="D114" s="26"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -5974,16 +5982,20 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="5" t="s">
-        <v>145</v>
+    <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="D115" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>565</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -6004,15 +6016,15 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C116" s="3"/>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E116" s="4" t="s">
@@ -6038,15 +6050,15 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C117" s="3"/>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E117" s="4" t="s">
@@ -6072,15 +6084,15 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C118" s="3"/>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E118" s="4" t="s">
@@ -6106,15 +6118,15 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C119" s="3"/>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E119" s="4" t="s">
@@ -6140,20 +6152,18 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>158</v>
+        <v>566</v>
       </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>565</v>
-      </c>
+      <c r="E120" s="4"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -6174,15 +6184,15 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>566</v>
       </c>
       <c r="C121" s="3"/>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E121" s="4"/>
@@ -6206,15 +6216,15 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>201</v>
+        <v>567</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>566</v>
       </c>
       <c r="C122" s="3"/>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E122" s="4"/>
@@ -6238,15 +6248,15 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>567</v>
+        <v>342</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>566</v>
       </c>
       <c r="C123" s="3"/>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E123" s="4"/>
@@ -6270,15 +6280,15 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>342</v>
+        <v>203</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>566</v>
       </c>
       <c r="C124" s="3"/>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E124" s="4"/>
@@ -6302,15 +6312,15 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>203</v>
+        <v>569</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>566</v>
       </c>
       <c r="C125" s="3"/>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E125" s="4"/>
@@ -6334,15 +6344,15 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
-        <v>569</v>
+    <row r="126" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+      <c r="A126" s="5" t="s">
+        <v>571</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>566</v>
+        <v>101</v>
       </c>
       <c r="C126" s="3"/>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="4"/>
@@ -6366,17 +6376,11 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>101</v>
-      </c>
+    <row r="127" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="D127" s="26"/>
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -6450,31 +6454,31 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
-      <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-      <c r="S130" s="3"/>
-      <c r="T130" s="3"/>
-      <c r="U130" s="3"/>
-      <c r="V130" s="3"/>
-      <c r="W130" s="3"/>
-      <c r="X130" s="3"/>
+    <row r="131" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
     </row>
     <row r="132" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
@@ -6767,7 +6771,7 @@
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="26"/>
-      <c r="E143" s="4"/>
+      <c r="E143" s="26"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -6793,7 +6797,7 @@
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
+      <c r="E144" s="4"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -29096,43 +29100,8 @@
       <c r="W1001" s="3"/>
       <c r="X1001" s="3"/>
     </row>
-    <row r="1002" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1002" s="3"/>
-      <c r="B1002" s="3"/>
-      <c r="C1002" s="3"/>
-      <c r="D1002" s="26"/>
-      <c r="E1002" s="4"/>
-      <c r="F1002" s="3"/>
-      <c r="G1002" s="3"/>
-      <c r="H1002" s="3"/>
-      <c r="I1002" s="3"/>
-      <c r="J1002" s="3"/>
-      <c r="K1002" s="3"/>
-      <c r="L1002" s="3"/>
-      <c r="M1002" s="3"/>
-      <c r="N1002" s="3"/>
-      <c r="O1002" s="3"/>
-      <c r="P1002" s="3"/>
-      <c r="Q1002" s="3"/>
-      <c r="R1002" s="3"/>
-      <c r="S1002" s="3"/>
-      <c r="T1002" s="3"/>
-      <c r="U1002" s="3"/>
-      <c r="V1002" s="3"/>
-      <c r="W1002" s="3"/>
-      <c r="X1002" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G127" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Binary Search"/>
-        <filter val="Binary Search / Heap"/>
-        <filter val="Binary Search / Heap / Quick Select"/>
-        <filter val="Trie"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G126" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -29150,116 +29119,115 @@
     <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="A73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="A75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="A77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="A79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="A81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="A83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="A85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="A87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="A89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="A92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="A93" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="A94" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="A96" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="A97" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="A98" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="A99" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A100" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="A101" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="A102" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="A103" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="A104" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="A105" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="A106" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="A107" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A108" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="A109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A110" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="A111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A112" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="A113" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="A114" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="A115" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="A116" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="A117" r:id="rId114" display="https://leetcode.com/problems/insert-into-a-binary-search-tree/" xr:uid="{ADBD6DE6-6F81-E641-B4B7-49FE47004641}"/>
-    <hyperlink ref="A118" r:id="rId115" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{B1461033-5BA0-7547-925B-C6D108E9EC86}"/>
-    <hyperlink ref="A119" r:id="rId116" display="https://leetcode.com/problems/min-stack/" xr:uid="{D9CEA329-85AD-7145-A930-4573E2655FE5}"/>
-    <hyperlink ref="A120" r:id="rId117" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/" xr:uid="{EE2700FD-DCE0-A541-95CD-CFA938FF0EB1}"/>
-    <hyperlink ref="A121" r:id="rId118" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{EAEFC768-DCE3-9548-ADC0-421667439610}"/>
-    <hyperlink ref="A122" r:id="rId119" display="https://leetcode.com/problems/buildings-with-an-ocean-view/" xr:uid="{5DCB413A-C4EE-D840-9910-3CB1E3BCBA59}"/>
-    <hyperlink ref="A123" r:id="rId120" display="https://leetcode.com/problems/next-greater-element-i/" xr:uid="{F91D423E-F23F-6544-ACF4-66573BC73611}"/>
-    <hyperlink ref="A124" r:id="rId121" display="https://leetcode.com/problems/132-pattern/" xr:uid="{7C06CC5A-E5D3-C840-BF03-372AE5318481}"/>
-    <hyperlink ref="A125" r:id="rId122" display="https://leetcode.com/problems/remove-k-digits/" xr:uid="{AA5738CB-9E06-E148-A2B3-CF1C00F95632}"/>
-    <hyperlink ref="A15" r:id="rId123" xr:uid="{C9B02FA7-A460-534B-8224-B58EACA416DC}"/>
-    <hyperlink ref="A20" r:id="rId124" xr:uid="{F0DF8437-0D5C-CB47-8F51-866DA9879A59}"/>
-    <hyperlink ref="A126" r:id="rId125" xr:uid="{6D685952-267C-C741-9BCC-8B81CDFEDCF1}"/>
-    <hyperlink ref="A127" r:id="rId126" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/" xr:uid="{332AD428-BEFD-014F-9AF1-BD436C768081}"/>
+    <hyperlink ref="A20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A93" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A94" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A96" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A97" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A98" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A99" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A100" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A101" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A102" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A103" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A104" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A105" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A106" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A107" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A108" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A110" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A112" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A113" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A114" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A115" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A116" r:id="rId113" display="https://leetcode.com/problems/insert-into-a-binary-search-tree/" xr:uid="{ADBD6DE6-6F81-E641-B4B7-49FE47004641}"/>
+    <hyperlink ref="A117" r:id="rId114" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{B1461033-5BA0-7547-925B-C6D108E9EC86}"/>
+    <hyperlink ref="A118" r:id="rId115" display="https://leetcode.com/problems/min-stack/" xr:uid="{D9CEA329-85AD-7145-A930-4573E2655FE5}"/>
+    <hyperlink ref="A119" r:id="rId116" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/" xr:uid="{EE2700FD-DCE0-A541-95CD-CFA938FF0EB1}"/>
+    <hyperlink ref="A120" r:id="rId117" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{EAEFC768-DCE3-9548-ADC0-421667439610}"/>
+    <hyperlink ref="A121" r:id="rId118" display="https://leetcode.com/problems/buildings-with-an-ocean-view/" xr:uid="{5DCB413A-C4EE-D840-9910-3CB1E3BCBA59}"/>
+    <hyperlink ref="A122" r:id="rId119" display="https://leetcode.com/problems/next-greater-element-i/" xr:uid="{F91D423E-F23F-6544-ACF4-66573BC73611}"/>
+    <hyperlink ref="A123" r:id="rId120" display="https://leetcode.com/problems/132-pattern/" xr:uid="{7C06CC5A-E5D3-C840-BF03-372AE5318481}"/>
+    <hyperlink ref="A124" r:id="rId121" display="https://leetcode.com/problems/remove-k-digits/" xr:uid="{AA5738CB-9E06-E148-A2B3-CF1C00F95632}"/>
+    <hyperlink ref="A15" r:id="rId122" xr:uid="{C9B02FA7-A460-534B-8224-B58EACA416DC}"/>
+    <hyperlink ref="A19" r:id="rId123" xr:uid="{F0DF8437-0D5C-CB47-8F51-866DA9879A59}"/>
+    <hyperlink ref="A125" r:id="rId124" xr:uid="{6D685952-267C-C741-9BCC-8B81CDFEDCF1}"/>
+    <hyperlink ref="A126" r:id="rId125" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/" xr:uid="{332AD428-BEFD-014F-9AF1-BD436C768081}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -29448,7 +29416,7 @@
   </sheetPr>
   <dimension ref="A1:AB896"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/LEET_CODE_LIST.xlsx
+++ b/LEET_CODE_LIST.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkat/Desktop/DSA_08_29_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA4BC5-E7AF-9F40-A98E-96209DC2036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2245976-254B-9943-8913-23B29904F03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Patterns" sheetId="1" r:id="rId1"/>
-    <sheet name="Expedia(LeetCode)" sheetId="2" r:id="rId2"/>
-    <sheet name="Jobs" sheetId="3" r:id="rId3"/>
-    <sheet name="My Patterns" sheetId="4" r:id="rId4"/>
-    <sheet name="amazon 3M" sheetId="5" r:id="rId5"/>
-    <sheet name="amazon 1M" sheetId="6" r:id="rId6"/>
-    <sheet name="amazon SysDesign problems " sheetId="7" r:id="rId7"/>
-    <sheet name="Microsoft HM" sheetId="8" r:id="rId8"/>
+    <sheet name="Jobs-Applied" sheetId="9" r:id="rId2"/>
+    <sheet name="Expedia(LeetCode)" sheetId="2" r:id="rId3"/>
+    <sheet name="Jobs" sheetId="3" r:id="rId4"/>
+    <sheet name="My Patterns" sheetId="4" r:id="rId5"/>
+    <sheet name="amazon 3M" sheetId="5" r:id="rId6"/>
+    <sheet name="amazon 1M" sheetId="6" r:id="rId7"/>
+    <sheet name="amazon SysDesign problems " sheetId="7" r:id="rId8"/>
+    <sheet name="Microsoft HM" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'amazon 1M'!$A$1:$B$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'amazon 1M'!$A$1:$B$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Patterns'!$A$1:$G$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'My Patterns'!$A$1:$F$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'My Patterns'!$A$1:$F$233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="596">
   <si>
     <t>Problem Name</t>
   </si>
@@ -1873,12 +1874,72 @@
   <si>
     <t>We can Solve this in binary search by searching diagonal + binary search. But it is hard and simple method is top-right and elimination</t>
   </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Apply Date</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Recrutier</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ch.v.mahe@gmail.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phoone</t>
+  </si>
+  <si>
+    <t>Senior/Software Engineer</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Doordash</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Interview Pending</t>
+  </si>
+  <si>
+    <t>Debora Majors</t>
+  </si>
+  <si>
+    <t>Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1996,8 +2057,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2052,8 +2134,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2061,11 +2149,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2116,6 +2219,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2331,13 +2442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1001"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2390,7 +2501,9 @@
         <v>5</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="26"/>
+      <c r="D2" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2420,7 +2533,9 @@
         <v>7</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2450,7 +2565,9 @@
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2480,7 +2597,9 @@
         <v>7</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2570,7 +2689,9 @@
         <v>7</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="26"/>
+      <c r="D8" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2592,7 +2713,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2628,7 +2749,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2664,7 +2785,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2700,7 +2821,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -2736,7 +2857,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2770,7 +2891,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2927,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>568</v>
       </c>
@@ -2838,7 +2959,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -2874,7 +2995,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2910,7 +3031,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -2946,7 +3067,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -2978,7 +3099,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -3016,7 +3137,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -3054,7 +3175,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -3090,7 +3211,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -3126,7 +3247,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -3160,7 +3281,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -3192,7 +3313,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -3224,7 +3345,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
@@ -3256,7 +3377,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -3288,7 +3409,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
@@ -3320,7 +3441,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>39</v>
       </c>
@@ -3350,7 +3471,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
@@ -3382,7 +3503,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
@@ -3414,7 +3535,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -3450,7 +3571,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -3486,7 +3607,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
@@ -3522,7 +3643,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>50</v>
       </c>
@@ -3558,7 +3679,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>52</v>
       </c>
@@ -3594,7 +3715,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>53</v>
       </c>
@@ -3628,7 +3749,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>54</v>
       </c>
@@ -3662,7 +3783,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
@@ -3694,7 +3815,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>56</v>
       </c>
@@ -3726,7 +3847,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>57</v>
       </c>
@@ -3756,7 +3877,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>59</v>
       </c>
@@ -3786,7 +3907,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>60</v>
       </c>
@@ -3816,7 +3937,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>61</v>
       </c>
@@ -3846,7 +3967,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>62</v>
       </c>
@@ -3876,7 +3997,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>63</v>
       </c>
@@ -3906,7 +4027,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>64</v>
       </c>
@@ -3936,7 +4057,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>65</v>
       </c>
@@ -3966,7 +4087,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>66</v>
       </c>
@@ -3996,7 +4117,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>67</v>
       </c>
@@ -4026,7 +4147,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>68</v>
       </c>
@@ -4056,7 +4177,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>69</v>
       </c>
@@ -4086,7 +4207,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>70</v>
       </c>
@@ -4116,7 +4237,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>71</v>
       </c>
@@ -4146,7 +4267,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>72</v>
       </c>
@@ -4176,7 +4297,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>73</v>
       </c>
@@ -4206,7 +4327,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>74</v>
       </c>
@@ -4236,7 +4357,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>75</v>
       </c>
@@ -4266,7 +4387,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>77</v>
       </c>
@@ -4274,7 +4395,9 @@
         <v>78</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="26"/>
+      <c r="D60" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -4296,7 +4419,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -4304,7 +4427,9 @@
         <v>78</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="26"/>
+      <c r="D61" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -4326,7 +4451,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>80</v>
       </c>
@@ -4334,7 +4459,9 @@
         <v>78</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="26"/>
+      <c r="D62" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -4356,7 +4483,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>81</v>
       </c>
@@ -4364,7 +4491,9 @@
         <v>78</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="26"/>
+      <c r="D63" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -4386,7 +4515,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>82</v>
       </c>
@@ -4394,7 +4523,9 @@
         <v>78</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="26"/>
+      <c r="D64" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -4416,7 +4547,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>83</v>
       </c>
@@ -4446,7 +4577,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>85</v>
       </c>
@@ -4476,7 +4607,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>87</v>
       </c>
@@ -4506,7 +4637,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>88</v>
       </c>
@@ -4536,7 +4667,7 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>89</v>
       </c>
@@ -4566,7 +4697,7 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>91</v>
       </c>
@@ -4596,7 +4727,7 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>92</v>
       </c>
@@ -4626,7 +4757,7 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>93</v>
       </c>
@@ -4656,7 +4787,7 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>95</v>
       </c>
@@ -4686,7 +4817,7 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>97</v>
       </c>
@@ -4720,7 +4851,7 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>99</v>
       </c>
@@ -4754,7 +4885,7 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>100</v>
       </c>
@@ -4786,7 +4917,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>102</v>
       </c>
@@ -4820,7 +4951,7 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>103</v>
       </c>
@@ -4854,7 +4985,7 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>104</v>
       </c>
@@ -4888,7 +5019,7 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
         <v>105</v>
       </c>
@@ -4920,7 +5051,7 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>107</v>
       </c>
@@ -4952,7 +5083,7 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>108</v>
       </c>
@@ -4984,7 +5115,7 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>109</v>
       </c>
@@ -5406,7 +5537,7 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
         <v>125</v>
       </c>
@@ -5440,7 +5571,7 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
         <v>127</v>
       </c>
@@ -5474,7 +5605,7 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
         <v>128</v>
       </c>
@@ -5508,7 +5639,7 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="25" t="s">
         <v>129</v>
       </c>
@@ -5542,7 +5673,7 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
         <v>130</v>
       </c>
@@ -5576,7 +5707,7 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>131</v>
       </c>
@@ -5610,7 +5741,7 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
         <v>132</v>
       </c>
@@ -5644,7 +5775,7 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
         <v>133</v>
       </c>
@@ -5678,7 +5809,7 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
         <v>134</v>
       </c>
@@ -5900,7 +6031,9 @@
         <v>140</v>
       </c>
       <c r="C112" s="3"/>
-      <c r="D112" s="26"/>
+      <c r="D112" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -5982,7 +6115,7 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>146</v>
       </c>
@@ -6016,7 +6149,7 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>261</v>
       </c>
@@ -6050,7 +6183,7 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>263</v>
       </c>
@@ -6084,7 +6217,7 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>197</v>
       </c>
@@ -6118,7 +6251,7 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>237</v>
       </c>
@@ -6152,7 +6285,7 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>199</v>
       </c>
@@ -6184,7 +6317,7 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>201</v>
       </c>
@@ -6216,7 +6349,7 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>567</v>
       </c>
@@ -6248,7 +6381,7 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>342</v>
       </c>
@@ -6280,7 +6413,7 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>203</v>
       </c>
@@ -6312,7 +6445,7 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>569</v>
       </c>
@@ -6344,7 +6477,7 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
         <v>571</v>
       </c>
@@ -6376,11 +6509,17 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+    <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+      <c r="A127" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="C127" s="3"/>
-      <c r="D127" s="26"/>
+      <c r="D127" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -6402,11 +6541,17 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+    <row r="128" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+      <c r="A128" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="C128" s="3"/>
-      <c r="D128" s="26"/>
+      <c r="D128" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -6428,31 +6573,42 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
-      <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
-      <c r="S129" s="3"/>
-      <c r="T129" s="3"/>
-      <c r="U129" s="3"/>
-      <c r="V129" s="3"/>
-      <c r="W129" s="3"/>
-      <c r="X129" s="3"/>
+    <row r="129" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
     </row>
     <row r="131" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
@@ -6745,7 +6901,7 @@
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="26"/>
-      <c r="E142" s="4"/>
+      <c r="E142" s="26"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -6771,7 +6927,7 @@
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
+      <c r="E143" s="4"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -29074,34 +29230,19 @@
       <c r="W1000" s="3"/>
       <c r="X1000" s="3"/>
     </row>
-    <row r="1001" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1001" s="3"/>
-      <c r="B1001" s="3"/>
-      <c r="C1001" s="3"/>
-      <c r="D1001" s="26"/>
-      <c r="E1001" s="4"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="3"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="3"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="3"/>
-      <c r="N1001" s="3"/>
-      <c r="O1001" s="3"/>
-      <c r="P1001" s="3"/>
-      <c r="Q1001" s="3"/>
-      <c r="R1001" s="3"/>
-      <c r="S1001" s="3"/>
-      <c r="T1001" s="3"/>
-      <c r="U1001" s="3"/>
-      <c r="V1001" s="3"/>
-      <c r="W1001" s="3"/>
-      <c r="X1001" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G126" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G126" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Array"/>
+        <filter val="Arrays"/>
+        <filter val="Intervals"/>
+        <filter val="Sliding Window"/>
+        <filter val="Trie"/>
+        <filter val="Two Pointers"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -29228,6 +29369,9 @@
     <hyperlink ref="A19" r:id="rId123" xr:uid="{F0DF8437-0D5C-CB47-8F51-866DA9879A59}"/>
     <hyperlink ref="A125" r:id="rId124" xr:uid="{6D685952-267C-C741-9BCC-8B81CDFEDCF1}"/>
     <hyperlink ref="A126" r:id="rId125" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/" xr:uid="{332AD428-BEFD-014F-9AF1-BD436C768081}"/>
+    <hyperlink ref="A127" r:id="rId126" display="https://leetcode.com/problems/subarray-sum-equals-k/" xr:uid="{7CD00D5A-6598-7C44-BE66-F28C039D2012}"/>
+    <hyperlink ref="A128" r:id="rId127" display="https://leetcode.com/problems/continuous-subarray-sum/" xr:uid="{3A0C7B05-A263-BC49-A141-F8B949C4E241}"/>
+    <hyperlink ref="A129" r:id="rId128" display="https://leetcode.com/problems/subarray-sums-divisible-by-k/" xr:uid="{6DA60CD8-77A5-8D47-A2B0-941B5B2E07C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -29235,6 +29379,583 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E6C5F5-FC88-F54E-8E23-856ABA3374D8}">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" s="31">
+        <v>45993</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G2" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" s="31">
+        <v>45993</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G3" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="31">
+        <v>45993</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G4" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" s="31">
+        <v>45981</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G5" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+    </row>
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+    </row>
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+    </row>
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+    </row>
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+    </row>
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+    </row>
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{D18CA543-96B1-B941-9356-421FC6BF9890}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{5DE6A715-C4DF-9243-9C14-819E4EB10A8A}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{688F9091-DFA6-A749-A3FE-2CE2A4EE2037}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{7DF51EE5-EFF9-B540-9EFC-6F0DDD5EABC9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -29337,7 +30058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -29409,7 +30130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -53279,7 +54000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -57535,7 +58256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -57894,7 +58615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -57995,7 +58716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/LEET_CODE_LIST.xlsx
+++ b/LEET_CODE_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkat/Desktop/DSA_08_29_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2245976-254B-9943-8913-23B29904F03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1A7B1-D9DD-0C43-9280-12A54013AF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'amazon 1M'!$A$1:$B$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Patterns'!$A$1:$G$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Patterns'!$A$1:$G$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'My Patterns'!$A$1:$F$233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="596">
   <si>
     <t>Problem Name</t>
   </si>
@@ -2448,7 +2448,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2493,7 +2493,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
         <v>139</v>
       </c>
@@ -5941,7 +5941,9 @@
         <v>140</v>
       </c>
       <c r="C109" s="3"/>
-      <c r="D109" s="26"/>
+      <c r="D109" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -5963,7 +5965,7 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
         <v>141</v>
       </c>
@@ -5971,7 +5973,9 @@
         <v>140</v>
       </c>
       <c r="C110" s="3"/>
-      <c r="D110" s="26"/>
+      <c r="D110" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -5993,7 +5997,7 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
         <v>142</v>
       </c>
@@ -6001,7 +6005,9 @@
         <v>140</v>
       </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="26"/>
+      <c r="D111" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -6023,7 +6029,7 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
         <v>143</v>
       </c>
@@ -6055,7 +6061,7 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
         <v>144</v>
       </c>
@@ -6063,7 +6069,9 @@
         <v>140</v>
       </c>
       <c r="C113" s="3"/>
-      <c r="D113" s="26"/>
+      <c r="D113" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -6085,7 +6093,7 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
         <v>145</v>
       </c>
@@ -6093,7 +6101,9 @@
         <v>140</v>
       </c>
       <c r="C114" s="3"/>
-      <c r="D114" s="26"/>
+      <c r="D114" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -6509,7 +6519,7 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
         <v>331</v>
       </c>
@@ -6541,7 +6551,7 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
         <v>594</v>
       </c>
@@ -6573,7 +6583,7 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
         <v>322</v>
       </c>
@@ -29231,16 +29241,17 @@
       <c r="X1000" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G126" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:G129" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Array"/>
         <filter val="Arrays"/>
         <filter val="Intervals"/>
         <filter val="Sliding Window"/>
         <filter val="Trie"/>
-        <filter val="Two Pointers"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <hyperlinks>

--- a/LEET_CODE_LIST.xlsx
+++ b/LEET_CODE_LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkat/Desktop/DSA_08_29_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1A7B1-D9DD-0C43-9280-12A54013AF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB9BB1C-654D-194B-9472-D367AF47812E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="6740" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Patterns" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'amazon 1M'!$A$1:$B$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Patterns'!$A$1:$G$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Patterns'!$A$1:$G$130</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'My Patterns'!$A$1:$F$233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="608">
   <si>
     <t>Problem Name</t>
   </si>
@@ -1908,9 +1908,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Phoone</t>
-  </si>
-  <si>
     <t>Senior/Software Engineer</t>
   </si>
   <si>
@@ -1933,6 +1930,45 @@
   </si>
   <si>
     <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>SnowFlake</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ByteDance</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Service Now</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>Instacart</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Jobs applied</t>
+  </si>
+  <si>
+    <t>AMD</t>
   </si>
 </sst>
 </file>
@@ -2445,10 +2481,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2621,7 +2657,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2651,7 +2687,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -5147,7 +5183,7 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>110</v>
       </c>
@@ -5155,7 +5191,9 @@
         <v>111</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="26"/>
+      <c r="D84" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5177,7 +5215,7 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>112</v>
       </c>
@@ -5185,7 +5223,9 @@
         <v>111</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="26"/>
+      <c r="D85" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -5207,15 +5247,18 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A86" s="5" t="s">
-        <v>113</v>
+    <row r="86" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="5">
+        <f>D135</f>
+        <v>0</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="26"/>
+      <c r="D86" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -5237,7 +5280,7 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
         <v>114</v>
       </c>
@@ -5245,7 +5288,9 @@
         <v>111</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="26"/>
+      <c r="D87" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -5267,7 +5312,7 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
         <v>115</v>
       </c>
@@ -5275,7 +5320,9 @@
         <v>111</v>
       </c>
       <c r="C88" s="3"/>
-      <c r="D88" s="26"/>
+      <c r="D88" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -5297,7 +5344,7 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
         <v>116</v>
       </c>
@@ -5305,7 +5352,9 @@
         <v>117</v>
       </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="26"/>
+      <c r="D89" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -5327,7 +5376,7 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
         <v>118</v>
       </c>
@@ -5335,7 +5384,9 @@
         <v>117</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="26"/>
+      <c r="D90" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -5357,7 +5408,7 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
         <v>119</v>
       </c>
@@ -5365,7 +5416,9 @@
         <v>117</v>
       </c>
       <c r="C91" s="3"/>
-      <c r="D91" s="26"/>
+      <c r="D91" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -5387,7 +5440,7 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
         <v>120</v>
       </c>
@@ -5395,7 +5448,9 @@
         <v>117</v>
       </c>
       <c r="C92" s="3"/>
-      <c r="D92" s="26"/>
+      <c r="D92" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -5417,7 +5472,7 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
         <v>121</v>
       </c>
@@ -5425,7 +5480,9 @@
         <v>117</v>
       </c>
       <c r="C93" s="3"/>
-      <c r="D93" s="26"/>
+      <c r="D93" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -5447,7 +5504,7 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
         <v>122</v>
       </c>
@@ -5455,7 +5512,9 @@
         <v>117</v>
       </c>
       <c r="C94" s="3"/>
-      <c r="D94" s="26"/>
+      <c r="D94" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5477,7 +5536,7 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
         <v>123</v>
       </c>
@@ -5485,7 +5544,9 @@
         <v>117</v>
       </c>
       <c r="C95" s="3"/>
-      <c r="D95" s="26"/>
+      <c r="D95" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -5507,7 +5568,7 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
         <v>124</v>
       </c>
@@ -5515,7 +5576,9 @@
         <v>117</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="26"/>
+      <c r="D96" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -5851,7 +5914,9 @@
         <v>136</v>
       </c>
       <c r="C106" s="3"/>
-      <c r="D106" s="26"/>
+      <c r="D106" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -5875,13 +5940,15 @@
     </row>
     <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="26"/>
+      <c r="D107" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -5905,13 +5972,15 @@
     </row>
     <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="26"/>
+      <c r="D108" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -5933,17 +6002,15 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C109" s="3"/>
-      <c r="D109" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="D109" s="26"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -5967,7 +6034,7 @@
     </row>
     <row r="110" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>140</v>
@@ -5999,7 +6066,7 @@
     </row>
     <row r="111" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>140</v>
@@ -6031,7 +6098,7 @@
     </row>
     <row r="112" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>140</v>
@@ -6063,7 +6130,7 @@
     </row>
     <row r="113" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>140</v>
@@ -6095,7 +6162,7 @@
     </row>
     <row r="114" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>140</v>
@@ -6125,20 +6192,18 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
-        <v>146</v>
+    <row r="115" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>565</v>
-      </c>
+      <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -6161,7 +6226,7 @@
     </row>
     <row r="116" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>126</v>
@@ -6195,7 +6260,7 @@
     </row>
     <row r="117" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>126</v>
@@ -6229,10 +6294,10 @@
     </row>
     <row r="118" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="26" t="s">
@@ -6263,7 +6328,7 @@
     </row>
     <row r="119" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>158</v>
@@ -6297,16 +6362,18 @@
     </row>
     <row r="120" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>566</v>
+        <v>158</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>565</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -6329,7 +6396,7 @@
     </row>
     <row r="121" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>566</v>
@@ -6361,7 +6428,7 @@
     </row>
     <row r="122" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>567</v>
+        <v>201</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>566</v>
@@ -6393,7 +6460,7 @@
     </row>
     <row r="123" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>342</v>
+        <v>567</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>566</v>
@@ -6425,7 +6492,7 @@
     </row>
     <row r="124" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>203</v>
+        <v>342</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>566</v>
@@ -6457,7 +6524,7 @@
     </row>
     <row r="125" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>569</v>
+        <v>203</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>566</v>
@@ -6487,12 +6554,12 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="5" t="s">
-        <v>571</v>
+    <row r="126" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
+        <v>569</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>101</v>
+        <v>566</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="26" t="s">
@@ -6521,10 +6588,10 @@
     </row>
     <row r="127" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
-        <v>331</v>
+        <v>571</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>595</v>
+        <v>101</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="26" t="s">
@@ -6553,10 +6620,10 @@
     </row>
     <row r="128" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="26" t="s">
@@ -6583,42 +6650,48 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+    </row>
+    <row r="130" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D129" s="30" t="s">
+      <c r="B130" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D130" s="30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
-      <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-      <c r="S130" s="3"/>
-      <c r="T130" s="3"/>
-      <c r="U130" s="3"/>
-      <c r="V130" s="3"/>
-      <c r="W130" s="3"/>
-      <c r="X130" s="3"/>
     </row>
     <row r="131" spans="1:24" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
@@ -6911,7 +6984,7 @@
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
+      <c r="E142" s="4"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -6937,7 +7010,7 @@
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="26"/>
-      <c r="E143" s="4"/>
+      <c r="E143" s="26"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -29240,18 +29313,38 @@
       <c r="W1000" s="3"/>
       <c r="X1000" s="3"/>
     </row>
+    <row r="1001" spans="1:24" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="26"/>
+      <c r="E1001" s="4"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G129" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:G130" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Arrays"/>
-        <filter val="Intervals"/>
-        <filter val="Sliding Window"/>
         <filter val="Trie"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
@@ -29337,7 +29430,7 @@
     <hyperlink ref="A83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="A84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="A85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="A86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A86" r:id="rId83" display="Interval List Intersections" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
     <hyperlink ref="A87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="A88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="A89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
@@ -29358,31 +29451,32 @@
     <hyperlink ref="A104" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="A105" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="A106" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A107" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="A108" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="A110" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="A112" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="A113" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="A114" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="A115" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="A116" r:id="rId113" display="https://leetcode.com/problems/insert-into-a-binary-search-tree/" xr:uid="{ADBD6DE6-6F81-E641-B4B7-49FE47004641}"/>
-    <hyperlink ref="A117" r:id="rId114" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{B1461033-5BA0-7547-925B-C6D108E9EC86}"/>
-    <hyperlink ref="A118" r:id="rId115" display="https://leetcode.com/problems/min-stack/" xr:uid="{D9CEA329-85AD-7145-A930-4573E2655FE5}"/>
-    <hyperlink ref="A119" r:id="rId116" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/" xr:uid="{EE2700FD-DCE0-A541-95CD-CFA938FF0EB1}"/>
-    <hyperlink ref="A120" r:id="rId117" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{EAEFC768-DCE3-9548-ADC0-421667439610}"/>
-    <hyperlink ref="A121" r:id="rId118" display="https://leetcode.com/problems/buildings-with-an-ocean-view/" xr:uid="{5DCB413A-C4EE-D840-9910-3CB1E3BCBA59}"/>
-    <hyperlink ref="A122" r:id="rId119" display="https://leetcode.com/problems/next-greater-element-i/" xr:uid="{F91D423E-F23F-6544-ACF4-66573BC73611}"/>
-    <hyperlink ref="A123" r:id="rId120" display="https://leetcode.com/problems/132-pattern/" xr:uid="{7C06CC5A-E5D3-C840-BF03-372AE5318481}"/>
-    <hyperlink ref="A124" r:id="rId121" display="https://leetcode.com/problems/remove-k-digits/" xr:uid="{AA5738CB-9E06-E148-A2B3-CF1C00F95632}"/>
+    <hyperlink ref="A108" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A109" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A110" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A111" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A112" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A113" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A114" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A115" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A116" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A117" r:id="rId113" display="https://leetcode.com/problems/insert-into-a-binary-search-tree/" xr:uid="{ADBD6DE6-6F81-E641-B4B7-49FE47004641}"/>
+    <hyperlink ref="A118" r:id="rId114" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{B1461033-5BA0-7547-925B-C6D108E9EC86}"/>
+    <hyperlink ref="A119" r:id="rId115" display="https://leetcode.com/problems/min-stack/" xr:uid="{D9CEA329-85AD-7145-A930-4573E2655FE5}"/>
+    <hyperlink ref="A120" r:id="rId116" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/" xr:uid="{EE2700FD-DCE0-A541-95CD-CFA938FF0EB1}"/>
+    <hyperlink ref="A121" r:id="rId117" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{EAEFC768-DCE3-9548-ADC0-421667439610}"/>
+    <hyperlink ref="A122" r:id="rId118" display="https://leetcode.com/problems/buildings-with-an-ocean-view/" xr:uid="{5DCB413A-C4EE-D840-9910-3CB1E3BCBA59}"/>
+    <hyperlink ref="A123" r:id="rId119" display="https://leetcode.com/problems/next-greater-element-i/" xr:uid="{F91D423E-F23F-6544-ACF4-66573BC73611}"/>
+    <hyperlink ref="A124" r:id="rId120" display="https://leetcode.com/problems/132-pattern/" xr:uid="{7C06CC5A-E5D3-C840-BF03-372AE5318481}"/>
+    <hyperlink ref="A125" r:id="rId121" display="https://leetcode.com/problems/remove-k-digits/" xr:uid="{AA5738CB-9E06-E148-A2B3-CF1C00F95632}"/>
     <hyperlink ref="A15" r:id="rId122" xr:uid="{C9B02FA7-A460-534B-8224-B58EACA416DC}"/>
     <hyperlink ref="A19" r:id="rId123" xr:uid="{F0DF8437-0D5C-CB47-8F51-866DA9879A59}"/>
-    <hyperlink ref="A125" r:id="rId124" xr:uid="{6D685952-267C-C741-9BCC-8B81CDFEDCF1}"/>
-    <hyperlink ref="A126" r:id="rId125" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/" xr:uid="{332AD428-BEFD-014F-9AF1-BD436C768081}"/>
-    <hyperlink ref="A127" r:id="rId126" display="https://leetcode.com/problems/subarray-sum-equals-k/" xr:uid="{7CD00D5A-6598-7C44-BE66-F28C039D2012}"/>
-    <hyperlink ref="A128" r:id="rId127" display="https://leetcode.com/problems/continuous-subarray-sum/" xr:uid="{3A0C7B05-A263-BC49-A141-F8B949C4E241}"/>
-    <hyperlink ref="A129" r:id="rId128" display="https://leetcode.com/problems/subarray-sums-divisible-by-k/" xr:uid="{6DA60CD8-77A5-8D47-A2B0-941B5B2E07C1}"/>
+    <hyperlink ref="A126" r:id="rId124" xr:uid="{6D685952-267C-C741-9BCC-8B81CDFEDCF1}"/>
+    <hyperlink ref="A127" r:id="rId125" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/" xr:uid="{332AD428-BEFD-014F-9AF1-BD436C768081}"/>
+    <hyperlink ref="A128" r:id="rId126" display="https://leetcode.com/problems/subarray-sum-equals-k/" xr:uid="{7CD00D5A-6598-7C44-BE66-F28C039D2012}"/>
+    <hyperlink ref="A129" r:id="rId127" display="https://leetcode.com/problems/continuous-subarray-sum/" xr:uid="{3A0C7B05-A263-BC49-A141-F8B949C4E241}"/>
+    <hyperlink ref="A130" r:id="rId128" display="https://leetcode.com/problems/subarray-sums-divisible-by-k/" xr:uid="{6DA60CD8-77A5-8D47-A2B0-941B5B2E07C1}"/>
+    <hyperlink ref="A107" r:id="rId129" display="https://leetcode.com/problems/design-add-and-search-words-data-structure/" xr:uid="{FAFC54B5-0276-5B42-B6F3-DA90FCD4E599}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -29391,13 +29485,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E6C5F5-FC88-F54E-8E23-856ABA3374D8}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -29406,9 +29500,10 @@
     <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>576</v>
       </c>
@@ -29428,10 +29523,13 @@
         <v>586</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>581</v>
       </c>
@@ -29442,7 +29540,7 @@
         <v>45993</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>584</v>
@@ -29454,18 +29552,18 @@
         <v>7164003591</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>582</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C3" s="31">
         <v>45993</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>584</v>
@@ -29477,18 +29575,18 @@
         <v>7164003591</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C4" s="31">
         <v>45993</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>584</v>
@@ -29500,9 +29598,9 @@
         <v>7164003591</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>583</v>
@@ -29511,10 +29609,10 @@
         <v>45981</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>592</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>593</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>585</v>
@@ -29523,97 +29621,240 @@
         <v>7164003591</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C6" s="31">
+        <v>45996</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G6" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C7" s="31">
+        <v>45996</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G7" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C8" s="31">
+        <v>45996</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G8" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" s="31">
+        <v>45996</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G9" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C10" s="31">
+        <v>45996</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G10" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C11" s="31">
+        <v>45996</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G11" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C12" s="31">
+        <v>45996</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G12" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C13" s="31">
+        <v>45996</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G13" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C14" s="31">
+        <v>45996</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G14" s="29">
+        <v>7164003591</v>
+      </c>
+      <c r="H14" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="C15" s="31">
+        <v>45996</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="G15" s="29">
+        <v>7164003591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -29622,7 +29863,7 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -29631,7 +29872,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -29640,7 +29881,7 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -29649,7 +29890,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -29658,7 +29899,7 @@
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -29667,7 +29908,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -29676,7 +29917,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -29685,7 +29926,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -29694,7 +29935,7 @@
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -29703,7 +29944,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -29712,7 +29953,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -29721,7 +29962,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -29730,7 +29971,7 @@
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -29739,7 +29980,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -29748,7 +29989,7 @@
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -29757,7 +29998,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -29766,7 +30007,7 @@
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -29775,7 +30016,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -29784,7 +30025,7 @@
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -29793,7 +30034,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -29802,7 +30043,7 @@
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -29811,7 +30052,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -29820,7 +30061,7 @@
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -29829,7 +30070,7 @@
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -29838,7 +30079,7 @@
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -29847,7 +30088,7 @@
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -29856,7 +30097,7 @@
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -29865,7 +30106,7 @@
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -29874,7 +30115,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -29883,7 +30124,7 @@
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -29892,7 +30133,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -29901,7 +30142,7 @@
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -29910,7 +30151,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -29919,7 +30160,7 @@
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -29928,7 +30169,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -29937,7 +30178,7 @@
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -29946,7 +30187,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
     </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -29961,6 +30202,16 @@
     <hyperlink ref="F3" r:id="rId2" xr:uid="{5DE6A715-C4DF-9243-9C14-819E4EB10A8A}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{688F9091-DFA6-A749-A3FE-2CE2A4EE2037}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{7DF51EE5-EFF9-B540-9EFC-6F0DDD5EABC9}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{2E8BE06B-6EE4-754F-931C-EA589975F46D}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{0BEAFD10-437E-6D40-AE3B-15FF6B4BCA15}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{30C8C374-E806-1248-B923-5FCE78DF86C0}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{A7C491AB-1679-3D43-B7CE-5D16D3F194AA}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{90837655-6C70-6042-A75C-4619ED0B7A1D}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{90C8B1AB-434B-4546-A979-DEACFD578F75}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{AF832EE2-DFBF-E84A-B9D0-04AA378841A2}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{0DE5EA45-C9AC-1744-BA44-B3BFAF178078}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{5A38E58B-375B-8347-9ED7-81B748D29D9A}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{834ECB6B-DFD0-504A-9A72-89B235220A2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LEET_CODE_LIST.xlsx
+++ b/LEET_CODE_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkat/Desktop/DSA_08_29_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB9BB1C-654D-194B-9472-D367AF47812E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9773722-1FB7-2E49-AA28-BD63E429C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="6740" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2484,7 +2484,7 @@
   <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4953,7 +4953,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>102</v>
       </c>
@@ -4987,7 +4987,7 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>103</v>
       </c>
@@ -29343,6 +29343,7 @@
   <autoFilter ref="A1:G130" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
+        <filter val="Heap / Quick Select"/>
         <filter val="Trie"/>
       </filters>
     </filterColumn>

--- a/LEET_CODE_LIST.xlsx
+++ b/LEET_CODE_LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkat/Desktop/DSA_08_29_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9773722-1FB7-2E49-AA28-BD63E429C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B592829-BC13-AA45-96A4-4F4BC52C46E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="6740" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="6720" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Patterns" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="609">
   <si>
     <t>Problem Name</t>
   </si>
@@ -1969,6 +1969,9 @@
   </si>
   <si>
     <t>AMD</t>
+  </si>
+  <si>
+    <t>BFSDFS/Graphs</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2487,7 @@
   <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3477,15 +3480,17 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>608</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="26"/>
+      <c r="D30" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -4583,7 +4588,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>83</v>
       </c>
@@ -4613,7 +4618,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>85</v>
       </c>
@@ -4621,7 +4626,9 @@
         <v>86</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="26"/>
+      <c r="D66" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -4643,7 +4650,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>87</v>
       </c>
@@ -4673,7 +4680,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>88</v>
       </c>
@@ -4681,7 +4688,9 @@
         <v>86</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="26"/>
+      <c r="D68" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -4703,7 +4712,7 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>89</v>
       </c>
@@ -4711,7 +4720,9 @@
         <v>90</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="26"/>
+      <c r="D69" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -4733,7 +4744,7 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>91</v>
       </c>
@@ -4741,7 +4752,9 @@
         <v>90</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="26"/>
+      <c r="D70" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -4763,7 +4776,7 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>92</v>
       </c>
@@ -4793,7 +4806,7 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>93</v>
       </c>
@@ -4953,7 +4966,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>102</v>
       </c>
@@ -4987,7 +5000,7 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>103</v>
       </c>
@@ -5906,7 +5919,7 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
         <v>135</v>
       </c>
@@ -5938,7 +5951,7 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>260</v>
       </c>
@@ -5970,7 +5983,7 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>137</v>
       </c>
@@ -6002,7 +6015,7 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
         <v>138</v>
       </c>
@@ -29343,8 +29356,11 @@
   <autoFilter ref="A1:G130" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Heap / Quick Select"/>
-        <filter val="Trie"/>
+        <filter val="BFSDFS/Graphs"/>
+        <filter val="Graph"/>
+        <filter val="Graph - Union Find"/>
+        <filter val="Graphs"/>
+        <filter val="GraphTopological Sort"/>
       </filters>
     </filterColumn>
   </autoFilter>
